--- a/data/balance_sheet/3digits/total/031_BS_TOTAL.xlsx
+++ b/data/balance_sheet/3digits/total/031_BS_TOTAL.xlsx
@@ -3,656 +3,24 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KBIL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KBIL!$A$1:$M$245</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KBIL'!$A$1:$N$245</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="209">
-  <si>
-    <t>031-Fishing</t>
-  </si>
-  <si>
-    <t>BALANCE SHEET (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>ASSETS</t>
-  </si>
-  <si>
-    <t>I-CURRENT ASSETS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   A-Liquid Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Cash</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Checks Received</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Banks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Checks Given and Payment Orders (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Other Liquid Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   B- Marketable Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Private Sector Bonds, Notes &amp; Bills </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Public Sector Bonds, Notes &amp; Bills </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Other Marketable Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Provisions for  Marketable Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   C- Short-Term Trade Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Customers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Notes Receivable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Discount on Notes Receivable (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Unearned Financial Leasing Interest (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Deposits and Guarantees Given</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Other Short-Term Trade Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Doubtful Trade Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Provis. for Doubtful Trade Receivables (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   D- Other Short-Term Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Receivables from Shareholders</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Receivables from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Receivables from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Receivables from Employees</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Other </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Discount on Other Notes Receivable (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Other Doubtful Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Provis. for Other Doubtful Receivables (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   E- Inventories</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Raw Materials &amp; Consumables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Work in Progress</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Finished Goods</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Merchandise</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Other Inventories</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Provisions for Inventories (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Advances on Purchase Orders</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   F- Constr.&amp; Restor.Costs Spread Over Yrs.</t>
-  </si>
-  <si>
-    <t>1- Constr.&amp;Restor.Costs Spr. Over Yrs.</t>
-  </si>
-  <si>
-    <t>2- Constr.Costs Reval.Adjust.to Inflation Spr.Over Yrs.</t>
-  </si>
-  <si>
-    <t>3- Advances to Subcontractors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   G- Prepaym.&amp; Accr. Inc.for the Next Months</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Prepayments for the Next Months</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Accrued Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  H- Other Current Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- V.A.T.Carried to the Next Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- V.A.T. Paid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Other V.A.T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Prepaid Taxes and Funds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Business Related Advances </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Advances to employees</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Stock Taking and Receiving Shortages</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Other </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       9- Provisions for Other Current Assets (-)</t>
-  </si>
-  <si>
-    <t>II- FIXED ASSETS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   A- Long-Term Trade Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Provisions for Doubtful Trade Receivables (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   B- Other Long-Term Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Disc.on Oth.Short-Term Notes Receivable (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Provis. for Other Doubtful Receivables (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   C- Financial Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Non-Marketable Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Provis.for  non-Marketable Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Subscribed Capital to Participations (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Provis.for Capital Share in Participations (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Subscribed Capital to Affili. Enterprises (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Provi.for Capital Share in Affili.Enterp. (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       9- Other Financial Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      10- Provi. for Other Financial Fixed Assets (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   D- Tangible Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Land</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Land Improvements</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Buildings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Machinery, Plant &amp; Equipment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Motor Vehicles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Furniture &amp; Fixtures</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Other Tangible Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Accumulated Depreciation (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       9- Assets in Construction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      10- Advances Paid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   E- Intangible Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Know-How</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Goodwill</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Formation and Organisation Expenses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Research and Development Expenses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Special Expenses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Other Intangible Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Accumulated Depreciation (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Advances Paid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   F- Assets Subject to Depletion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Exploration Expenses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Preparation and Development Expenses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Other Assets subject to Depletion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Accumulated Depletion (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Advances Paid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   G-Prepaym.&amp; Accrued Inc. for the Next Yrs.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Prepayments for the Next Years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   H- Other Long-Term Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- V.A.T. Deductable in the Following Years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Other V.A.T.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Inventory Held for the Next Years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Inventories and Tang.Fixed Assets to be Sold</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Prepaid taxes and funds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Other </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Provisions for  inventories (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Accumulated depreciation (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       9- Suspence Account</t>
-  </si>
-  <si>
-    <t>TOTAL ASSETS</t>
-  </si>
-  <si>
-    <t>LIABILITIES</t>
-  </si>
-  <si>
-    <t>I- SHORT-TERM LIABILITIES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   A- Financial Liabilities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Bank Loans</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Financial Leasing Payables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Deferred Financial Leasing Payable Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Princip.Installm.&amp; Int.Paym.of Long-Term Loans</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Principal Installm.&amp; Int.Paym.of  Bonds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Commercial Papers Issued</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Other Securities Issued</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Adjust.for Secur.Issued under Par Value (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       9- Other Financial Liabilities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   B- Trade Debts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Creditors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Notes Payable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Discount on Notes Payable (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Deposits and Guaranties Received</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Other Trade Debts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   C- Other Short-Term Debts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Amounts Owed to Shareholders</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Amounts Owed to Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Amounts Owed to Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Amounts Owed to Employees</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Disc.on Oth.Short-Term Notes Payable (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   D- Advances Received</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Advances Received on Purchase Orders</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Other Advances Received</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   E- Remunerations Spread Over Years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Advances to Constr.&amp;Restor.Costs Spr. Over Yrs.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Constr.Costs Reval.Adjust.to Inflation Spr.Over Yrs.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   F- Taxes and Other Liabilities Payable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Taxes and Funds Payable </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Social Security Costs Payable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Taxes &amp; Oth.Liab.that are Overd.or Deferred</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Other Liabilities Payable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   G- Provisions for Liabilities and Charges</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Provisions for Inc.Tax &amp; Oth.Liab.to Gov.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Prepaid Inc.Tax &amp; Other Liab.to Gov.(-) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Provisions for Severance Payments </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Provisions for Costs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Other Provisions for Liabilities and Charges</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   H- Defer.Inc.&amp; Accr.Exp.for the Next Months</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Deferred Income for the Next Months</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Accrued Expenses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   I- Other Short-Term Liabilities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- V.A.T. Calculated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Main and Branch Offices' Current Account</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Stock Taking and Receiving Surpluses</t>
-  </si>
-  <si>
-    <t>II- LONG-TERM LIABILITIES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Bonds Issued</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Other Securities Issued</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Adjust.for the Secur.Issued Under Par Value (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Other Financial Liabilities </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   C- Other Long-Term Debts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Other </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Disc. on Oth.Short-term Notes Payable (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Deferred &amp; Scheduled Paym.to Gov.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   D-Advances Received</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   E- Provisions for Liabilities and Charges</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Provisions for Severance Payments</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Other Provisions </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   F- Defer.Inc.&amp; Accr.Exp.for the Next Yrs.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Deferred Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   G- Other Long-Term Liabilities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- V.A.T. Deferred to the Next Years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Shares in the Plant and Equipment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Other </t>
-  </si>
-  <si>
-    <t>III- SHAREHOLDERS EQUITY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   A- Paid-in Capital</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Subscribed Capital </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Subscribed Capital Uncalled (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Revaluation Adjustment to Capital (+)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Revaluation Adjustment to Capital (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   B- Capital Reserves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Share Premium Account</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Gains From Reedemption of Shares</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Revaluation of Tangible Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Revaluation of Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Provisions for Commodities Recorded   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Provisions for Machinery and Equipment  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Other Capital Reserves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   C- Reserves from Retained Earnings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Legal Reserves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Reser.Provided for by the Artic.of the Assoc.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Extraordinary Reserves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Other Reserves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Special Funds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   D- Profit Brought Forward</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   E- Loss Brought Forward (-) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   F- Net Profit or Loss for the Financial Year</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Profit for the Financial Year</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Loss for the Financial Year (-)</t>
-  </si>
-  <si>
-    <t>TOTAL LIABILITIES</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
   </numFmts>
   <fonts count="12">
     <font>
@@ -899,178 +267,246 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="71">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="4" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="4" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="4" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="4" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="9" fillId="0" fontId="5" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="9" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="7" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="9" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="9" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="7" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="7" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="6" fillId="0" fontId="5" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="6" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="10" fillId="0" fontId="5" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="10" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="9" fillId="0" fontId="7" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="9" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="1" locked="1"/>
+      <protection locked="1" hidden="1"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="7" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="1" locked="1"/>
+      <protection locked="1" hidden="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" borderId="10" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="7" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="7" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="9" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="9" fillId="0" fontId="9" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="9" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="9" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="9" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="10" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="10" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="12" fillId="0" fontId="10" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="10" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="10" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="12" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="12" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="12" fillId="0" fontId="10" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="12" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="10" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" borderId="13" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="12" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="10" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -1365,22 +801,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N245"/>
+  <dimension ref="A1:O245"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A202" workbookViewId="0" zoomScaleNormal="100">
-      <selection activeCell="B210" sqref="B210"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="12.75" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="20" width="0.625"/>
-    <col bestFit="1" customWidth="1" max="2" min="2" style="20" width="35.5"/>
-    <col customWidth="1" max="13" min="3" style="20" width="11.625"/>
-    <col customWidth="1" max="14" min="14" style="20" width="2"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="14"/>
+    <col width="0.625" customWidth="1" style="20" min="1" max="1"/>
+    <col width="35.5" bestFit="1" customWidth="1" style="20" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="20" min="3" max="14"/>
+    <col width="2" customWidth="1" style="20" min="15" max="15"/>
+    <col hidden="1" style="14" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="9.949999999999999" r="1" s="70" spans="1:14">
+    <row r="1" ht="9.949999999999999" customHeight="1" s="70">
       <c r="A1" s="1" t="n"/>
       <c r="B1" s="29" t="n"/>
       <c r="C1" s="29" t="n"/>
@@ -1394,11 +830,14 @@
       <c r="K1" s="29" t="n"/>
       <c r="L1" s="29" t="n"/>
       <c r="M1" s="29" t="n"/>
-      <c r="N1" s="1" t="n"/>
-    </row>
-    <row r="2" spans="1:14">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
+      <c r="N1" s="29" t="n"/>
+      <c r="O1" s="1" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>031-Fishing</t>
+        </is>
       </c>
       <c r="B2" s="27" t="n"/>
       <c r="C2" s="54" t="n"/>
@@ -1412,11 +851,14 @@
       <c r="K2" s="54" t="n"/>
       <c r="L2" s="54" t="n"/>
       <c r="M2" s="54" t="n"/>
-      <c r="N2" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="13.5" r="3" s="70" spans="1:14">
-      <c r="A3" s="55" t="s">
-        <v>1</v>
+      <c r="N2" s="54" t="n"/>
+      <c r="O2" s="10" t="n"/>
+    </row>
+    <row r="3" ht="13.5" customHeight="1" s="70">
+      <c r="A3" s="55" t="inlineStr">
+        <is>
+          <t>BALANCE SHEET (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="B3" s="14" t="n"/>
       <c r="C3" s="29" t="n"/>
@@ -1430,12 +872,15 @@
       <c r="K3" s="29" t="n"/>
       <c r="L3" s="29" t="n"/>
       <c r="M3" s="29" t="n"/>
-      <c r="N3" s="1" t="n"/>
-    </row>
-    <row customHeight="1" ht="25.5" r="4" s="70" spans="1:14">
+      <c r="N3" s="29" t="n"/>
+      <c r="O3" s="1" t="n"/>
+    </row>
+    <row r="4" ht="25.5" customHeight="1" s="70">
       <c r="A4" s="3" t="n"/>
-      <c r="B4" s="30" t="s">
-        <v>2</v>
+      <c r="B4" s="30" t="inlineStr">
+        <is>
+          <t>ASSETS</t>
+        </is>
       </c>
       <c r="C4" s="31" t="n">
         <v>2009</v>
@@ -1470,58 +915,68 @@
       <c r="M4" s="31" t="n">
         <v>2019</v>
       </c>
-      <c r="N4" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="5" s="70" spans="1:14">
+      <c r="N4" s="31" t="n">
+        <v>2020</v>
+      </c>
+      <c r="O4" s="10" t="n"/>
+    </row>
+    <row r="5" ht="12.6" customHeight="1" s="70">
       <c r="A5" s="5" t="n"/>
-      <c r="B5" s="56" t="s">
-        <v>3</v>
+      <c r="B5" s="56" t="inlineStr">
+        <is>
+          <t>I-CURRENT ASSETS</t>
+        </is>
       </c>
       <c r="C5" s="32" t="n">
         <v>131438.93603</v>
       </c>
       <c r="D5" s="32" t="n">
-        <v>214016.51136</v>
+        <v>214460.82666</v>
       </c>
       <c r="E5" s="32" t="n">
         <v>345229.29323</v>
       </c>
       <c r="F5" s="33" t="n">
-        <v>427329.45765</v>
+        <v>427329.4576500001</v>
       </c>
       <c r="G5" s="32" t="n">
-        <v>510114.9621500001</v>
+        <v>510119.98174</v>
       </c>
       <c r="H5" s="33" t="n">
-        <v>296457.49737</v>
+        <v>296641.78093</v>
       </c>
       <c r="I5" s="32" t="n">
-        <v>275579.18825</v>
+        <v>278654.85167</v>
       </c>
       <c r="J5" s="33" t="n">
-        <v>293199.5366000001</v>
+        <v>320397.28747</v>
       </c>
       <c r="K5" s="32" t="n">
         <v>353614.37183</v>
       </c>
       <c r="L5" s="32" t="n">
-        <v>579743.3873399999</v>
+        <v>580138.6151300002</v>
       </c>
       <c r="M5" s="32" t="n">
-        <v>678657.18433</v>
-      </c>
-      <c r="N5" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="6" s="70" spans="1:14">
+        <v>682238.1050500001</v>
+      </c>
+      <c r="N5" s="32" t="n">
+        <v>762262.209</v>
+      </c>
+      <c r="O5" s="10" t="n"/>
+    </row>
+    <row r="6" ht="12.6" customHeight="1" s="70">
       <c r="A6" s="8" t="n"/>
-      <c r="B6" s="57" t="s">
-        <v>4</v>
+      <c r="B6" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   A-Liquid Assets</t>
+        </is>
       </c>
       <c r="C6" s="23" t="n">
         <v>17555.53797</v>
       </c>
       <c r="D6" s="23" t="n">
-        <v>18999.19776</v>
+        <v>19080.24166</v>
       </c>
       <c r="E6" s="23" t="n">
         <v>23622.33018</v>
@@ -1530,38 +985,43 @@
         <v>22819.02125</v>
       </c>
       <c r="G6" s="23" t="n">
-        <v>22093.35686</v>
+        <v>22094.28353</v>
       </c>
       <c r="H6" s="33" t="n">
-        <v>28702.50579</v>
+        <v>28703.89174</v>
       </c>
       <c r="I6" s="23" t="n">
-        <v>28967.27129</v>
+        <v>28978.85146</v>
       </c>
       <c r="J6" s="33" t="n">
-        <v>36052.54093</v>
+        <v>38469.07205</v>
       </c>
       <c r="K6" s="23" t="n">
         <v>36682.94695000001</v>
       </c>
       <c r="L6" s="23" t="n">
-        <v>43095.13078</v>
+        <v>43117.52244</v>
       </c>
       <c r="M6" s="23" t="n">
-        <v>73585.50235</v>
-      </c>
-      <c r="N6" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="7" s="70" spans="1:14">
+        <v>74386.18302</v>
+      </c>
+      <c r="N6" s="23" t="n">
+        <v>91832.63800000001</v>
+      </c>
+      <c r="O6" s="11" t="n"/>
+    </row>
+    <row r="7" ht="12.6" customHeight="1" s="70">
       <c r="A7" s="5" t="n"/>
-      <c r="B7" s="64" t="s">
-        <v>5</v>
+      <c r="B7" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Cash</t>
+        </is>
       </c>
       <c r="C7" s="22" t="n">
         <v>10510.47203</v>
       </c>
       <c r="D7" s="22" t="n">
-        <v>10003.39573</v>
+        <v>10082.64878</v>
       </c>
       <c r="E7" s="22" t="n">
         <v>11462.17044</v>
@@ -1570,32 +1030,37 @@
         <v>8547.320519999999</v>
       </c>
       <c r="G7" s="22" t="n">
-        <v>12037.83706</v>
+        <v>12037.83914</v>
       </c>
       <c r="H7" s="21" t="n">
-        <v>8158.671810000001</v>
+        <v>8159.09082</v>
       </c>
       <c r="I7" s="22" t="n">
-        <v>13453.99556</v>
+        <v>13459.30567</v>
       </c>
       <c r="J7" s="21" t="n">
-        <v>12193.16997</v>
+        <v>12207.84888</v>
       </c>
       <c r="K7" s="22" t="n">
         <v>14974.45628</v>
       </c>
       <c r="L7" s="22" t="n">
-        <v>12925.86182</v>
+        <v>12948.05348</v>
       </c>
       <c r="M7" s="22" t="n">
-        <v>19996.74389</v>
-      </c>
-      <c r="N7" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="8" s="70" spans="1:14">
+        <v>20244.54123</v>
+      </c>
+      <c r="N7" s="22" t="n">
+        <v>17463.585</v>
+      </c>
+      <c r="O7" s="10" t="n"/>
+    </row>
+    <row r="8" ht="12.6" customHeight="1" s="70">
       <c r="A8" s="5" t="n"/>
-      <c r="B8" s="64" t="s">
-        <v>6</v>
+      <c r="B8" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Checks Received</t>
+        </is>
       </c>
       <c r="C8" s="22" t="n">
         <v>6321.347390000001</v>
@@ -1619,7 +1084,7 @@
         <v>6062.06199</v>
       </c>
       <c r="J8" s="21" t="n">
-        <v>14323.32231</v>
+        <v>15625.83217</v>
       </c>
       <c r="K8" s="22" t="n">
         <v>11112.33343</v>
@@ -1628,20 +1093,25 @@
         <v>18000.60113</v>
       </c>
       <c r="M8" s="22" t="n">
-        <v>27245.32888</v>
-      </c>
-      <c r="N8" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="9" s="70" spans="1:14">
+        <v>27499.67938</v>
+      </c>
+      <c r="N8" s="22" t="n">
+        <v>19922.952</v>
+      </c>
+      <c r="O8" s="10" t="n"/>
+    </row>
+    <row r="9" ht="12.6" customHeight="1" s="70">
       <c r="A9" s="5" t="n"/>
-      <c r="B9" s="64" t="s">
-        <v>7</v>
+      <c r="B9" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Banks</t>
+        </is>
       </c>
       <c r="C9" s="22" t="n">
         <v>4550.32764</v>
       </c>
       <c r="D9" s="22" t="n">
-        <v>6789.130689999999</v>
+        <v>6790.921539999999</v>
       </c>
       <c r="E9" s="22" t="n">
         <v>9067.80884</v>
@@ -1650,32 +1120,37 @@
         <v>10983.28926</v>
       </c>
       <c r="G9" s="22" t="n">
-        <v>12928.00174</v>
+        <v>12928.92633</v>
       </c>
       <c r="H9" s="21" t="n">
-        <v>14515.11239</v>
+        <v>14516.07933</v>
       </c>
       <c r="I9" s="22" t="n">
-        <v>15257.65821</v>
+        <v>15260.48257</v>
       </c>
       <c r="J9" s="21" t="n">
-        <v>25095.42155</v>
+        <v>26194.7639</v>
       </c>
       <c r="K9" s="22" t="n">
         <v>21741.89844</v>
       </c>
       <c r="L9" s="22" t="n">
-        <v>28189.93599</v>
+        <v>28190.13599</v>
       </c>
       <c r="M9" s="22" t="n">
-        <v>53615.99476000001</v>
-      </c>
-      <c r="N9" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="10" s="70" spans="1:14">
+        <v>53900.89759</v>
+      </c>
+      <c r="N9" s="22" t="n">
+        <v>61675.699</v>
+      </c>
+      <c r="O9" s="10" t="n"/>
+    </row>
+    <row r="10" ht="12.6" customHeight="1" s="70">
       <c r="A10" s="5" t="n"/>
-      <c r="B10" s="59" t="s">
-        <v>8</v>
+      <c r="B10" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Checks Given and Payment Orders (-)</t>
+        </is>
       </c>
       <c r="C10" s="22" t="n">
         <v>3857.22764</v>
@@ -1710,12 +1185,17 @@
       <c r="M10" s="22" t="n">
         <v>28588.96716</v>
       </c>
-      <c r="N10" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="11" s="70" spans="1:14">
+      <c r="N10" s="22" t="n">
+        <v>9645.257</v>
+      </c>
+      <c r="O10" s="10" t="n"/>
+    </row>
+    <row r="11" ht="12.6" customHeight="1" s="70">
       <c r="A11" s="5" t="n"/>
-      <c r="B11" s="64" t="s">
-        <v>9</v>
+      <c r="B11" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other Liquid Assets</t>
+        </is>
       </c>
       <c r="C11" s="22" t="n">
         <v>30.61855</v>
@@ -1733,10 +1213,10 @@
         <v>348.15791</v>
       </c>
       <c r="H11" s="21" t="n">
-        <v>926.33604</v>
+        <v>926.3360399999999</v>
       </c>
       <c r="I11" s="22" t="n">
-        <v>327.35925</v>
+        <v>330.80495</v>
       </c>
       <c r="J11" s="21" t="n">
         <v>860.8614900000001</v>
@@ -1748,14 +1228,19 @@
         <v>1360.4048</v>
       </c>
       <c r="M11" s="22" t="n">
-        <v>1316.40198</v>
-      </c>
-      <c r="N11" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="12" s="70" spans="1:14">
+        <v>1330.03198</v>
+      </c>
+      <c r="N11" s="22" t="n">
+        <v>2415.659</v>
+      </c>
+      <c r="O11" s="10" t="n"/>
+    </row>
+    <row r="12" ht="12.6" customHeight="1" s="70">
       <c r="A12" s="8" t="n"/>
-      <c r="B12" s="60" t="s">
-        <v>10</v>
+      <c r="B12" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   B- Marketable Securities</t>
+        </is>
       </c>
       <c r="C12" s="23" t="n">
         <v>117.36043</v>
@@ -1790,12 +1275,17 @@
       <c r="M12" s="23" t="n">
         <v>60.0217</v>
       </c>
-      <c r="N12" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="13" s="70" spans="1:14">
+      <c r="N12" s="23" t="n">
+        <v>61.967</v>
+      </c>
+      <c r="O12" s="11" t="n"/>
+    </row>
+    <row r="13" ht="12.6" customHeight="1" s="70">
       <c r="A13" s="5" t="n"/>
-      <c r="B13" s="64" t="s">
-        <v>11</v>
+      <c r="B13" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Securities</t>
+        </is>
       </c>
       <c r="C13" s="22" t="n">
         <v>0</v>
@@ -1830,12 +1320,17 @@
       <c r="M13" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N13" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="14" s="70" spans="1:14">
+      <c r="N13" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" s="10" t="n"/>
+    </row>
+    <row r="14" ht="12.6" customHeight="1" s="70">
       <c r="A14" s="5" t="n"/>
-      <c r="B14" s="64" t="s">
-        <v>12</v>
+      <c r="B14" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Private Sector Bonds, Notes &amp; Bills </t>
+        </is>
       </c>
       <c r="C14" s="22" t="n">
         <v>1.31657</v>
@@ -1870,12 +1365,17 @@
       <c r="M14" s="22" t="n">
         <v>60.0217</v>
       </c>
-      <c r="N14" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="15" s="70" spans="1:14">
+      <c r="N14" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" s="10" t="n"/>
+    </row>
+    <row r="15" ht="12.6" customHeight="1" s="70">
       <c r="A15" s="5" t="n"/>
-      <c r="B15" s="64" t="s">
-        <v>13</v>
+      <c r="B15" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Public Sector Bonds, Notes &amp; Bills </t>
+        </is>
       </c>
       <c r="C15" s="22" t="n">
         <v>0.00111</v>
@@ -1910,12 +1410,17 @@
       <c r="M15" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N15" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="16" s="70" spans="1:14">
+      <c r="N15" s="22" t="n">
+        <v>61.967</v>
+      </c>
+      <c r="O15" s="10" t="n"/>
+    </row>
+    <row r="16" ht="12.6" customHeight="1" s="70">
       <c r="A16" s="5" t="n"/>
-      <c r="B16" s="64" t="s">
-        <v>14</v>
+      <c r="B16" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Other Marketable Securities</t>
+        </is>
       </c>
       <c r="C16" s="22" t="n">
         <v>116.04275</v>
@@ -1950,12 +1455,17 @@
       <c r="M16" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N16" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="17" s="70" spans="1:14">
+      <c r="N16" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" s="10" t="n"/>
+    </row>
+    <row r="17" ht="12.6" customHeight="1" s="70">
       <c r="A17" s="5" t="n"/>
-      <c r="B17" s="61" t="s">
-        <v>15</v>
+      <c r="B17" s="61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Provisions for  Marketable Securities (-)</t>
+        </is>
       </c>
       <c r="C17" s="22" t="n">
         <v>0</v>
@@ -1990,18 +1500,23 @@
       <c r="M17" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N17" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="18" s="70" spans="1:14">
+      <c r="N17" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" s="10" t="n"/>
+    </row>
+    <row r="18" ht="12.6" customHeight="1" s="70">
       <c r="A18" s="8" t="n"/>
-      <c r="B18" s="60" t="s">
-        <v>16</v>
+      <c r="B18" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   C- Short-Term Trade Receivables</t>
+        </is>
       </c>
       <c r="C18" s="23" t="n">
         <v>35310.41892</v>
       </c>
       <c r="D18" s="23" t="n">
-        <v>59143.1524</v>
+        <v>59318.34163</v>
       </c>
       <c r="E18" s="23" t="n">
         <v>122386.77674</v>
@@ -2013,35 +1528,40 @@
         <v>158409.35549</v>
       </c>
       <c r="H18" s="33" t="n">
-        <v>106775.19746</v>
+        <v>106804.00312</v>
       </c>
       <c r="I18" s="23" t="n">
-        <v>106179.86798</v>
+        <v>108411.82794</v>
       </c>
       <c r="J18" s="33" t="n">
-        <v>102969.15814</v>
+        <v>104333.59671</v>
       </c>
       <c r="K18" s="23" t="n">
         <v>114471.86653</v>
       </c>
       <c r="L18" s="23" t="n">
-        <v>161297.82901</v>
+        <v>161448.38101</v>
       </c>
       <c r="M18" s="23" t="n">
-        <v>188986.92394</v>
-      </c>
-      <c r="N18" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="19" s="70" spans="1:14">
+        <v>190054.98736</v>
+      </c>
+      <c r="N18" s="23" t="n">
+        <v>227593.886</v>
+      </c>
+      <c r="O18" s="11" t="n"/>
+    </row>
+    <row r="19" ht="12.6" customHeight="1" s="70">
       <c r="A19" s="5" t="n"/>
-      <c r="B19" s="64" t="s">
-        <v>17</v>
+      <c r="B19" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Customers</t>
+        </is>
       </c>
       <c r="C19" s="22" t="n">
         <v>33781.71739</v>
       </c>
       <c r="D19" s="22" t="n">
-        <v>55576.53855</v>
+        <v>55747.12478</v>
       </c>
       <c r="E19" s="22" t="n">
         <v>115532.00813</v>
@@ -2053,29 +1573,34 @@
         <v>139890.09915</v>
       </c>
       <c r="H19" s="21" t="n">
-        <v>88981.05106</v>
+        <v>89004.33613</v>
       </c>
       <c r="I19" s="22" t="n">
-        <v>95987.38426000001</v>
+        <v>97614.74122</v>
       </c>
       <c r="J19" s="21" t="n">
-        <v>94286.41503999999</v>
+        <v>94940.07960999999</v>
       </c>
       <c r="K19" s="22" t="n">
         <v>103481.89154</v>
       </c>
       <c r="L19" s="22" t="n">
-        <v>142172.78679</v>
+        <v>142323.33879</v>
       </c>
       <c r="M19" s="22" t="n">
-        <v>177936.10478</v>
-      </c>
-      <c r="N19" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="20" s="70" spans="1:14">
+        <v>178791.51333</v>
+      </c>
+      <c r="N19" s="22" t="n">
+        <v>212725.286</v>
+      </c>
+      <c r="O19" s="10" t="n"/>
+    </row>
+    <row r="20" ht="12.6" customHeight="1" s="70">
       <c r="A20" s="5" t="n"/>
-      <c r="B20" s="61" t="s">
-        <v>18</v>
+      <c r="B20" s="61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Notes Receivable</t>
+        </is>
       </c>
       <c r="C20" s="22" t="n">
         <v>427.08282</v>
@@ -2099,23 +1624,28 @@
         <v>6415.06367</v>
       </c>
       <c r="J20" s="21" t="n">
-        <v>6421.20947</v>
+        <v>6461.20947</v>
       </c>
       <c r="K20" s="22" t="n">
-        <v>9116.660459999999</v>
+        <v>9116.660460000001</v>
       </c>
       <c r="L20" s="22" t="n">
-        <v>9631.083930000001</v>
+        <v>9631.083929999999</v>
       </c>
       <c r="M20" s="22" t="n">
-        <v>8472.003050000001</v>
-      </c>
-      <c r="N20" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="21" s="70" spans="1:14">
+        <v>8682.176599999999</v>
+      </c>
+      <c r="N20" s="22" t="n">
+        <v>10930.62</v>
+      </c>
+      <c r="O20" s="10" t="n"/>
+    </row>
+    <row r="21" ht="12.6" customHeight="1" s="70">
       <c r="A21" s="5" t="n"/>
-      <c r="B21" s="64" t="s">
-        <v>19</v>
+      <c r="B21" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Discount on Notes Receivable (-)</t>
+        </is>
       </c>
       <c r="C21" s="22" t="n">
         <v>0</v>
@@ -2150,12 +1680,17 @@
       <c r="M21" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N21" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="22" s="70" spans="1:14">
+      <c r="N21" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" s="10" t="n"/>
+    </row>
+    <row r="22" ht="12.6" customHeight="1" s="70">
       <c r="A22" s="5" t="n"/>
-      <c r="B22" s="64" t="s">
-        <v>20</v>
+      <c r="B22" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Unearned Financial Leasing Interest (-)</t>
+        </is>
       </c>
       <c r="C22" s="22" t="n">
         <v>0</v>
@@ -2190,21 +1725,26 @@
       <c r="M22" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N22" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="23" s="70" spans="1:14">
+      <c r="N22" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" s="10" t="n"/>
+    </row>
+    <row r="23" ht="12.6" customHeight="1" s="70">
       <c r="A23" s="5" t="n"/>
-      <c r="B23" s="61" t="s">
-        <v>21</v>
+      <c r="B23" s="61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Deposits and Guarantees Given</t>
+        </is>
       </c>
       <c r="C23" s="22" t="n">
         <v>140.7591</v>
       </c>
       <c r="D23" s="22" t="n">
-        <v>356.21449</v>
+        <v>360.81749</v>
       </c>
       <c r="E23" s="22" t="n">
-        <v>762.3800300000001</v>
+        <v>762.3800299999999</v>
       </c>
       <c r="F23" s="21" t="n">
         <v>184.17296</v>
@@ -2213,13 +1753,13 @@
         <v>271.0657</v>
       </c>
       <c r="H23" s="21" t="n">
-        <v>1449.71479</v>
+        <v>1455.23538</v>
       </c>
       <c r="I23" s="22" t="n">
-        <v>828.25215</v>
+        <v>1432.85515</v>
       </c>
       <c r="J23" s="21" t="n">
-        <v>615.80432</v>
+        <v>1286.57832</v>
       </c>
       <c r="K23" s="22" t="n">
         <v>623.1727099999999</v>
@@ -2228,20 +1768,25 @@
         <v>7463.760719999999</v>
       </c>
       <c r="M23" s="22" t="n">
-        <v>781.0246299999999</v>
-      </c>
-      <c r="N23" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="24" s="70" spans="1:14">
+        <v>781.28883</v>
+      </c>
+      <c r="N23" s="22" t="n">
+        <v>1211.208</v>
+      </c>
+      <c r="O23" s="10" t="n"/>
+    </row>
+    <row r="24" ht="12.6" customHeight="1" s="70">
       <c r="A24" s="5" t="n"/>
-      <c r="B24" s="64" t="s">
-        <v>22</v>
+      <c r="B24" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Other Short-Term Trade Receivables</t>
+        </is>
       </c>
       <c r="C24" s="22" t="n">
         <v>633.2947800000001</v>
       </c>
       <c r="D24" s="22" t="n">
-        <v>366.97627</v>
+        <v>366.9762700000001</v>
       </c>
       <c r="E24" s="22" t="n">
         <v>1808.38402</v>
@@ -2259,7 +1804,7 @@
         <v>1560.89117</v>
       </c>
       <c r="J24" s="21" t="n">
-        <v>679.9259300000001</v>
+        <v>679.9259299999999</v>
       </c>
       <c r="K24" s="22" t="n">
         <v>771.1955700000001</v>
@@ -2268,14 +1813,19 @@
         <v>1703.39414</v>
       </c>
       <c r="M24" s="22" t="n">
-        <v>1258.94588</v>
-      </c>
-      <c r="N24" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="25" s="70" spans="1:14">
+        <v>1261.163</v>
+      </c>
+      <c r="N24" s="22" t="n">
+        <v>2288.586</v>
+      </c>
+      <c r="O24" s="10" t="n"/>
+    </row>
+    <row r="25" ht="12.6" customHeight="1" s="70">
       <c r="A25" s="5" t="n"/>
-      <c r="B25" s="64" t="s">
-        <v>23</v>
+      <c r="B25" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Doubtful Trade Receivables</t>
+        </is>
       </c>
       <c r="C25" s="22" t="n">
         <v>3908.16194</v>
@@ -2305,17 +1855,22 @@
         <v>1438.03893</v>
       </c>
       <c r="L25" s="22" t="n">
-        <v>4813.39144</v>
+        <v>4813.391439999999</v>
       </c>
       <c r="M25" s="22" t="n">
         <v>8711.672620000001</v>
       </c>
-      <c r="N25" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="26" s="70" spans="1:14">
+      <c r="N25" s="22" t="n">
+        <v>7722.865</v>
+      </c>
+      <c r="O25" s="10" t="n"/>
+    </row>
+    <row r="26" ht="12.6" customHeight="1" s="70">
       <c r="A26" s="8" t="n"/>
-      <c r="B26" s="64" t="s">
-        <v>24</v>
+      <c r="B26" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Provis. for Doubtful Trade Receivables (-)</t>
+        </is>
       </c>
       <c r="C26" s="22" t="n">
         <v>3580.59711</v>
@@ -2327,7 +1882,7 @@
         <v>3862.84888</v>
       </c>
       <c r="F26" s="21" t="n">
-        <v>4204.80065</v>
+        <v>4204.800649999999</v>
       </c>
       <c r="G26" s="22" t="n">
         <v>3905.41331</v>
@@ -2350,18 +1905,23 @@
       <c r="M26" s="22" t="n">
         <v>8172.82702</v>
       </c>
-      <c r="N26" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="27" s="70" spans="1:14">
+      <c r="N26" s="22" t="n">
+        <v>7284.679</v>
+      </c>
+      <c r="O26" s="11" t="n"/>
+    </row>
+    <row r="27" ht="12.6" customHeight="1" s="70">
       <c r="A27" s="5" t="n"/>
-      <c r="B27" s="57" t="s">
-        <v>25</v>
+      <c r="B27" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   D- Other Short-Term Receivables</t>
+        </is>
       </c>
       <c r="C27" s="23" t="n">
         <v>6905.114560000001</v>
       </c>
       <c r="D27" s="23" t="n">
-        <v>11827.39955</v>
+        <v>11828.184</v>
       </c>
       <c r="E27" s="23" t="n">
         <v>11924.01377</v>
@@ -2376,29 +1936,34 @@
         <v>13521.83689</v>
       </c>
       <c r="I27" s="23" t="n">
-        <v>6506.87887</v>
+        <v>6551.13937</v>
       </c>
       <c r="J27" s="33" t="n">
-        <v>6034.42772</v>
+        <v>7365.084599999999</v>
       </c>
       <c r="K27" s="23" t="n">
         <v>7095.93747</v>
       </c>
       <c r="L27" s="23" t="n">
-        <v>12850.22843</v>
+        <v>12850.6318</v>
       </c>
       <c r="M27" s="23" t="n">
-        <v>10582.28792</v>
-      </c>
-      <c r="N27" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="28" s="70" spans="1:14">
+        <v>10582.70046</v>
+      </c>
+      <c r="N27" s="23" t="n">
+        <v>23683.537</v>
+      </c>
+      <c r="O27" s="10" t="n"/>
+    </row>
+    <row r="28" ht="12.6" customHeight="1" s="70">
       <c r="A28" s="5" t="n"/>
-      <c r="B28" s="64" t="s">
-        <v>26</v>
+      <c r="B28" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Receivables from Shareholders</t>
+        </is>
       </c>
       <c r="C28" s="22" t="n">
-        <v>4526.87739</v>
+        <v>4526.877390000001</v>
       </c>
       <c r="D28" s="22" t="n">
         <v>7717.46654</v>
@@ -2430,18 +1995,23 @@
       <c r="M28" s="22" t="n">
         <v>3508.35305</v>
       </c>
-      <c r="N28" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="29" s="70" spans="1:14">
+      <c r="N28" s="22" t="n">
+        <v>5547.64</v>
+      </c>
+      <c r="O28" s="10" t="n"/>
+    </row>
+    <row r="29" ht="12.6" customHeight="1" s="70">
       <c r="A29" s="5" t="n"/>
-      <c r="B29" s="59" t="s">
-        <v>27</v>
+      <c r="B29" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Receivables from Participations</t>
+        </is>
       </c>
       <c r="C29" s="22" t="n">
         <v>3.32545</v>
       </c>
       <c r="D29" s="22" t="n">
-        <v>276.75637</v>
+        <v>277.54082</v>
       </c>
       <c r="E29" s="22" t="n">
         <v>0.99225</v>
@@ -2456,7 +2026,7 @@
         <v>0.97545</v>
       </c>
       <c r="I29" s="22" t="n">
-        <v>0.041</v>
+        <v>0.82545</v>
       </c>
       <c r="J29" s="21" t="n">
         <v>0.97545</v>
@@ -2470,12 +2040,17 @@
       <c r="M29" s="22" t="n">
         <v>0.94762</v>
       </c>
-      <c r="N29" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="30" s="70" spans="1:14">
+      <c r="N29" s="22" t="n">
+        <v>1.046</v>
+      </c>
+      <c r="O29" s="10" t="n"/>
+    </row>
+    <row r="30" ht="12.6" customHeight="1" s="70">
       <c r="A30" s="5" t="n"/>
-      <c r="B30" s="64" t="s">
-        <v>28</v>
+      <c r="B30" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Receivables from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C30" s="22" t="n">
         <v>83.77131</v>
@@ -2510,12 +2085,17 @@
       <c r="M30" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N30" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="31" s="70" spans="1:14">
+      <c r="N30" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" s="10" t="n"/>
+    </row>
+    <row r="31" ht="12.6" customHeight="1" s="70">
       <c r="A31" s="5" t="n"/>
-      <c r="B31" s="64" t="s">
-        <v>29</v>
+      <c r="B31" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Receivables from Employees</t>
+        </is>
       </c>
       <c r="C31" s="22" t="n">
         <v>18.33436</v>
@@ -2536,7 +2116,7 @@
         <v>87.97160000000001</v>
       </c>
       <c r="I31" s="22" t="n">
-        <v>0.5357799999999999</v>
+        <v>25.95738</v>
       </c>
       <c r="J31" s="21" t="n">
         <v>116.81083</v>
@@ -2550,12 +2130,17 @@
       <c r="M31" s="22" t="n">
         <v>359.96331</v>
       </c>
-      <c r="N31" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="32" s="70" spans="1:14">
+      <c r="N31" s="22" t="n">
+        <v>930.124</v>
+      </c>
+      <c r="O31" s="10" t="n"/>
+    </row>
+    <row r="32" ht="12.6" customHeight="1" s="70">
       <c r="A32" s="5" t="n"/>
-      <c r="B32" s="64" t="s">
-        <v>30</v>
+      <c r="B32" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other </t>
+        </is>
       </c>
       <c r="C32" s="22" t="n">
         <v>2272.80605</v>
@@ -2576,26 +2161,31 @@
         <v>12111.6134</v>
       </c>
       <c r="I32" s="22" t="n">
-        <v>3393.38876</v>
+        <v>3411.44321</v>
       </c>
       <c r="J32" s="21" t="n">
-        <v>4056.50342</v>
+        <v>5387.1603</v>
       </c>
       <c r="K32" s="22" t="n">
         <v>4701.444199999999</v>
       </c>
       <c r="L32" s="22" t="n">
-        <v>8879.164929999999</v>
+        <v>8879.568300000001</v>
       </c>
       <c r="M32" s="22" t="n">
-        <v>6713.02394</v>
-      </c>
-      <c r="N32" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="33" s="70" spans="1:14">
+        <v>6713.43648</v>
+      </c>
+      <c r="N32" s="22" t="n">
+        <v>17204.727</v>
+      </c>
+      <c r="O32" s="10" t="n"/>
+    </row>
+    <row r="33" ht="12.6" customHeight="1" s="70">
       <c r="A33" s="5" t="n"/>
-      <c r="B33" s="64" t="s">
-        <v>31</v>
+      <c r="B33" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Discount on Other Notes Receivable (-)</t>
+        </is>
       </c>
       <c r="C33" s="22" t="n">
         <v>0</v>
@@ -2630,12 +2220,17 @@
       <c r="M33" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N33" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="34" s="70" spans="1:14">
+      <c r="N33" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" s="10" t="n"/>
+    </row>
+    <row r="34" ht="12.6" customHeight="1" s="70">
       <c r="A34" s="5" t="n"/>
-      <c r="B34" s="64" t="s">
-        <v>32</v>
+      <c r="B34" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Other Doubtful Receivables</t>
+        </is>
       </c>
       <c r="C34" s="22" t="n">
         <v>0</v>
@@ -2670,12 +2265,17 @@
       <c r="M34" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N34" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="35" s="70" spans="1:14">
+      <c r="N34" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" s="10" t="n"/>
+    </row>
+    <row r="35" ht="12.6" customHeight="1" s="70">
       <c r="A35" s="8" t="n"/>
-      <c r="B35" s="64" t="s">
-        <v>33</v>
+      <c r="B35" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Provis. for Other Doubtful Receivables (-)</t>
+        </is>
       </c>
       <c r="C35" s="22" t="n">
         <v>0</v>
@@ -2710,18 +2310,23 @@
       <c r="M35" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N35" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="36" s="70" spans="1:14">
+      <c r="N35" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" s="11" t="n"/>
+    </row>
+    <row r="36" ht="12.6" customHeight="1" s="70">
       <c r="A36" s="5" t="n"/>
-      <c r="B36" s="60" t="s">
-        <v>34</v>
+      <c r="B36" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   E- Inventories</t>
+        </is>
       </c>
       <c r="C36" s="23" t="n">
-        <v>53847.18196000001</v>
+        <v>53847.18196</v>
       </c>
       <c r="D36" s="23" t="n">
-        <v>101716.18636</v>
+        <v>101903.48408</v>
       </c>
       <c r="E36" s="23" t="n">
         <v>143997.58931</v>
@@ -2733,29 +2338,34 @@
         <v>276290.67715</v>
       </c>
       <c r="H36" s="33" t="n">
-        <v>113940.95449</v>
+        <v>114090.13576</v>
       </c>
       <c r="I36" s="23" t="n">
-        <v>100792.10765</v>
+        <v>101198.66007</v>
       </c>
       <c r="J36" s="33" t="n">
-        <v>120824.78147</v>
+        <v>139053.58064</v>
       </c>
       <c r="K36" s="23" t="n">
         <v>156133.24677</v>
       </c>
       <c r="L36" s="23" t="n">
-        <v>308334.6774399999</v>
+        <v>308446.18287</v>
       </c>
       <c r="M36" s="23" t="n">
-        <v>355388.31504</v>
-      </c>
-      <c r="N36" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="37" s="70" spans="1:14">
+        <v>356233.81443</v>
+      </c>
+      <c r="N36" s="23" t="n">
+        <v>355183.712</v>
+      </c>
+      <c r="O36" s="10" t="n"/>
+    </row>
+    <row r="37" ht="12.6" customHeight="1" s="70">
       <c r="A37" s="5" t="n"/>
-      <c r="B37" s="64" t="s">
-        <v>35</v>
+      <c r="B37" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Raw Materials &amp; Consumables</t>
+        </is>
       </c>
       <c r="C37" s="22" t="n">
         <v>9519.098300000001</v>
@@ -2764,13 +2374,13 @@
         <v>32903.17789</v>
       </c>
       <c r="E37" s="22" t="n">
-        <v>66597.48516000001</v>
+        <v>66597.48516</v>
       </c>
       <c r="F37" s="21" t="n">
         <v>92706.99862</v>
       </c>
       <c r="G37" s="22" t="n">
-        <v>18767.30238</v>
+        <v>18767.30237999999</v>
       </c>
       <c r="H37" s="21" t="n">
         <v>15475.36316</v>
@@ -2779,29 +2389,34 @@
         <v>13239.74</v>
       </c>
       <c r="J37" s="21" t="n">
-        <v>18850.27328</v>
+        <v>18909.55337</v>
       </c>
       <c r="K37" s="22" t="n">
         <v>28591.16364</v>
       </c>
       <c r="L37" s="22" t="n">
-        <v>44433.79834</v>
+        <v>44433.79833999999</v>
       </c>
       <c r="M37" s="22" t="n">
-        <v>155698.18081</v>
-      </c>
-      <c r="N37" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="38" s="70" spans="1:14">
+        <v>155949.42549</v>
+      </c>
+      <c r="N37" s="22" t="n">
+        <v>54391.031</v>
+      </c>
+      <c r="O37" s="10" t="n"/>
+    </row>
+    <row r="38" ht="12.6" customHeight="1" s="70">
       <c r="A38" s="5" t="n"/>
-      <c r="B38" s="64" t="s">
-        <v>36</v>
+      <c r="B38" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Work in Progress</t>
+        </is>
       </c>
       <c r="C38" s="22" t="n">
         <v>25396.77256</v>
       </c>
       <c r="D38" s="22" t="n">
-        <v>32391.89131</v>
+        <v>32576.91671</v>
       </c>
       <c r="E38" s="22" t="n">
         <v>40868.57203</v>
@@ -2816,10 +2431,10 @@
         <v>24798.44879</v>
       </c>
       <c r="I38" s="22" t="n">
-        <v>27138.36815</v>
+        <v>27351.59334</v>
       </c>
       <c r="J38" s="21" t="n">
-        <v>32395.44505</v>
+        <v>32396.63145</v>
       </c>
       <c r="K38" s="22" t="n">
         <v>35653.62155</v>
@@ -2830,12 +2445,17 @@
       <c r="M38" s="22" t="n">
         <v>58988.57049000001</v>
       </c>
-      <c r="N38" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="39" s="70" spans="1:14">
+      <c r="N38" s="22" t="n">
+        <v>115778.417</v>
+      </c>
+      <c r="O38" s="10" t="n"/>
+    </row>
+    <row r="39" ht="12.6" customHeight="1" s="70">
       <c r="A39" s="5" t="n"/>
-      <c r="B39" s="64" t="s">
-        <v>37</v>
+      <c r="B39" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Finished Goods</t>
+        </is>
       </c>
       <c r="C39" s="22" t="n">
         <v>7773.28929</v>
@@ -2856,10 +2476,10 @@
         <v>19995.81007</v>
       </c>
       <c r="I39" s="22" t="n">
-        <v>7102.24744</v>
+        <v>7102.247439999999</v>
       </c>
       <c r="J39" s="21" t="n">
-        <v>10745.37645</v>
+        <v>10837.77567</v>
       </c>
       <c r="K39" s="22" t="n">
         <v>12292.37717</v>
@@ -2870,18 +2490,23 @@
       <c r="M39" s="22" t="n">
         <v>17111.70406</v>
       </c>
-      <c r="N39" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="40" s="70" spans="1:14">
+      <c r="N39" s="22" t="n">
+        <v>26477.541</v>
+      </c>
+      <c r="O39" s="10" t="n"/>
+    </row>
+    <row r="40" ht="12.6" customHeight="1" s="70">
       <c r="A40" s="5" t="n"/>
-      <c r="B40" s="64" t="s">
-        <v>38</v>
+      <c r="B40" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Merchandise</t>
+        </is>
       </c>
       <c r="C40" s="22" t="n">
         <v>4630.336470000001</v>
       </c>
       <c r="D40" s="22" t="n">
-        <v>12226.7716</v>
+        <v>12229.04392</v>
       </c>
       <c r="E40" s="22" t="n">
         <v>14253.38042</v>
@@ -2893,32 +2518,37 @@
         <v>16573.89603</v>
       </c>
       <c r="H40" s="21" t="n">
-        <v>19497.2167</v>
+        <v>19551.13495</v>
       </c>
       <c r="I40" s="22" t="n">
-        <v>18250.06351</v>
+        <v>18443.39074</v>
       </c>
       <c r="J40" s="21" t="n">
-        <v>20169.61716000001</v>
+        <v>20588.09968</v>
       </c>
       <c r="K40" s="22" t="n">
         <v>33196.2471</v>
       </c>
       <c r="L40" s="22" t="n">
-        <v>34062.2304</v>
+        <v>34084.6654</v>
       </c>
       <c r="M40" s="22" t="n">
-        <v>43445.11898</v>
-      </c>
-      <c r="N40" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="41" s="70" spans="1:14">
+        <v>43626.18558</v>
+      </c>
+      <c r="N40" s="22" t="n">
+        <v>54152.219</v>
+      </c>
+      <c r="O40" s="10" t="n"/>
+    </row>
+    <row r="41" ht="12.6" customHeight="1" s="70">
       <c r="A41" s="5" t="n"/>
-      <c r="B41" s="64" t="s">
-        <v>39</v>
+      <c r="B41" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other Inventories</t>
+        </is>
       </c>
       <c r="C41" s="22" t="n">
-        <v>806.2211500000001</v>
+        <v>806.2211499999999</v>
       </c>
       <c r="D41" s="22" t="n">
         <v>4967.09891</v>
@@ -2933,7 +2563,7 @@
         <v>1421.26365</v>
       </c>
       <c r="H41" s="21" t="n">
-        <v>1322.86144</v>
+        <v>1418.12446</v>
       </c>
       <c r="I41" s="22" t="n">
         <v>1468.63964</v>
@@ -2945,17 +2575,22 @@
         <v>1627.33674</v>
       </c>
       <c r="L41" s="22" t="n">
-        <v>3147.77472</v>
+        <v>3236.845150000001</v>
       </c>
       <c r="M41" s="22" t="n">
         <v>1626.81419</v>
       </c>
-      <c r="N41" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="42" s="70" spans="1:14">
+      <c r="N41" s="22" t="n">
+        <v>1634.174</v>
+      </c>
+      <c r="O41" s="10" t="n"/>
+    </row>
+    <row r="42" ht="12.6" customHeight="1" s="70">
       <c r="A42" s="5" t="n"/>
-      <c r="B42" s="59" t="s">
-        <v>40</v>
+      <c r="B42" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Provisions for Inventories (-)</t>
+        </is>
       </c>
       <c r="C42" s="22" t="n">
         <v>0</v>
@@ -2990,18 +2625,23 @@
       <c r="M42" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N42" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="43" s="70" spans="1:14">
+      <c r="N42" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" s="10" t="n"/>
+    </row>
+    <row r="43" ht="12.6" customHeight="1" s="70">
       <c r="A43" s="8" t="n"/>
-      <c r="B43" s="59" t="s">
-        <v>41</v>
+      <c r="B43" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Advances on Purchase Orders</t>
+        </is>
       </c>
       <c r="C43" s="22" t="n">
-        <v>5721.46419</v>
+        <v>5721.464190000001</v>
       </c>
       <c r="D43" s="22" t="n">
-        <v>6930.07713</v>
+        <v>6930.077129999999</v>
       </c>
       <c r="E43" s="22" t="n">
         <v>12601.84448</v>
@@ -3019,7 +2659,7 @@
         <v>33593.04891</v>
       </c>
       <c r="J43" s="21" t="n">
-        <v>37076.80536</v>
+        <v>54734.25629999999</v>
       </c>
       <c r="K43" s="22" t="n">
         <v>44772.50057</v>
@@ -3028,14 +2668,19 @@
         <v>62168.32393</v>
       </c>
       <c r="M43" s="22" t="n">
-        <v>78517.92651</v>
-      </c>
-      <c r="N43" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="44" s="70" spans="1:14">
+        <v>78931.11462000001</v>
+      </c>
+      <c r="N43" s="22" t="n">
+        <v>102750.33</v>
+      </c>
+      <c r="O43" s="11" t="n"/>
+    </row>
+    <row r="44" ht="12.6" customHeight="1" s="70">
       <c r="A44" s="8" t="n"/>
-      <c r="B44" s="60" t="s">
-        <v>42</v>
+      <c r="B44" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   F- Constr.&amp; Restor.Costs Spread Over Yrs.</t>
+        </is>
       </c>
       <c r="C44" s="23" t="n">
         <v>0</v>
@@ -3070,12 +2715,17 @@
       <c r="M44" s="23" t="n">
         <v>776.2040400000001</v>
       </c>
-      <c r="N44" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="45" s="70" spans="1:14">
+      <c r="N44" s="23" t="n">
+        <v>776.204</v>
+      </c>
+      <c r="O44" s="11" t="n"/>
+    </row>
+    <row r="45" ht="12.6" customHeight="1" s="70">
       <c r="A45" s="8" t="n"/>
-      <c r="B45" s="59" t="s">
-        <v>43</v>
+      <c r="B45" s="59" t="inlineStr">
+        <is>
+          <t>1- Constr.&amp;Restor.Costs Spr. Over Yrs.</t>
+        </is>
       </c>
       <c r="C45" s="22" t="n">
         <v>0</v>
@@ -3110,12 +2760,17 @@
       <c r="M45" s="22" t="n">
         <v>776.2040400000001</v>
       </c>
-      <c r="N45" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="46" s="70" spans="1:14">
+      <c r="N45" s="22" t="n">
+        <v>776.204</v>
+      </c>
+      <c r="O45" s="11" t="n"/>
+    </row>
+    <row r="46" ht="12.6" customHeight="1" s="70">
       <c r="A46" s="8" t="n"/>
-      <c r="B46" s="59" t="s">
-        <v>44</v>
+      <c r="B46" s="59" t="inlineStr">
+        <is>
+          <t>2- Constr.Costs Reval.Adjust.to Inflation Spr.Over Yrs.</t>
+        </is>
       </c>
       <c r="C46" s="22" t="n">
         <v>0</v>
@@ -3150,12 +2805,17 @@
       <c r="M46" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N46" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="47" s="70" spans="1:14">
+      <c r="N46" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" s="11" t="n"/>
+    </row>
+    <row r="47" ht="12.6" customHeight="1" s="70">
       <c r="A47" s="5" t="n"/>
-      <c r="B47" s="59" t="s">
-        <v>45</v>
+      <c r="B47" s="59" t="inlineStr">
+        <is>
+          <t>3- Advances to Subcontractors</t>
+        </is>
       </c>
       <c r="C47" s="22" t="n">
         <v>0</v>
@@ -3190,12 +2850,17 @@
       <c r="M47" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N47" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="48" s="70" spans="1:14">
+      <c r="N47" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O47" s="10" t="n"/>
+    </row>
+    <row r="48" ht="12.6" customHeight="1" s="70">
       <c r="A48" s="5" t="n"/>
-      <c r="B48" s="60" t="s">
-        <v>46</v>
+      <c r="B48" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   G- Prepaym.&amp; Accr. Inc.for the Next Months</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
         <v>3638.76624</v>
@@ -3213,10 +2878,10 @@
         <v>3882.09581</v>
       </c>
       <c r="H48" s="45" t="n">
-        <v>860.5214100000002</v>
+        <v>860.5214099999999</v>
       </c>
       <c r="I48" s="46" t="n">
-        <v>628.5173199999999</v>
+        <v>628.51732</v>
       </c>
       <c r="J48" s="45" t="n">
         <v>1441.98973</v>
@@ -3228,14 +2893,19 @@
         <v>1277.45033</v>
       </c>
       <c r="M48" s="46" t="n">
-        <v>1455.38926</v>
-      </c>
-      <c r="N48" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="49" s="70" spans="1:14">
+        <v>1726.71981</v>
+      </c>
+      <c r="N48" s="46" t="n">
+        <v>3418.994</v>
+      </c>
+      <c r="O48" s="10" t="n"/>
+    </row>
+    <row r="49" ht="12.6" customHeight="1" s="70">
       <c r="A49" s="8" t="n"/>
-      <c r="B49" s="64" t="s">
-        <v>47</v>
+      <c r="B49" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Prepayments for the Next Months</t>
+        </is>
       </c>
       <c r="C49" s="22" t="n">
         <v>286.85423</v>
@@ -3268,14 +2938,19 @@
         <v>888.92112</v>
       </c>
       <c r="M49" s="22" t="n">
-        <v>935.84676</v>
-      </c>
-      <c r="N49" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="50" s="70" spans="1:14">
+        <v>1207.17731</v>
+      </c>
+      <c r="N49" s="22" t="n">
+        <v>1853.659</v>
+      </c>
+      <c r="O49" s="11" t="n"/>
+    </row>
+    <row r="50" ht="12.6" customHeight="1" s="70">
       <c r="A50" s="5" t="n"/>
-      <c r="B50" s="64" t="s">
-        <v>48</v>
+      <c r="B50" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Accrued Income</t>
+        </is>
       </c>
       <c r="C50" s="22" t="n">
         <v>3351.91201</v>
@@ -3290,7 +2965,7 @@
         <v>4226.71807</v>
       </c>
       <c r="G50" s="22" t="n">
-        <v>3167.149440000001</v>
+        <v>3167.14944</v>
       </c>
       <c r="H50" s="21" t="n">
         <v>407.53535</v>
@@ -3310,12 +2985,17 @@
       <c r="M50" s="22" t="n">
         <v>519.5425</v>
       </c>
-      <c r="N50" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="51" s="70" spans="1:14">
+      <c r="N50" s="22" t="n">
+        <v>1565.335</v>
+      </c>
+      <c r="O50" s="10" t="n"/>
+    </row>
+    <row r="51" ht="12.6" customHeight="1" s="70">
       <c r="A51" s="5" t="n"/>
-      <c r="B51" s="57" t="s">
-        <v>49</v>
+      <c r="B51" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  H- Other Current Assets</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
         <v>14064.55595</v>
@@ -3330,32 +3010,37 @@
         <v>31017.13984</v>
       </c>
       <c r="G51" s="46" t="n">
-        <v>35050.58392</v>
+        <v>35054.67684</v>
       </c>
       <c r="H51" s="45" t="n">
-        <v>32477.75523</v>
+        <v>32482.66591</v>
       </c>
       <c r="I51" s="46" t="n">
-        <v>32503.80096</v>
+        <v>32885.11133</v>
       </c>
       <c r="J51" s="45" t="n">
-        <v>25677.75223</v>
+        <v>29535.07736</v>
       </c>
       <c r="K51" s="46" t="n">
-        <v>36228.04398999999</v>
+        <v>36228.04399000001</v>
       </c>
       <c r="L51" s="46" t="n">
-        <v>52111.86731</v>
+        <v>52222.24264</v>
       </c>
       <c r="M51" s="46" t="n">
-        <v>47822.54008</v>
-      </c>
-      <c r="N51" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="52" s="70" spans="1:14">
+        <v>48417.47423</v>
+      </c>
+      <c r="N51" s="46" t="n">
+        <v>59711.271</v>
+      </c>
+      <c r="O51" s="10" t="n"/>
+    </row>
+    <row r="52" ht="12.6" customHeight="1" s="70">
       <c r="A52" s="5" t="n"/>
-      <c r="B52" s="64" t="s">
-        <v>50</v>
+      <c r="B52" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- V.A.T.Carried to the Next Period</t>
+        </is>
       </c>
       <c r="C52" s="22" t="n">
         <v>9528.48698</v>
@@ -3370,32 +3055,37 @@
         <v>25825.58519</v>
       </c>
       <c r="G52" s="22" t="n">
-        <v>28203.93081</v>
+        <v>28208.02373</v>
       </c>
       <c r="H52" s="21" t="n">
-        <v>18839.98685</v>
+        <v>18844.89753</v>
       </c>
       <c r="I52" s="22" t="n">
-        <v>16158.7164</v>
+        <v>16255.99589</v>
       </c>
       <c r="J52" s="21" t="n">
-        <v>15671.25905</v>
+        <v>16090.89601</v>
       </c>
       <c r="K52" s="22" t="n">
         <v>19938.36261</v>
       </c>
       <c r="L52" s="22" t="n">
-        <v>28371.52664</v>
+        <v>28481.90197</v>
       </c>
       <c r="M52" s="22" t="n">
-        <v>28602.24711</v>
-      </c>
-      <c r="N52" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="53" s="70" spans="1:14">
+        <v>28894.76338</v>
+      </c>
+      <c r="N52" s="22" t="n">
+        <v>39900.101</v>
+      </c>
+      <c r="O52" s="10" t="n"/>
+    </row>
+    <row r="53" ht="12.6" customHeight="1" s="70">
       <c r="A53" s="5" t="n"/>
-      <c r="B53" s="64" t="s">
-        <v>51</v>
+      <c r="B53" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- V.A.T. Paid</t>
+        </is>
       </c>
       <c r="C53" s="22" t="n">
         <v>591.9466</v>
@@ -3419,7 +3109,7 @@
         <v>129.53037</v>
       </c>
       <c r="J53" s="21" t="n">
-        <v>42.35207</v>
+        <v>64.13571</v>
       </c>
       <c r="K53" s="22" t="n">
         <v>117.12137</v>
@@ -3428,14 +3118,19 @@
         <v>503.06792</v>
       </c>
       <c r="M53" s="22" t="n">
-        <v>224.07309</v>
-      </c>
-      <c r="N53" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="54" s="70" spans="1:14">
+        <v>32.12407</v>
+      </c>
+      <c r="N53" s="22" t="n">
+        <v>47.541</v>
+      </c>
+      <c r="O53" s="10" t="n"/>
+    </row>
+    <row r="54" ht="12.6" customHeight="1" s="70">
       <c r="A54" s="5" t="n"/>
-      <c r="B54" s="64" t="s">
-        <v>52</v>
+      <c r="B54" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Other V.A.T</t>
+        </is>
       </c>
       <c r="C54" s="22" t="n">
         <v>933.8744399999999</v>
@@ -3459,7 +3154,7 @@
         <v>827.68625</v>
       </c>
       <c r="J54" s="21" t="n">
-        <v>746.74983</v>
+        <v>746.7498300000001</v>
       </c>
       <c r="K54" s="22" t="n">
         <v>710.0672499999999</v>
@@ -3468,14 +3163,19 @@
         <v>1048.23557</v>
       </c>
       <c r="M54" s="22" t="n">
-        <v>1120.56228</v>
-      </c>
-      <c r="N54" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="55" s="70" spans="1:14">
+        <v>1328.3913</v>
+      </c>
+      <c r="N54" s="22" t="n">
+        <v>877.89</v>
+      </c>
+      <c r="O54" s="10" t="n"/>
+    </row>
+    <row r="55" ht="12.6" customHeight="1" s="70">
       <c r="A55" s="5" t="n"/>
-      <c r="B55" s="61" t="s">
-        <v>53</v>
+      <c r="B55" s="61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Prepaid Taxes and Funds</t>
+        </is>
       </c>
       <c r="C55" s="22" t="n">
         <v>1269.65422</v>
@@ -3496,10 +3196,10 @@
         <v>1006.18242</v>
       </c>
       <c r="I55" s="22" t="n">
-        <v>941.5231200000001</v>
+        <v>970.554</v>
       </c>
       <c r="J55" s="21" t="n">
-        <v>1386.59187</v>
+        <v>1390.80353</v>
       </c>
       <c r="K55" s="22" t="n">
         <v>1110.86034</v>
@@ -3510,27 +3210,32 @@
       <c r="M55" s="22" t="n">
         <v>2702.29369</v>
       </c>
-      <c r="N55" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="56" s="70" spans="1:14">
+      <c r="N55" s="22" t="n">
+        <v>1470.653</v>
+      </c>
+      <c r="O55" s="10" t="n"/>
+    </row>
+    <row r="56" ht="12.6" customHeight="1" s="70">
       <c r="A56" s="5" t="n"/>
-      <c r="B56" s="59" t="s">
-        <v>54</v>
+      <c r="B56" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Business Related Advances </t>
+        </is>
       </c>
       <c r="C56" s="22" t="n">
-        <v>295.8941899999999</v>
+        <v>295.89419</v>
       </c>
       <c r="D56" s="22" t="n">
         <v>187.78167</v>
       </c>
       <c r="E56" s="22" t="n">
-        <v>5044.537949999999</v>
+        <v>5044.53795</v>
       </c>
       <c r="F56" s="21" t="n">
         <v>1013.43815</v>
       </c>
       <c r="G56" s="22" t="n">
-        <v>864.0875099999998</v>
+        <v>864.0875100000001</v>
       </c>
       <c r="H56" s="21" t="n">
         <v>10770.89775</v>
@@ -3539,7 +3244,7 @@
         <v>13478.90922</v>
       </c>
       <c r="J56" s="21" t="n">
-        <v>6139.488429999999</v>
+        <v>9551.1813</v>
       </c>
       <c r="K56" s="22" t="n">
         <v>9775.00877</v>
@@ -3548,14 +3253,19 @@
         <v>15102.72207</v>
       </c>
       <c r="M56" s="22" t="n">
-        <v>12446.1276</v>
-      </c>
-      <c r="N56" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="57" s="70" spans="1:14">
+        <v>12732.66548</v>
+      </c>
+      <c r="N56" s="22" t="n">
+        <v>14663.496</v>
+      </c>
+      <c r="O56" s="10" t="n"/>
+    </row>
+    <row r="57" ht="12.6" customHeight="1" s="70">
       <c r="A57" s="5" t="n"/>
-      <c r="B57" s="61" t="s">
-        <v>55</v>
+      <c r="B57" s="61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Advances to employees</t>
+        </is>
       </c>
       <c r="C57" s="22" t="n">
         <v>1439.32556</v>
@@ -3573,7 +3283,7 @@
         <v>266.25412</v>
       </c>
       <c r="H57" s="21" t="n">
-        <v>872.0028799999999</v>
+        <v>872.00288</v>
       </c>
       <c r="I57" s="22" t="n">
         <v>953.1151100000001</v>
@@ -3590,12 +3300,17 @@
       <c r="M57" s="22" t="n">
         <v>2457.20913</v>
       </c>
-      <c r="N57" s="10" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="12.6" r="58" s="14" spans="1:14">
+      <c r="N57" s="22" t="n">
+        <v>2496.59</v>
+      </c>
+      <c r="O57" s="10" t="n"/>
+    </row>
+    <row r="58" ht="12.6" customFormat="1" customHeight="1" s="14">
       <c r="A58" s="5" t="n"/>
-      <c r="B58" s="64" t="s">
-        <v>56</v>
+      <c r="B58" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Stock Taking and Receiving Shortages</t>
+        </is>
       </c>
       <c r="C58" s="22" t="n">
         <v>0</v>
@@ -3616,7 +3331,7 @@
         <v>0</v>
       </c>
       <c r="I58" s="22" t="n">
-        <v>0</v>
+        <v>255</v>
       </c>
       <c r="J58" s="21" t="n">
         <v>257.9896</v>
@@ -3630,12 +3345,17 @@
       <c r="M58" s="22" t="n">
         <v>270.02718</v>
       </c>
-      <c r="N58" s="10" t="n"/>
-    </row>
-    <row r="59" spans="1:14">
+      <c r="N58" s="22" t="n">
+        <v>255</v>
+      </c>
+      <c r="O58" s="10" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="10" t="n"/>
-      <c r="B59" s="59" t="s">
-        <v>57</v>
+      <c r="B59" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Other </t>
+        </is>
       </c>
       <c r="C59" s="22" t="n">
         <v>5.37396</v>
@@ -3670,11 +3390,16 @@
       <c r="M59" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N59" s="10" t="n"/>
-    </row>
-    <row r="60" spans="1:14">
-      <c r="B60" s="62" t="s">
-        <v>58</v>
+      <c r="N59" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O59" s="10" t="n"/>
+    </row>
+    <row r="60">
+      <c r="B60" s="62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       9- Provisions for Other Current Assets (-)</t>
+        </is>
       </c>
       <c r="C60" s="35" t="n">
         <v>0</v>
@@ -3709,18 +3434,23 @@
       <c r="M60" s="35" t="n">
         <v>0</v>
       </c>
-      <c r="N60" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="61" s="70" spans="1:14">
+      <c r="N60" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O60" s="10" t="n"/>
+    </row>
+    <row r="61" ht="12.6" customHeight="1" s="70">
       <c r="A61" s="5" t="n"/>
-      <c r="B61" s="56" t="s">
-        <v>59</v>
+      <c r="B61" s="56" t="inlineStr">
+        <is>
+          <t>II- FIXED ASSETS</t>
+        </is>
       </c>
       <c r="C61" s="36" t="n">
         <v>194047.49718</v>
       </c>
       <c r="D61" s="36" t="n">
-        <v>211408.92685</v>
+        <v>211822.78678</v>
       </c>
       <c r="E61" s="36" t="n">
         <v>225815.88287</v>
@@ -3732,35 +3462,40 @@
         <v>150830.17488</v>
       </c>
       <c r="H61" s="37" t="n">
-        <v>151526.33871</v>
+        <v>151736.65977</v>
       </c>
       <c r="I61" s="36" t="n">
-        <v>295742.27124</v>
+        <v>295959.86924</v>
       </c>
       <c r="J61" s="37" t="n">
-        <v>339720.81275</v>
+        <v>347989.1391</v>
       </c>
       <c r="K61" s="36" t="n">
         <v>426689.4380800001</v>
       </c>
       <c r="L61" s="36" t="n">
-        <v>509952.94239</v>
+        <v>511241.9526</v>
       </c>
       <c r="M61" s="36" t="n">
-        <v>570637.5695</v>
-      </c>
-      <c r="N61" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="62" s="70" spans="1:14">
+        <v>576729.64937</v>
+      </c>
+      <c r="N61" s="36" t="n">
+        <v>714815.574</v>
+      </c>
+      <c r="O61" s="10" t="n"/>
+    </row>
+    <row r="62" ht="12.6" customHeight="1" s="70">
       <c r="A62" s="5" t="n"/>
-      <c r="B62" s="60" t="s">
-        <v>60</v>
+      <c r="B62" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   A- Long-Term Trade Receivables</t>
+        </is>
       </c>
       <c r="C62" s="36" t="n">
-        <v>57.32434000000001</v>
+        <v>57.32434</v>
       </c>
       <c r="D62" s="36" t="n">
-        <v>70.21102</v>
+        <v>83.22423999999999</v>
       </c>
       <c r="E62" s="36" t="n">
         <v>2155.30966</v>
@@ -3772,10 +3507,10 @@
         <v>1816.93887</v>
       </c>
       <c r="H62" s="37" t="n">
-        <v>2279.41534</v>
+        <v>2279.8604</v>
       </c>
       <c r="I62" s="36" t="n">
-        <v>4072.58266</v>
+        <v>4087.47438</v>
       </c>
       <c r="J62" s="37" t="n">
         <v>3047.44294</v>
@@ -3789,12 +3524,17 @@
       <c r="M62" s="36" t="n">
         <v>1447.63212</v>
       </c>
-      <c r="N62" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="63" s="70" spans="1:14">
+      <c r="N62" s="36" t="n">
+        <v>1266.865</v>
+      </c>
+      <c r="O62" s="10" t="n"/>
+    </row>
+    <row r="63" ht="12.6" customHeight="1" s="70">
       <c r="A63" s="5" t="n"/>
-      <c r="B63" s="64" t="s">
-        <v>17</v>
+      <c r="B63" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Customers</t>
+        </is>
       </c>
       <c r="C63" s="22" t="n">
         <v>0</v>
@@ -3829,12 +3569,17 @@
       <c r="M63" s="22" t="n">
         <v>185.30598</v>
       </c>
-      <c r="N63" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="64" s="70" spans="1:14">
+      <c r="N63" s="22" t="n">
+        <v>16.006</v>
+      </c>
+      <c r="O63" s="10" t="n"/>
+    </row>
+    <row r="64" ht="12.6" customHeight="1" s="70">
       <c r="A64" s="5" t="n"/>
-      <c r="B64" s="59" t="s">
-        <v>18</v>
+      <c r="B64" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Notes Receivable</t>
+        </is>
       </c>
       <c r="C64" s="22" t="n">
         <v>0</v>
@@ -3869,12 +3614,17 @@
       <c r="M64" s="22" t="n">
         <v>1020.81937</v>
       </c>
-      <c r="N64" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="65" s="70" spans="1:14">
+      <c r="N64" s="22" t="n">
+        <v>1020.819</v>
+      </c>
+      <c r="O64" s="10" t="n"/>
+    </row>
+    <row r="65" ht="12.6" customHeight="1" s="70">
       <c r="A65" s="5" t="n"/>
-      <c r="B65" s="64" t="s">
-        <v>19</v>
+      <c r="B65" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Discount on Notes Receivable (-)</t>
+        </is>
       </c>
       <c r="C65" s="22" t="n">
         <v>0</v>
@@ -3909,12 +3659,17 @@
       <c r="M65" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N65" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="66" s="70" spans="1:14">
+      <c r="N65" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O65" s="10" t="n"/>
+    </row>
+    <row r="66" ht="12.6" customHeight="1" s="70">
       <c r="A66" s="5" t="n"/>
-      <c r="B66" s="64" t="s">
-        <v>20</v>
+      <c r="B66" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Unearned Financial Leasing Interest (-)</t>
+        </is>
       </c>
       <c r="C66" s="22" t="n">
         <v>0</v>
@@ -3949,18 +3704,23 @@
       <c r="M66" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N66" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="67" s="70" spans="1:14">
+      <c r="N66" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O66" s="10" t="n"/>
+    </row>
+    <row r="67" ht="12.6" customHeight="1" s="70">
       <c r="A67" s="5" t="n"/>
-      <c r="B67" s="59" t="s">
-        <v>21</v>
+      <c r="B67" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Deposits and Guarantees Given</t>
+        </is>
       </c>
       <c r="C67" s="22" t="n">
-        <v>57.32434000000001</v>
+        <v>57.32434</v>
       </c>
       <c r="D67" s="22" t="n">
-        <v>70.21102</v>
+        <v>83.22423999999999</v>
       </c>
       <c r="E67" s="22" t="n">
         <v>180.29466</v>
@@ -3972,10 +3732,10 @@
         <v>111.19221</v>
       </c>
       <c r="H67" s="21" t="n">
-        <v>74.66989000000001</v>
+        <v>75.11494999999999</v>
       </c>
       <c r="I67" s="22" t="n">
-        <v>72.46152000000001</v>
+        <v>87.35323999999999</v>
       </c>
       <c r="J67" s="21" t="n">
         <v>107.3238</v>
@@ -3989,12 +3749,17 @@
       <c r="M67" s="22" t="n">
         <v>241.50677</v>
       </c>
-      <c r="N67" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="68" s="70" spans="1:14">
+      <c r="N67" s="22" t="n">
+        <v>230.04</v>
+      </c>
+      <c r="O67" s="10" t="n"/>
+    </row>
+    <row r="68" ht="12.6" customHeight="1" s="70">
       <c r="A68" s="8" t="n"/>
-      <c r="B68" s="64" t="s">
-        <v>61</v>
+      <c r="B68" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Provisions for Doubtful Trade Receivables (-)</t>
+        </is>
       </c>
       <c r="C68" s="22" t="n">
         <v>0</v>
@@ -4029,18 +3794,23 @@
       <c r="M68" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N68" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="69" s="70" spans="1:14">
+      <c r="N68" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O68" s="10" t="n"/>
+    </row>
+    <row r="69" ht="12.6" customHeight="1" s="70">
       <c r="A69" s="5" t="n"/>
-      <c r="B69" s="57" t="s">
-        <v>62</v>
+      <c r="B69" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   B- Other Long-Term Receivables</t>
+        </is>
       </c>
       <c r="C69" s="36" t="n">
         <v>560.4911099999999</v>
       </c>
       <c r="D69" s="36" t="n">
-        <v>878.76357</v>
+        <v>1136.90357</v>
       </c>
       <c r="E69" s="36" t="n">
         <v>1825.19444</v>
@@ -4067,14 +3837,19 @@
         <v>1078.61991</v>
       </c>
       <c r="M69" s="36" t="n">
-        <v>187.81485</v>
-      </c>
-      <c r="N69" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="70" s="70" spans="1:14">
+        <v>616.8103100000001</v>
+      </c>
+      <c r="N69" s="36" t="n">
+        <v>2158.111</v>
+      </c>
+      <c r="O69" s="10" t="n"/>
+    </row>
+    <row r="70" ht="12.6" customHeight="1" s="70">
       <c r="A70" s="5" t="n"/>
-      <c r="B70" s="64" t="s">
-        <v>26</v>
+      <c r="B70" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Receivables from Shareholders</t>
+        </is>
       </c>
       <c r="C70" s="22" t="n">
         <v>173.78773</v>
@@ -4107,20 +3882,25 @@
         <v>878.76383</v>
       </c>
       <c r="M70" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N70" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="71" s="70" spans="1:14">
+        <v>428.99546</v>
+      </c>
+      <c r="N70" s="22" t="n">
+        <v>2144.177</v>
+      </c>
+      <c r="O70" s="10" t="n"/>
+    </row>
+    <row r="71" ht="12.6" customHeight="1" s="70">
       <c r="A71" s="8" t="n"/>
-      <c r="B71" s="59" t="s">
-        <v>27</v>
+      <c r="B71" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Receivables from Participations</t>
+        </is>
       </c>
       <c r="C71" s="22" t="n">
         <v>42.84354</v>
       </c>
       <c r="D71" s="22" t="n">
-        <v>7.59354</v>
+        <v>265.73354</v>
       </c>
       <c r="E71" s="22" t="n">
         <v>265.73354</v>
@@ -4149,12 +3929,17 @@
       <c r="M71" s="22" t="n">
         <v>0.73326</v>
       </c>
-      <c r="N71" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="72" s="70" spans="1:14">
+      <c r="N71" s="22" t="n">
+        <v>0.733</v>
+      </c>
+      <c r="O71" s="10" t="n"/>
+    </row>
+    <row r="72" ht="12.6" customHeight="1" s="70">
       <c r="A72" s="5" t="n"/>
-      <c r="B72" s="64" t="s">
-        <v>28</v>
+      <c r="B72" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Receivables from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C72" s="22" t="n">
         <v>0</v>
@@ -4189,12 +3974,17 @@
       <c r="M72" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N72" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="73" s="70" spans="1:14">
+      <c r="N72" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O72" s="10" t="n"/>
+    </row>
+    <row r="73" ht="12.6" customHeight="1" s="70">
       <c r="A73" s="5" t="n"/>
-      <c r="B73" s="64" t="s">
-        <v>29</v>
+      <c r="B73" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Receivables from Employees</t>
+        </is>
       </c>
       <c r="C73" s="22" t="n">
         <v>0</v>
@@ -4229,12 +4019,17 @@
       <c r="M73" s="22" t="n">
         <v>129.47051</v>
       </c>
-      <c r="N73" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="74" s="70" spans="1:14">
+      <c r="N73" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O73" s="10" t="n"/>
+    </row>
+    <row r="74" ht="12.6" customHeight="1" s="70">
       <c r="A74" s="5" t="n"/>
-      <c r="B74" s="64" t="s">
-        <v>30</v>
+      <c r="B74" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other </t>
+        </is>
       </c>
       <c r="C74" s="22" t="n">
         <v>343.85984</v>
@@ -4243,7 +4038,7 @@
         <v>185.60024</v>
       </c>
       <c r="E74" s="22" t="n">
-        <v>53.23184000000001</v>
+        <v>53.23184</v>
       </c>
       <c r="F74" s="21" t="n">
         <v>54.91041999999999</v>
@@ -4269,12 +4064,17 @@
       <c r="M74" s="22" t="n">
         <v>57.61108</v>
       </c>
-      <c r="N74" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="75" s="70" spans="1:14">
+      <c r="N74" s="22" t="n">
+        <v>13.201</v>
+      </c>
+      <c r="O74" s="10" t="n"/>
+    </row>
+    <row r="75" ht="12.6" customHeight="1" s="70">
       <c r="A75" s="5" t="n"/>
-      <c r="B75" s="64" t="s">
-        <v>63</v>
+      <c r="B75" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Disc.on Oth.Short-Term Notes Receivable (-)</t>
+        </is>
       </c>
       <c r="C75" s="22" t="n">
         <v>0</v>
@@ -4309,12 +4109,17 @@
       <c r="M75" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N75" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="76" s="70" spans="1:14">
+      <c r="N75" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O75" s="11" t="n"/>
+    </row>
+    <row r="76" ht="12.6" customHeight="1" s="70">
       <c r="A76" s="8" t="n"/>
-      <c r="B76" s="64" t="s">
-        <v>64</v>
+      <c r="B76" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Provis. for Other Doubtful Receivables (-)</t>
+        </is>
       </c>
       <c r="C76" s="22" t="n">
         <v>0</v>
@@ -4349,18 +4154,23 @@
       <c r="M76" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N76" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="77" s="70" spans="1:14">
+      <c r="N76" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O76" s="10" t="n"/>
+    </row>
+    <row r="77" ht="12.6" customHeight="1" s="70">
       <c r="A77" s="5" t="n"/>
-      <c r="B77" s="60" t="s">
-        <v>65</v>
+      <c r="B77" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   C- Financial Fixed Assets</t>
+        </is>
       </c>
       <c r="C77" s="23" t="n">
         <v>2203.02759</v>
       </c>
       <c r="D77" s="23" t="n">
-        <v>2200.63433</v>
+        <v>2201.36759</v>
       </c>
       <c r="E77" s="23" t="n">
         <v>2860.83225</v>
@@ -4375,7 +4185,7 @@
         <v>45335.40405</v>
       </c>
       <c r="I77" s="23" t="n">
-        <v>45415.16079</v>
+        <v>45415.89405</v>
       </c>
       <c r="J77" s="33" t="n">
         <v>51035.50905</v>
@@ -4387,14 +4197,19 @@
         <v>58755.3025</v>
       </c>
       <c r="M77" s="23" t="n">
-        <v>58751.20623</v>
-      </c>
-      <c r="N77" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="78" s="70" spans="1:14">
+        <v>58751.40622999999</v>
+      </c>
+      <c r="N77" s="23" t="n">
+        <v>58161.156</v>
+      </c>
+      <c r="O77" s="10" t="n"/>
+    </row>
+    <row r="78" ht="12.6" customHeight="1" s="70">
       <c r="A78" s="5" t="n"/>
-      <c r="B78" s="64" t="s">
-        <v>66</v>
+      <c r="B78" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Non-Marketable Securities</t>
+        </is>
       </c>
       <c r="C78" s="22" t="n">
         <v>3.01</v>
@@ -4429,12 +4244,17 @@
       <c r="M78" s="22" t="n">
         <v>26.40548</v>
       </c>
-      <c r="N78" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="79" s="70" spans="1:14">
+      <c r="N78" s="22" t="n">
+        <v>26.405</v>
+      </c>
+      <c r="O78" s="10" t="n"/>
+    </row>
+    <row r="79" ht="12.6" customHeight="1" s="70">
       <c r="A79" s="5" t="n"/>
-      <c r="B79" s="59" t="s">
-        <v>67</v>
+      <c r="B79" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Provis.for  non-Marketable Securities (-)</t>
+        </is>
       </c>
       <c r="C79" s="22" t="n">
         <v>0</v>
@@ -4469,18 +4289,23 @@
       <c r="M79" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N79" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="80" s="70" spans="1:14">
+      <c r="N79" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O79" s="10" t="n"/>
+    </row>
+    <row r="80" ht="12.6" customHeight="1" s="70">
       <c r="A80" s="5" t="n"/>
-      <c r="B80" s="59" t="s">
-        <v>68</v>
+      <c r="B80" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Participations</t>
+        </is>
       </c>
       <c r="C80" s="22" t="n">
         <v>2186.4375</v>
       </c>
       <c r="D80" s="22" t="n">
-        <v>2220.80424</v>
+        <v>2221.5375</v>
       </c>
       <c r="E80" s="22" t="n">
         <v>2729.34826</v>
@@ -4495,10 +4320,10 @@
         <v>45440.26006</v>
       </c>
       <c r="I80" s="22" t="n">
-        <v>45440.4768</v>
+        <v>45441.21006</v>
       </c>
       <c r="J80" s="21" t="n">
-        <v>54964.66505999999</v>
+        <v>54964.66506</v>
       </c>
       <c r="K80" s="22" t="n">
         <v>54884.18775</v>
@@ -4507,14 +4332,19 @@
         <v>55752.36384000001</v>
       </c>
       <c r="M80" s="22" t="n">
-        <v>54998.06507</v>
-      </c>
-      <c r="N80" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="81" s="70" spans="1:14">
+        <v>54998.26507</v>
+      </c>
+      <c r="N80" s="22" t="n">
+        <v>54408.765</v>
+      </c>
+      <c r="O80" s="10" t="n"/>
+    </row>
+    <row r="81" ht="12.6" customHeight="1" s="70">
       <c r="A81" s="5" t="n"/>
-      <c r="B81" s="59" t="s">
-        <v>69</v>
+      <c r="B81" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Subscribed Capital to Participations (-)</t>
+        </is>
       </c>
       <c r="C81" s="22" t="n">
         <v>0</v>
@@ -4549,12 +4379,17 @@
       <c r="M81" s="22" t="n">
         <v>32.75</v>
       </c>
-      <c r="N81" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="82" s="70" spans="1:14">
+      <c r="N81" s="22" t="n">
+        <v>557.699</v>
+      </c>
+      <c r="O81" s="10" t="n"/>
+    </row>
+    <row r="82" ht="12.6" customHeight="1" s="70">
       <c r="A82" s="8" t="n"/>
-      <c r="B82" s="59" t="s">
-        <v>70</v>
+      <c r="B82" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Provis.for Capital Share in Participations (-)</t>
+        </is>
       </c>
       <c r="C82" s="22" t="n">
         <v>0</v>
@@ -4589,12 +4424,17 @@
       <c r="M82" s="22" t="n">
         <v>524.1989199999999</v>
       </c>
-      <c r="N82" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="83" s="70" spans="1:14">
+      <c r="N82" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O82" s="10" t="n"/>
+    </row>
+    <row r="83" ht="12.6" customHeight="1" s="70">
       <c r="A83" s="5" t="n"/>
-      <c r="B83" s="64" t="s">
-        <v>71</v>
+      <c r="B83" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C83" s="22" t="n">
         <v>0.20259</v>
@@ -4629,12 +4469,17 @@
       <c r="M83" s="22" t="n">
         <v>5401.205150000001</v>
       </c>
-      <c r="N83" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="84" s="70" spans="1:14">
+      <c r="N83" s="22" t="n">
+        <v>5401.205</v>
+      </c>
+      <c r="O83" s="10" t="n"/>
+    </row>
+    <row r="84" ht="12.6" customHeight="1" s="70">
       <c r="A84" s="5" t="n"/>
-      <c r="B84" s="59" t="s">
-        <v>72</v>
+      <c r="B84" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Subscribed Capital to Affili. Enterprises (-)</t>
+        </is>
       </c>
       <c r="C84" s="22" t="n">
         <v>0</v>
@@ -4669,12 +4514,17 @@
       <c r="M84" s="22" t="n">
         <v>1119.42445</v>
       </c>
-      <c r="N84" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="85" s="70" spans="1:14">
+      <c r="N84" s="22" t="n">
+        <v>1119.424</v>
+      </c>
+      <c r="O84" s="10" t="n"/>
+    </row>
+    <row r="85" ht="12.6" customHeight="1" s="70">
       <c r="A85" s="5" t="n"/>
-      <c r="B85" s="59" t="s">
-        <v>73</v>
+      <c r="B85" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Provi.for Capital Share in Affili.Enterp. (-)</t>
+        </is>
       </c>
       <c r="C85" s="22" t="n">
         <v>0</v>
@@ -4709,12 +4559,17 @@
       <c r="M85" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N85" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="86" s="70" spans="1:14">
+      <c r="N85" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O85" s="10" t="n"/>
+    </row>
+    <row r="86" ht="12.6" customHeight="1" s="70">
       <c r="A86" s="5" t="n"/>
-      <c r="B86" s="64" t="s">
-        <v>74</v>
+      <c r="B86" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       9- Other Financial Fixed Assets</t>
+        </is>
       </c>
       <c r="C86" s="22" t="n">
         <v>13.3775</v>
@@ -4749,12 +4604,17 @@
       <c r="M86" s="22" t="n">
         <v>1.9039</v>
       </c>
-      <c r="N86" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="87" s="70" spans="1:14">
+      <c r="N86" s="22" t="n">
+        <v>1.904</v>
+      </c>
+      <c r="O86" s="11" t="n"/>
+    </row>
+    <row r="87" ht="12.6" customHeight="1" s="70">
       <c r="A87" s="8" t="n"/>
-      <c r="B87" s="59" t="s">
-        <v>75</v>
+      <c r="B87" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      10- Provi. for Other Financial Fixed Assets (-)</t>
+        </is>
       </c>
       <c r="C87" s="22" t="n">
         <v>0</v>
@@ -4789,18 +4649,23 @@
       <c r="M87" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N87" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="88" s="70" spans="1:14">
+      <c r="N87" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O87" s="10" t="n"/>
+    </row>
+    <row r="88" ht="12.6" customHeight="1" s="70">
       <c r="A88" s="8" t="n"/>
-      <c r="B88" s="60" t="s">
-        <v>76</v>
+      <c r="B88" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   D- Tangible Fixed Assets</t>
+        </is>
       </c>
       <c r="C88" s="23" t="n">
         <v>187765.47415</v>
       </c>
       <c r="D88" s="23" t="n">
-        <v>200685.25325</v>
+        <v>200812.87761</v>
       </c>
       <c r="E88" s="23" t="n">
         <v>209597.83741</v>
@@ -4809,38 +4674,43 @@
         <v>218341.61037</v>
       </c>
       <c r="G88" s="23" t="n">
-        <v>85224.36791000002</v>
+        <v>85224.36791</v>
       </c>
       <c r="H88" s="33" t="n">
-        <v>94301.27898</v>
+        <v>94382.39098</v>
       </c>
       <c r="I88" s="23" t="n">
-        <v>237793.1321</v>
+        <v>237957.23685</v>
       </c>
       <c r="J88" s="33" t="n">
-        <v>265268.50478</v>
+        <v>272528.46776</v>
       </c>
       <c r="K88" s="23" t="n">
         <v>337915.16928</v>
       </c>
       <c r="L88" s="23" t="n">
-        <v>417674.05694</v>
+        <v>418956.52605</v>
       </c>
       <c r="M88" s="23" t="n">
-        <v>465753.81361</v>
-      </c>
-      <c r="N88" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="89" s="70" spans="1:14">
+        <v>469252.07246</v>
+      </c>
+      <c r="N88" s="23" t="n">
+        <v>612302.777</v>
+      </c>
+      <c r="O88" s="10" t="n"/>
+    </row>
+    <row r="89" ht="12.6" customHeight="1" s="70">
       <c r="A89" s="5" t="n"/>
-      <c r="B89" s="64" t="s">
-        <v>77</v>
+      <c r="B89" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Land</t>
+        </is>
       </c>
       <c r="C89" s="22" t="n">
-        <v>4469.185</v>
+        <v>4469.184999999999</v>
       </c>
       <c r="D89" s="22" t="n">
-        <v>2602.92505</v>
+        <v>2672.2626</v>
       </c>
       <c r="E89" s="22" t="n">
         <v>2630.00303</v>
@@ -4855,26 +4725,31 @@
         <v>1775.07999</v>
       </c>
       <c r="I89" s="22" t="n">
-        <v>3733.4111</v>
+        <v>3832.74865</v>
       </c>
       <c r="J89" s="21" t="n">
-        <v>3568.88509</v>
+        <v>3970.29425</v>
       </c>
       <c r="K89" s="22" t="n">
-        <v>6337.91962</v>
+        <v>6337.919619999999</v>
       </c>
       <c r="L89" s="22" t="n">
-        <v>4733.19285</v>
+        <v>4733.192849999999</v>
       </c>
       <c r="M89" s="22" t="n">
         <v>5028.190360000001</v>
       </c>
-      <c r="N89" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="90" s="70" spans="1:14">
+      <c r="N89" s="22" t="n">
+        <v>6650.508</v>
+      </c>
+      <c r="O89" s="10" t="n"/>
+    </row>
+    <row r="90" ht="12.6" customHeight="1" s="70">
       <c r="A90" s="5" t="n"/>
-      <c r="B90" s="64" t="s">
-        <v>78</v>
+      <c r="B90" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Land Improvements</t>
+        </is>
       </c>
       <c r="C90" s="22" t="n">
         <v>1234.66143</v>
@@ -4909,12 +4784,17 @@
       <c r="M90" s="22" t="n">
         <v>1663.76644</v>
       </c>
-      <c r="N90" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="91" s="70" spans="1:14">
+      <c r="N90" s="22" t="n">
+        <v>1855.546</v>
+      </c>
+      <c r="O90" s="10" t="n"/>
+    </row>
+    <row r="91" ht="12.6" customHeight="1" s="70">
       <c r="A91" s="5" t="n"/>
-      <c r="B91" s="64" t="s">
-        <v>79</v>
+      <c r="B91" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Buildings</t>
+        </is>
       </c>
       <c r="C91" s="22" t="n">
         <v>3458.90652</v>
@@ -4938,7 +4818,7 @@
         <v>26837.39731</v>
       </c>
       <c r="J91" s="21" t="n">
-        <v>26415.34844</v>
+        <v>26597.05153</v>
       </c>
       <c r="K91" s="22" t="n">
         <v>45250.33901</v>
@@ -4947,60 +4827,70 @@
         <v>56204.11706</v>
       </c>
       <c r="M91" s="22" t="n">
-        <v>54232.77947</v>
-      </c>
-      <c r="N91" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="92" s="70" spans="1:14">
+        <v>56792.77947</v>
+      </c>
+      <c r="N91" s="22" t="n">
+        <v>55996.192</v>
+      </c>
+      <c r="O91" s="10" t="n"/>
+    </row>
+    <row r="92" ht="12.6" customHeight="1" s="70">
       <c r="A92" s="5" t="n"/>
-      <c r="B92" s="64" t="s">
-        <v>80</v>
+      <c r="B92" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Machinery, Plant &amp; Equipment</t>
+        </is>
       </c>
       <c r="C92" s="22" t="n">
         <v>27141.40535</v>
       </c>
       <c r="D92" s="22" t="n">
-        <v>33400.65159</v>
+        <v>33441.21809</v>
       </c>
       <c r="E92" s="22" t="n">
         <v>39582.56920000001</v>
       </c>
       <c r="F92" s="21" t="n">
-        <v>48743.11185</v>
+        <v>48743.11184999999</v>
       </c>
       <c r="G92" s="22" t="n">
-        <v>49939.05137000001</v>
+        <v>49939.05136999999</v>
       </c>
       <c r="H92" s="21" t="n">
-        <v>50990.36569</v>
+        <v>50993.52108</v>
       </c>
       <c r="I92" s="22" t="n">
-        <v>54722.1044</v>
+        <v>54817.60119</v>
       </c>
       <c r="J92" s="21" t="n">
-        <v>59861.90792999999</v>
+        <v>66215.66675</v>
       </c>
       <c r="K92" s="22" t="n">
         <v>75918.48428</v>
       </c>
       <c r="L92" s="22" t="n">
-        <v>98892.56978999999</v>
+        <v>98892.56979000001</v>
       </c>
       <c r="M92" s="22" t="n">
-        <v>131324.93048</v>
-      </c>
-      <c r="N92" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="93" s="70" spans="1:14">
+        <v>131401.06239</v>
+      </c>
+      <c r="N92" s="22" t="n">
+        <v>151699.365</v>
+      </c>
+      <c r="O92" s="10" t="n"/>
+    </row>
+    <row r="93" ht="12.6" customHeight="1" s="70">
       <c r="A93" s="5" t="n"/>
-      <c r="B93" s="64" t="s">
-        <v>81</v>
+      <c r="B93" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Motor Vehicles</t>
+        </is>
       </c>
       <c r="C93" s="22" t="n">
         <v>35229.12659000001</v>
       </c>
       <c r="D93" s="22" t="n">
-        <v>42401.33302000001</v>
+        <v>42482.26522</v>
       </c>
       <c r="E93" s="22" t="n">
         <v>48678.94634999999</v>
@@ -5009,38 +4899,43 @@
         <v>51265.59163</v>
       </c>
       <c r="G93" s="22" t="n">
-        <v>49497.02168</v>
+        <v>49497.02168000001</v>
       </c>
       <c r="H93" s="21" t="n">
-        <v>49557.93452999999</v>
+        <v>49585.93567</v>
       </c>
       <c r="I93" s="22" t="n">
-        <v>56446.24192</v>
+        <v>56564.21639</v>
       </c>
       <c r="J93" s="21" t="n">
-        <v>73197.82067999999</v>
+        <v>74140.91915</v>
       </c>
       <c r="K93" s="22" t="n">
         <v>119466.22451</v>
       </c>
       <c r="L93" s="22" t="n">
-        <v>181821.35361</v>
+        <v>183097.20107</v>
       </c>
       <c r="M93" s="22" t="n">
-        <v>195935.58361</v>
-      </c>
-      <c r="N93" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="94" s="70" spans="1:14">
+        <v>196190.45017</v>
+      </c>
+      <c r="N93" s="22" t="n">
+        <v>338146.353</v>
+      </c>
+      <c r="O93" s="10" t="n"/>
+    </row>
+    <row r="94" ht="12.6" customHeight="1" s="70">
       <c r="A94" s="5" t="n"/>
-      <c r="B94" s="59" t="s">
-        <v>82</v>
+      <c r="B94" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Furniture &amp; Fixtures</t>
+        </is>
       </c>
       <c r="C94" s="22" t="n">
         <v>11512.18548</v>
       </c>
       <c r="D94" s="22" t="n">
-        <v>16068.13947</v>
+        <v>16132.5175</v>
       </c>
       <c r="E94" s="22" t="n">
         <v>17301.26843</v>
@@ -5049,32 +4944,37 @@
         <v>20715.08244</v>
       </c>
       <c r="G94" s="22" t="n">
-        <v>20607.65639</v>
+        <v>20624.05357</v>
       </c>
       <c r="H94" s="21" t="n">
-        <v>20912.59941</v>
+        <v>20985.46463</v>
       </c>
       <c r="I94" s="22" t="n">
-        <v>22486.90255</v>
+        <v>22591.15231</v>
       </c>
       <c r="J94" s="21" t="n">
-        <v>31354.34042</v>
+        <v>31371.63696</v>
       </c>
       <c r="K94" s="22" t="n">
         <v>32347.8772</v>
       </c>
       <c r="L94" s="22" t="n">
-        <v>44354.95875</v>
+        <v>44361.58040000001</v>
       </c>
       <c r="M94" s="22" t="n">
-        <v>56473.66902</v>
-      </c>
-      <c r="N94" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="95" s="70" spans="1:14">
+        <v>56832.61097</v>
+      </c>
+      <c r="N94" s="22" t="n">
+        <v>89749.23299999999</v>
+      </c>
+      <c r="O94" s="10" t="n"/>
+    </row>
+    <row r="95" ht="12.6" customHeight="1" s="70">
       <c r="A95" s="5" t="n"/>
-      <c r="B95" s="64" t="s">
-        <v>83</v>
+      <c r="B95" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Other Tangible Fixed Assets</t>
+        </is>
       </c>
       <c r="C95" s="22" t="n">
         <v>50.0297</v>
@@ -5089,38 +4989,43 @@
         <v>767.1712100000001</v>
       </c>
       <c r="G95" s="22" t="n">
-        <v>717.8465000000001</v>
+        <v>717.8465</v>
       </c>
       <c r="H95" s="21" t="n">
-        <v>700.6995900000001</v>
+        <v>700.6995899999999</v>
       </c>
       <c r="I95" s="22" t="n">
-        <v>676.7908600000001</v>
+        <v>676.79086</v>
       </c>
       <c r="J95" s="21" t="n">
         <v>1030.97398</v>
       </c>
       <c r="K95" s="22" t="n">
-        <v>991.6671799999999</v>
+        <v>991.66718</v>
       </c>
       <c r="L95" s="22" t="n">
         <v>969.4846799999999</v>
       </c>
       <c r="M95" s="22" t="n">
-        <v>653.40142</v>
-      </c>
-      <c r="N95" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="96" s="70" spans="1:14">
+        <v>653.4014199999999</v>
+      </c>
+      <c r="N95" s="22" t="n">
+        <v>805.3200000000001</v>
+      </c>
+      <c r="O95" s="10" t="n"/>
+    </row>
+    <row r="96" ht="12.6" customHeight="1" s="70">
       <c r="A96" s="5" t="n"/>
-      <c r="B96" s="59" t="s">
-        <v>84</v>
+      <c r="B96" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Accumulated Depreciation (-)</t>
+        </is>
       </c>
       <c r="C96" s="22" t="n">
         <v>34132.15295</v>
       </c>
       <c r="D96" s="22" t="n">
-        <v>43805.78556</v>
+        <v>43937.56548</v>
       </c>
       <c r="E96" s="22" t="n">
         <v>51986.77655</v>
@@ -5129,16 +5034,16 @@
         <v>62454.56683</v>
       </c>
       <c r="G96" s="22" t="n">
-        <v>63275.58736999999</v>
+        <v>63291.98454999999</v>
       </c>
       <c r="H96" s="21" t="n">
-        <v>58927.5816</v>
+        <v>58950.49135</v>
       </c>
       <c r="I96" s="22" t="n">
-        <v>63639.61184</v>
+        <v>63955.6255</v>
       </c>
       <c r="J96" s="21" t="n">
-        <v>69310.10412</v>
+        <v>70909.56103</v>
       </c>
       <c r="K96" s="22" t="n">
         <v>85623.97095</v>
@@ -5147,14 +5052,19 @@
         <v>116697.19583</v>
       </c>
       <c r="M96" s="22" t="n">
-        <v>145136.57025</v>
-      </c>
-      <c r="N96" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="97" s="70" spans="1:14">
+        <v>145225.94148</v>
+      </c>
+      <c r="N96" s="22" t="n">
+        <v>182870.637</v>
+      </c>
+      <c r="O96" s="10" t="n"/>
+    </row>
+    <row r="97" ht="12.6" customHeight="1" s="70">
       <c r="A97" s="5" t="n"/>
-      <c r="B97" s="64" t="s">
-        <v>85</v>
+      <c r="B97" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       9- Assets in Construction</t>
+        </is>
       </c>
       <c r="C97" s="22" t="n">
         <v>137790.94053</v>
@@ -5175,10 +5085,10 @@
         <v>2800.70924</v>
       </c>
       <c r="I97" s="22" t="n">
-        <v>133678.8143</v>
+        <v>133715.40684</v>
       </c>
       <c r="J97" s="21" t="n">
-        <v>134987.64432</v>
+        <v>135949.79813</v>
       </c>
       <c r="K97" s="22" t="n">
         <v>138849.53222</v>
@@ -5187,20 +5097,25 @@
         <v>141400.83093</v>
       </c>
       <c r="M97" s="22" t="n">
-        <v>160352.67109</v>
-      </c>
-      <c r="N97" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="98" s="70" spans="1:14">
+        <v>160690.36075</v>
+      </c>
+      <c r="N97" s="22" t="n">
+        <v>145781.956</v>
+      </c>
+      <c r="O97" s="11" t="n"/>
+    </row>
+    <row r="98" ht="12.6" customHeight="1" s="70">
       <c r="A98" s="8" t="n"/>
-      <c r="B98" s="64" t="s">
-        <v>86</v>
+      <c r="B98" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      10- Advances Paid</t>
+        </is>
       </c>
       <c r="C98" s="22" t="n">
         <v>1011.1865</v>
       </c>
       <c r="D98" s="22" t="n">
-        <v>1512.396</v>
+        <v>1516.586</v>
       </c>
       <c r="E98" s="22" t="n">
         <v>945.8669199999999</v>
@@ -5215,7 +5130,7 @@
         <v>1260.58285</v>
       </c>
       <c r="I98" s="22" t="n">
-        <v>1291.9248</v>
+        <v>1318.3921</v>
       </c>
       <c r="J98" s="21" t="n">
         <v>2584.35429</v>
@@ -5229,18 +5144,23 @@
       <c r="M98" s="22" t="n">
         <v>5225.391970000001</v>
       </c>
-      <c r="N98" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="99" s="70" spans="1:14">
+      <c r="N98" s="22" t="n">
+        <v>4488.941</v>
+      </c>
+      <c r="O98" s="10" t="n"/>
+    </row>
+    <row r="99" ht="12.6" customHeight="1" s="70">
       <c r="A99" s="5" t="n"/>
-      <c r="B99" s="60" t="s">
-        <v>87</v>
+      <c r="B99" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   E- Intangible Fixed Assets</t>
+        </is>
       </c>
       <c r="C99" s="23" t="n">
         <v>2715.26847</v>
       </c>
       <c r="D99" s="23" t="n">
-        <v>2499.55787</v>
+        <v>2511.61823</v>
       </c>
       <c r="E99" s="23" t="n">
         <v>6223.89199</v>
@@ -5252,29 +5172,34 @@
         <v>13524.1988</v>
       </c>
       <c r="H99" s="33" t="n">
-        <v>3807.24868</v>
+        <v>3851.69736</v>
       </c>
       <c r="I99" s="23" t="n">
-        <v>3375.04994</v>
+        <v>3410.44072</v>
       </c>
       <c r="J99" s="33" t="n">
-        <v>10123.56134</v>
+        <v>10236.67867</v>
       </c>
       <c r="K99" s="23" t="n">
         <v>16919.08853</v>
       </c>
       <c r="L99" s="23" t="n">
-        <v>19870.84041</v>
+        <v>19872.52302</v>
       </c>
       <c r="M99" s="23" t="n">
-        <v>20370.91553</v>
-      </c>
-      <c r="N99" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="100" s="70" spans="1:14">
+        <v>22528.29627</v>
+      </c>
+      <c r="N99" s="23" t="n">
+        <v>25429.612</v>
+      </c>
+      <c r="O99" s="10" t="n"/>
+    </row>
+    <row r="100" ht="12.6" customHeight="1" s="70">
       <c r="A100" s="5" t="n"/>
-      <c r="B100" s="64" t="s">
-        <v>88</v>
+      <c r="B100" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Know-How</t>
+        </is>
       </c>
       <c r="C100" s="22" t="n">
         <v>1599.60793</v>
@@ -5298,7 +5223,7 @@
         <v>1050.42904</v>
       </c>
       <c r="J100" s="21" t="n">
-        <v>7764.952</v>
+        <v>7780.952</v>
       </c>
       <c r="K100" s="22" t="n">
         <v>14484.00132</v>
@@ -5307,14 +5232,19 @@
         <v>14843.24991</v>
       </c>
       <c r="M100" s="22" t="n">
-        <v>14908.68911</v>
-      </c>
-      <c r="N100" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="101" s="70" spans="1:14">
+        <v>14921.3348</v>
+      </c>
+      <c r="N100" s="22" t="n">
+        <v>16448.598</v>
+      </c>
+      <c r="O100" s="10" t="n"/>
+    </row>
+    <row r="101" ht="12.6" customHeight="1" s="70">
       <c r="A101" s="5" t="n"/>
-      <c r="B101" s="64" t="s">
-        <v>89</v>
+      <c r="B101" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Goodwill</t>
+        </is>
       </c>
       <c r="C101" s="22" t="n">
         <v>0</v>
@@ -5349,12 +5279,17 @@
       <c r="M101" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N101" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="102" s="70" spans="1:14">
+      <c r="N101" s="22" t="n">
+        <v>36.017</v>
+      </c>
+      <c r="O101" s="10" t="n"/>
+    </row>
+    <row r="102" ht="12.6" customHeight="1" s="70">
       <c r="A102" s="5" t="n"/>
-      <c r="B102" s="59" t="s">
-        <v>90</v>
+      <c r="B102" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Formation and Organisation Expenses</t>
+        </is>
       </c>
       <c r="C102" s="22" t="n">
         <v>37.04745</v>
@@ -5378,23 +5313,28 @@
         <v>163.95721</v>
       </c>
       <c r="J102" s="21" t="n">
-        <v>164.30128</v>
+        <v>168.15032</v>
       </c>
       <c r="K102" s="22" t="n">
         <v>222.7211</v>
       </c>
       <c r="L102" s="22" t="n">
-        <v>235.01768</v>
+        <v>236.70029</v>
       </c>
       <c r="M102" s="22" t="n">
-        <v>3141.91179</v>
-      </c>
-      <c r="N102" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="103" s="70" spans="1:14">
+        <v>3147.7229</v>
+      </c>
+      <c r="N102" s="22" t="n">
+        <v>3159.978</v>
+      </c>
+      <c r="O102" s="10" t="n"/>
+    </row>
+    <row r="103" ht="12.6" customHeight="1" s="70">
       <c r="A103" s="8" t="n"/>
-      <c r="B103" s="59" t="s">
-        <v>91</v>
+      <c r="B103" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Research and Development Expenses</t>
+        </is>
       </c>
       <c r="C103" s="22" t="n">
         <v>2.29326</v>
@@ -5429,18 +5369,23 @@
       <c r="M103" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N103" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="104" s="70" spans="1:14">
+      <c r="N103" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O103" s="10" t="n"/>
+    </row>
+    <row r="104" ht="12.6" customHeight="1" s="70">
       <c r="A104" s="5" t="n"/>
-      <c r="B104" s="66" t="s">
-        <v>92</v>
+      <c r="B104" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Special Expenses</t>
+        </is>
       </c>
       <c r="C104" s="22" t="n">
         <v>1984.76066</v>
       </c>
       <c r="D104" s="22" t="n">
-        <v>1889.10908</v>
+        <v>1904.18453</v>
       </c>
       <c r="E104" s="22" t="n">
         <v>2694.48219</v>
@@ -5452,13 +5397,13 @@
         <v>2815.68164</v>
       </c>
       <c r="H104" s="21" t="n">
-        <v>4971.65974</v>
+        <v>5031.223639999999</v>
       </c>
       <c r="I104" s="22" t="n">
-        <v>5175.85513</v>
+        <v>5253.832979999999</v>
       </c>
       <c r="J104" s="21" t="n">
-        <v>4766.181820000001</v>
+        <v>4921.62899</v>
       </c>
       <c r="K104" s="22" t="n">
         <v>4295.19915</v>
@@ -5467,23 +5412,28 @@
         <v>7244.11086</v>
       </c>
       <c r="M104" s="22" t="n">
-        <v>4726.925029999999</v>
-      </c>
-      <c r="N104" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="105" s="70" spans="1:14">
+        <v>6868.10458</v>
+      </c>
+      <c r="N104" s="22" t="n">
+        <v>6082.171</v>
+      </c>
+      <c r="O104" s="10" t="n"/>
+    </row>
+    <row r="105" ht="12.6" customHeight="1" s="70">
       <c r="A105" s="5" t="n"/>
-      <c r="B105" s="66" t="s">
-        <v>93</v>
+      <c r="B105" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Other Intangible Fixed Assets</t>
+        </is>
       </c>
       <c r="C105" s="22" t="n">
         <v>177.98022</v>
       </c>
       <c r="D105" s="22" t="n">
-        <v>528.2015499999999</v>
+        <v>528.20155</v>
       </c>
       <c r="E105" s="22" t="n">
-        <v>4902.972130000001</v>
+        <v>4902.97213</v>
       </c>
       <c r="F105" s="21" t="n">
         <v>13854.96203</v>
@@ -5495,7 +5445,7 @@
         <v>851.7903400000001</v>
       </c>
       <c r="I105" s="22" t="n">
-        <v>853.0890200000001</v>
+        <v>853.08902</v>
       </c>
       <c r="J105" s="21" t="n">
         <v>230.77382</v>
@@ -5507,38 +5457,43 @@
         <v>313.34895</v>
       </c>
       <c r="M105" s="22" t="n">
-        <v>340.53145</v>
-      </c>
-      <c r="N105" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="106" s="70" spans="1:14">
+        <v>340.5314499999999</v>
+      </c>
+      <c r="N105" s="22" t="n">
+        <v>1431.343</v>
+      </c>
+      <c r="O105" s="10" t="n"/>
+    </row>
+    <row r="106" ht="12.6" customHeight="1" s="70">
       <c r="A106" s="8" t="n"/>
-      <c r="B106" s="67" t="s">
-        <v>94</v>
+      <c r="B106" s="67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Accumulated Depreciation (-)</t>
+        </is>
       </c>
       <c r="C106" s="22" t="n">
         <v>1112.20179</v>
       </c>
       <c r="D106" s="22" t="n">
-        <v>1630.96871</v>
+        <v>1633.9838</v>
       </c>
       <c r="E106" s="22" t="n">
         <v>3200.62752</v>
       </c>
       <c r="F106" s="21" t="n">
-        <v>7593.554460000001</v>
+        <v>7593.55446</v>
       </c>
       <c r="G106" s="22" t="n">
         <v>13760.10735</v>
       </c>
       <c r="H106" s="21" t="n">
-        <v>4301.96658</v>
+        <v>4317.081800000001</v>
       </c>
       <c r="I106" s="22" t="n">
-        <v>3870.939679999999</v>
+        <v>3913.52675</v>
       </c>
       <c r="J106" s="21" t="n">
-        <v>3115.5468</v>
+        <v>3177.72568</v>
       </c>
       <c r="K106" s="22" t="n">
         <v>3103.22962</v>
@@ -5547,14 +5502,19 @@
         <v>3247.12699</v>
       </c>
       <c r="M106" s="22" t="n">
-        <v>3374.38185</v>
-      </c>
-      <c r="N106" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="107" s="70" spans="1:14">
+        <v>3376.63746</v>
+      </c>
+      <c r="N106" s="22" t="n">
+        <v>2163.235</v>
+      </c>
+      <c r="O106" s="10" t="n"/>
+    </row>
+    <row r="107" ht="12.6" customHeight="1" s="70">
       <c r="A107" s="8" t="n"/>
-      <c r="B107" s="66" t="s">
-        <v>95</v>
+      <c r="B107" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Advances Paid</t>
+        </is>
       </c>
       <c r="C107" s="22" t="n">
         <v>25.78074</v>
@@ -5589,12 +5549,17 @@
       <c r="M107" s="22" t="n">
         <v>627.24</v>
       </c>
-      <c r="N107" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="108" s="70" spans="1:14">
+      <c r="N107" s="22" t="n">
+        <v>434.74</v>
+      </c>
+      <c r="O107" s="10" t="n"/>
+    </row>
+    <row r="108" ht="12.6" customHeight="1" s="70">
       <c r="A108" s="5" t="n"/>
-      <c r="B108" s="68" t="s">
-        <v>96</v>
+      <c r="B108" s="68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   F- Assets Subject to Depletion</t>
+        </is>
       </c>
       <c r="C108" s="23" t="n">
         <v>0.00199</v>
@@ -5629,12 +5594,17 @@
       <c r="M108" s="23" t="n">
         <v>0</v>
       </c>
-      <c r="N108" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="109" s="70" spans="1:14">
+      <c r="N108" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O108" s="10" t="n"/>
+    </row>
+    <row r="109" ht="12.6" customHeight="1" s="70">
       <c r="A109" s="5" t="n"/>
-      <c r="B109" s="66" t="s">
-        <v>97</v>
+      <c r="B109" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Exploration Expenses</t>
+        </is>
       </c>
       <c r="C109" s="22" t="n">
         <v>0</v>
@@ -5669,12 +5639,17 @@
       <c r="M109" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N109" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="110" s="70" spans="1:14">
+      <c r="N109" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O109" s="10" t="n"/>
+    </row>
+    <row r="110" ht="12.6" customHeight="1" s="70">
       <c r="A110" s="5" t="n"/>
-      <c r="B110" s="64" t="s">
-        <v>98</v>
+      <c r="B110" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Preparation and Development Expenses</t>
+        </is>
       </c>
       <c r="C110" s="22" t="n">
         <v>0</v>
@@ -5709,12 +5684,17 @@
       <c r="M110" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N110" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="111" s="70" spans="1:14">
+      <c r="N110" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O110" s="10" t="n"/>
+    </row>
+    <row r="111" ht="12.6" customHeight="1" s="70">
       <c r="A111" s="5" t="n"/>
-      <c r="B111" s="64" t="s">
-        <v>99</v>
+      <c r="B111" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Other Assets subject to Depletion</t>
+        </is>
       </c>
       <c r="C111" s="22" t="n">
         <v>0</v>
@@ -5749,12 +5729,17 @@
       <c r="M111" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N111" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="112" s="70" spans="1:14">
+      <c r="N111" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O111" s="10" t="n"/>
+    </row>
+    <row r="112" ht="12.6" customHeight="1" s="70">
       <c r="A112" s="5" t="n"/>
-      <c r="B112" s="59" t="s">
-        <v>100</v>
+      <c r="B112" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Accumulated Depletion (-)</t>
+        </is>
       </c>
       <c r="C112" s="22" t="n">
         <v>0</v>
@@ -5789,12 +5774,17 @@
       <c r="M112" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N112" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="113" s="70" spans="1:14">
+      <c r="N112" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O112" s="11" t="n"/>
+    </row>
+    <row r="113" ht="12.6" customHeight="1" s="70">
       <c r="A113" s="8" t="n"/>
-      <c r="B113" s="64" t="s">
-        <v>101</v>
+      <c r="B113" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Advances Paid</t>
+        </is>
       </c>
       <c r="C113" s="22" t="n">
         <v>0.00199</v>
@@ -5829,18 +5819,23 @@
       <c r="M113" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N113" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="114" s="70" spans="1:14">
+      <c r="N113" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O113" s="10" t="n"/>
+    </row>
+    <row r="114" ht="12.6" customHeight="1" s="70">
       <c r="A114" s="5" t="n"/>
-      <c r="B114" s="60" t="s">
-        <v>102</v>
+      <c r="B114" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   G-Prepaym.&amp; Accrued Inc. for the Next Yrs.</t>
+        </is>
       </c>
       <c r="C114" s="23" t="n">
-        <v>735.43791</v>
+        <v>735.4379099999999</v>
       </c>
       <c r="D114" s="23" t="n">
-        <v>4353.96897</v>
+        <v>4356.2577</v>
       </c>
       <c r="E114" s="23" t="n">
         <v>2358.32743</v>
@@ -5849,38 +5844,43 @@
         <v>3565.99924</v>
       </c>
       <c r="G114" s="23" t="n">
-        <v>5002.15938</v>
+        <v>5002.159379999999</v>
       </c>
       <c r="H114" s="33" t="n">
-        <v>5632.299529999999</v>
+        <v>5716.61485</v>
       </c>
       <c r="I114" s="23" t="n">
-        <v>4860.07776</v>
+        <v>4862.55525</v>
       </c>
       <c r="J114" s="33" t="n">
-        <v>4727.74282</v>
+        <v>5622.98886</v>
       </c>
       <c r="K114" s="23" t="n">
-        <v>5570.994189999999</v>
+        <v>5570.99419</v>
       </c>
       <c r="L114" s="23" t="n">
-        <v>6213.76027</v>
+        <v>6218.618759999999</v>
       </c>
       <c r="M114" s="23" t="n">
-        <v>7724.09152</v>
-      </c>
-      <c r="N114" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="115" s="70" spans="1:14">
+        <v>7731.33634</v>
+      </c>
+      <c r="N114" s="23" t="n">
+        <v>10372.23</v>
+      </c>
+      <c r="O114" s="10" t="n"/>
+    </row>
+    <row r="115" ht="12.6" customHeight="1" s="70">
       <c r="A115" s="5" t="n"/>
-      <c r="B115" s="64" t="s">
-        <v>103</v>
+      <c r="B115" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Prepayments for the Next Years</t>
+        </is>
       </c>
       <c r="C115" s="22" t="n">
-        <v>735.43791</v>
+        <v>735.4379099999999</v>
       </c>
       <c r="D115" s="22" t="n">
-        <v>1255.02028</v>
+        <v>1257.30901</v>
       </c>
       <c r="E115" s="22" t="n">
         <v>2358.32743</v>
@@ -5892,29 +5892,34 @@
         <v>4999.03438</v>
       </c>
       <c r="H115" s="21" t="n">
-        <v>5619.474069999999</v>
+        <v>5703.78939</v>
       </c>
       <c r="I115" s="22" t="n">
-        <v>4860.07776</v>
+        <v>4862.55525</v>
       </c>
       <c r="J115" s="21" t="n">
-        <v>4727.74282</v>
+        <v>5622.98886</v>
       </c>
       <c r="K115" s="22" t="n">
-        <v>5570.994189999999</v>
+        <v>5570.99419</v>
       </c>
       <c r="L115" s="22" t="n">
-        <v>6213.76027</v>
+        <v>6218.618759999999</v>
       </c>
       <c r="M115" s="22" t="n">
-        <v>7121.474990000001</v>
-      </c>
-      <c r="N115" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="116" s="70" spans="1:14">
+        <v>7128.719810000001</v>
+      </c>
+      <c r="N115" s="22" t="n">
+        <v>10330.233</v>
+      </c>
+      <c r="O115" s="11" t="n"/>
+    </row>
+    <row r="116" ht="12.6" customHeight="1" s="70">
       <c r="A116" s="8" t="n"/>
-      <c r="B116" s="64" t="s">
-        <v>48</v>
+      <c r="B116" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Accrued Income</t>
+        </is>
       </c>
       <c r="C116" s="22" t="n">
         <v>0</v>
@@ -5949,12 +5954,17 @@
       <c r="M116" s="22" t="n">
         <v>602.61653</v>
       </c>
-      <c r="N116" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="117" s="70" spans="1:14">
+      <c r="N116" s="22" t="n">
+        <v>41.997</v>
+      </c>
+      <c r="O116" s="10" t="n"/>
+    </row>
+    <row r="117" ht="12.6" customHeight="1" s="70">
       <c r="A117" s="8" t="n"/>
-      <c r="B117" s="57" t="s">
-        <v>104</v>
+      <c r="B117" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   H- Other Long-Term Assets</t>
+        </is>
       </c>
       <c r="C117" s="23" t="n">
         <v>10.47162</v>
@@ -5989,12 +5999,17 @@
       <c r="M117" s="23" t="n">
         <v>16402.09564</v>
       </c>
-      <c r="N117" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="118" s="70" spans="1:14">
+      <c r="N117" s="23" t="n">
+        <v>5124.823</v>
+      </c>
+      <c r="O117" s="10" t="n"/>
+    </row>
+    <row r="118" ht="12.6" customHeight="1" s="70">
       <c r="A118" s="5" t="n"/>
-      <c r="B118" s="64" t="s">
-        <v>105</v>
+      <c r="B118" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- V.A.T. Deductable in the Following Years</t>
+        </is>
       </c>
       <c r="C118" s="22" t="n">
         <v>15.77224</v>
@@ -6029,12 +6044,17 @@
       <c r="M118" s="22" t="n">
         <v>0.432</v>
       </c>
-      <c r="N118" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="119" s="70" spans="1:14">
+      <c r="N118" s="22" t="n">
+        <v>0.432</v>
+      </c>
+      <c r="O118" s="10" t="n"/>
+    </row>
+    <row r="119" ht="12.6" customHeight="1" s="70">
       <c r="A119" s="5" t="n"/>
-      <c r="B119" s="64" t="s">
-        <v>106</v>
+      <c r="B119" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Other V.A.T.</t>
+        </is>
       </c>
       <c r="C119" s="22" t="n">
         <v>0.09</v>
@@ -6069,12 +6089,17 @@
       <c r="M119" s="22" t="n">
         <v>0.09</v>
       </c>
-      <c r="N119" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="120" s="70" spans="1:14">
+      <c r="N119" s="22" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="O119" s="10" t="n"/>
+    </row>
+    <row r="120" ht="12.6" customHeight="1" s="70">
       <c r="A120" s="5" t="n"/>
-      <c r="B120" s="64" t="s">
-        <v>107</v>
+      <c r="B120" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Inventory Held for the Next Years</t>
+        </is>
       </c>
       <c r="C120" s="22" t="n">
         <v>0</v>
@@ -6109,12 +6134,17 @@
       <c r="M120" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N120" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="121" s="70" spans="1:14">
+      <c r="N120" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O120" s="10" t="n"/>
+    </row>
+    <row r="121" ht="12.6" customHeight="1" s="70">
       <c r="A121" s="5" t="n"/>
-      <c r="B121" s="64" t="s">
-        <v>108</v>
+      <c r="B121" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Inventories and Tang.Fixed Assets to be Sold</t>
+        </is>
       </c>
       <c r="C121" s="22" t="n">
         <v>0</v>
@@ -6149,12 +6179,17 @@
       <c r="M121" s="22" t="n">
         <v>211.63961</v>
       </c>
-      <c r="N121" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="122" s="70" spans="1:14">
+      <c r="N121" s="22" t="n">
+        <v>211.64</v>
+      </c>
+      <c r="O121" s="10" t="n"/>
+    </row>
+    <row r="122" ht="12.6" customHeight="1" s="70">
       <c r="A122" s="5" t="n"/>
-      <c r="B122" s="59" t="s">
-        <v>109</v>
+      <c r="B122" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Prepaid taxes and funds</t>
+        </is>
       </c>
       <c r="C122" s="22" t="n">
         <v>0</v>
@@ -6189,12 +6224,17 @@
       <c r="M122" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N122" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="123" s="70" spans="1:14">
+      <c r="N122" s="22" t="n">
+        <v>0.07099999999999999</v>
+      </c>
+      <c r="O122" s="10" t="n"/>
+    </row>
+    <row r="123" ht="12.6" customHeight="1" s="70">
       <c r="A123" s="5" t="n"/>
-      <c r="B123" s="59" t="s">
-        <v>110</v>
+      <c r="B123" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Other </t>
+        </is>
       </c>
       <c r="C123" s="22" t="n">
         <v>0</v>
@@ -6229,12 +6269,17 @@
       <c r="M123" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N123" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="124" s="70" spans="1:14">
+      <c r="N123" s="22" t="n">
+        <v>0.103</v>
+      </c>
+      <c r="O123" s="10" t="n"/>
+    </row>
+    <row r="124" ht="12.6" customHeight="1" s="70">
       <c r="A124" s="5" t="n"/>
-      <c r="B124" s="59" t="s">
-        <v>111</v>
+      <c r="B124" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Provisions for  inventories (-)</t>
+        </is>
       </c>
       <c r="C124" s="22" t="n">
         <v>1.2</v>
@@ -6269,12 +6314,17 @@
       <c r="M124" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N124" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="125" s="70" spans="1:14">
+      <c r="N124" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O124" s="11" t="n"/>
+    </row>
+    <row r="125" ht="12.6" customHeight="1" s="70">
       <c r="A125" s="8" t="n"/>
-      <c r="B125" s="59" t="s">
-        <v>112</v>
+      <c r="B125" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Accumulated depreciation (-)</t>
+        </is>
       </c>
       <c r="C125" s="22" t="n">
         <v>4.19062</v>
@@ -6309,12 +6359,17 @@
       <c r="M125" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N125" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="126" s="70" spans="1:14">
+      <c r="N125" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O125" s="10" t="n"/>
+    </row>
+    <row r="126" ht="12.6" customHeight="1" s="70">
       <c r="A126" s="8" t="n"/>
-      <c r="B126" s="59" t="s">
-        <v>113</v>
+      <c r="B126" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       9- Suspence Account</t>
+        </is>
       </c>
       <c r="C126" s="22" t="n">
         <v>0</v>
@@ -6349,49 +6404,57 @@
       <c r="M126" s="22" t="n">
         <v>16189.93403</v>
       </c>
-      <c r="N126" s="10" t="n"/>
-    </row>
-    <row r="127" spans="1:14">
+      <c r="N126" s="22" t="n">
+        <v>4912.487</v>
+      </c>
+      <c r="O126" s="10" t="n"/>
+    </row>
+    <row r="127">
       <c r="A127" s="8" t="n"/>
-      <c r="B127" s="38" t="s">
-        <v>114</v>
+      <c r="B127" s="38" t="inlineStr">
+        <is>
+          <t>TOTAL ASSETS</t>
+        </is>
       </c>
       <c r="C127" s="23" t="n">
         <v>325486.43321</v>
       </c>
       <c r="D127" s="23" t="n">
-        <v>425425.4382100001</v>
+        <v>426283.61344</v>
       </c>
       <c r="E127" s="23" t="n">
-        <v>571045.1761</v>
+        <v>571045.1760999999</v>
       </c>
       <c r="F127" s="33" t="n">
-        <v>667783.9806099999</v>
+        <v>667783.98061</v>
       </c>
       <c r="G127" s="23" t="n">
-        <v>660945.13703</v>
+        <v>660950.15662</v>
       </c>
       <c r="H127" s="33" t="n">
-        <v>447983.83608</v>
+        <v>448378.4407</v>
       </c>
       <c r="I127" s="23" t="n">
-        <v>571321.45949</v>
+        <v>574614.72091</v>
       </c>
       <c r="J127" s="33" t="n">
-        <v>632920.34935</v>
+        <v>668386.42657</v>
       </c>
       <c r="K127" s="23" t="n">
         <v>780303.80991</v>
       </c>
       <c r="L127" s="23" t="n">
-        <v>1089696.32973</v>
+        <v>1091380.56773</v>
       </c>
       <c r="M127" s="23" t="n">
-        <v>1249294.75383</v>
-      </c>
-      <c r="N127" s="1" t="n"/>
-    </row>
-    <row r="128" spans="1:14">
+        <v>1258967.75442</v>
+      </c>
+      <c r="N127" s="23" t="n">
+        <v>1477077.783</v>
+      </c>
+      <c r="O127" s="1" t="n"/>
+    </row>
+    <row r="128">
       <c r="A128" s="18" t="n"/>
       <c r="B128" s="39" t="n"/>
       <c r="C128" s="40" t="n"/>
@@ -6405,11 +6468,14 @@
       <c r="K128" s="40" t="n"/>
       <c r="L128" s="40" t="n"/>
       <c r="M128" s="40" t="n"/>
-      <c r="N128" s="1" t="n"/>
-    </row>
-    <row r="129" spans="1:14">
-      <c r="A129" s="4" t="s">
-        <v>0</v>
+      <c r="N128" s="40" t="n"/>
+      <c r="O128" s="1" t="n"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="4" t="inlineStr">
+        <is>
+          <t>031-Fishing</t>
+        </is>
       </c>
       <c r="B129" s="29" t="n"/>
       <c r="C129" s="29" t="n"/>
@@ -6423,11 +6489,14 @@
       <c r="K129" s="29" t="n"/>
       <c r="L129" s="29" t="n"/>
       <c r="M129" s="29" t="n"/>
-      <c r="N129" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="130" s="70" spans="1:14">
-      <c r="A130" s="4" t="s">
-        <v>1</v>
+      <c r="N129" s="29" t="n"/>
+      <c r="O129" s="10" t="n"/>
+    </row>
+    <row r="130" ht="12.6" customHeight="1" s="70">
+      <c r="A130" s="4" t="inlineStr">
+        <is>
+          <t>BALANCE SHEET (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="B130" s="63" t="n"/>
       <c r="C130" s="29" t="n"/>
@@ -6441,12 +6510,15 @@
       <c r="K130" s="29" t="n"/>
       <c r="L130" s="29" t="n"/>
       <c r="M130" s="29" t="n"/>
-      <c r="N130" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="25.5" r="131" s="70" spans="1:14">
+      <c r="N130" s="29" t="n"/>
+      <c r="O130" s="11" t="n"/>
+    </row>
+    <row r="131" ht="25.5" customHeight="1" s="70">
       <c r="A131" s="19" t="n"/>
-      <c r="B131" s="42" t="s">
-        <v>115</v>
+      <c r="B131" s="42" t="inlineStr">
+        <is>
+          <t>LIABILITIES</t>
+        </is>
       </c>
       <c r="C131" s="44" t="n">
         <v>2009</v>
@@ -6481,18 +6553,23 @@
       <c r="M131" s="31" t="n">
         <v>2019</v>
       </c>
-      <c r="N131" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="132" s="70" spans="1:14">
+      <c r="N131" s="31" t="n">
+        <v>2020</v>
+      </c>
+      <c r="O131" s="11" t="n"/>
+    </row>
+    <row r="132" ht="12.6" customHeight="1" s="70">
       <c r="A132" s="8" t="n"/>
-      <c r="B132" s="56" t="s">
-        <v>116</v>
+      <c r="B132" s="56" t="inlineStr">
+        <is>
+          <t>I- SHORT-TERM LIABILITIES</t>
+        </is>
       </c>
       <c r="C132" s="23" t="n">
         <v>95235.66928999999</v>
       </c>
       <c r="D132" s="23" t="n">
-        <v>174932.95926</v>
+        <v>175075.95257</v>
       </c>
       <c r="E132" s="23" t="n">
         <v>266926.16719</v>
@@ -6501,32 +6578,37 @@
         <v>332906.4926</v>
       </c>
       <c r="G132" s="23" t="n">
-        <v>474096.89433</v>
+        <v>474130.15363</v>
       </c>
       <c r="H132" s="33" t="n">
-        <v>234411.20676</v>
+        <v>234635.68364</v>
       </c>
       <c r="I132" s="23" t="n">
-        <v>227479.14654</v>
+        <v>229738.70895</v>
       </c>
       <c r="J132" s="33" t="n">
-        <v>278126.92347</v>
+        <v>306326.18778</v>
       </c>
       <c r="K132" s="23" t="n">
         <v>372814.78824</v>
       </c>
       <c r="L132" s="23" t="n">
-        <v>572134.5798300001</v>
+        <v>573903.6871400001</v>
       </c>
       <c r="M132" s="23" t="n">
-        <v>654416.50038</v>
-      </c>
-      <c r="N132" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="133" s="70" spans="1:14">
+        <v>663464.88351</v>
+      </c>
+      <c r="N132" s="23" t="n">
+        <v>863074.201</v>
+      </c>
+      <c r="O132" s="10" t="n"/>
+    </row>
+    <row r="133" ht="12.6" customHeight="1" s="70">
       <c r="A133" s="5" t="n"/>
-      <c r="B133" s="60" t="s">
-        <v>117</v>
+      <c r="B133" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   A- Financial Liabilities</t>
+        </is>
       </c>
       <c r="C133" s="23" t="n">
         <v>27620.60902</v>
@@ -6538,7 +6620,7 @@
         <v>55462.60447</v>
       </c>
       <c r="F133" s="33" t="n">
-        <v>51043.31183000001</v>
+        <v>51043.31183</v>
       </c>
       <c r="G133" s="23" t="n">
         <v>65875.27433999999</v>
@@ -6547,32 +6629,37 @@
         <v>50863.08206</v>
       </c>
       <c r="I133" s="23" t="n">
-        <v>36903.28883</v>
+        <v>36918.28229000001</v>
       </c>
       <c r="J133" s="33" t="n">
-        <v>38636.20957</v>
+        <v>39209.87163</v>
       </c>
       <c r="K133" s="23" t="n">
         <v>51886.8708</v>
       </c>
       <c r="L133" s="23" t="n">
-        <v>57283.7302</v>
+        <v>57283.73020000001</v>
       </c>
       <c r="M133" s="23" t="n">
-        <v>63091.92127</v>
-      </c>
-      <c r="N133" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="134" s="70" spans="1:14">
+        <v>63091.92227</v>
+      </c>
+      <c r="N133" s="23" t="n">
+        <v>89245.52</v>
+      </c>
+      <c r="O133" s="10" t="n"/>
+    </row>
+    <row r="134" ht="12.6" customHeight="1" s="70">
       <c r="A134" s="5" t="n"/>
-      <c r="B134" s="64" t="s">
-        <v>118</v>
+      <c r="B134" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Bank Loans</t>
+        </is>
       </c>
       <c r="C134" s="22" t="n">
         <v>27473.38571</v>
       </c>
       <c r="D134" s="22" t="n">
-        <v>34133.33591</v>
+        <v>34133.33590999999</v>
       </c>
       <c r="E134" s="22" t="n">
         <v>54310.94361</v>
@@ -6587,10 +6674,10 @@
         <v>50768.50361</v>
       </c>
       <c r="I134" s="22" t="n">
-        <v>36717.63789</v>
+        <v>36732.63135</v>
       </c>
       <c r="J134" s="21" t="n">
-        <v>38478.87888</v>
+        <v>39052.54094</v>
       </c>
       <c r="K134" s="22" t="n">
         <v>51779.70776</v>
@@ -6599,14 +6686,19 @@
         <v>56272.68652</v>
       </c>
       <c r="M134" s="22" t="n">
-        <v>62339.56647</v>
-      </c>
-      <c r="N134" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="135" s="70" spans="1:14">
+        <v>62339.56747</v>
+      </c>
+      <c r="N134" s="22" t="n">
+        <v>87568.996</v>
+      </c>
+      <c r="O134" s="10" t="n"/>
+    </row>
+    <row r="135" ht="12.6" customHeight="1" s="70">
       <c r="A135" s="5" t="n"/>
-      <c r="B135" s="64" t="s">
-        <v>119</v>
+      <c r="B135" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Financial Leasing Payables</t>
+        </is>
       </c>
       <c r="C135" s="22" t="n">
         <v>30.2699</v>
@@ -6641,12 +6733,17 @@
       <c r="M135" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N135" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="136" s="70" spans="1:14">
+      <c r="N135" s="22" t="n">
+        <v>874.981</v>
+      </c>
+      <c r="O135" s="10" t="n"/>
+    </row>
+    <row r="136" ht="12.6" customHeight="1" s="70">
       <c r="A136" s="5" t="n"/>
-      <c r="B136" s="64" t="s">
-        <v>120</v>
+      <c r="B136" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Deferred Financial Leasing Payable Costs (-)</t>
+        </is>
       </c>
       <c r="C136" s="22" t="n">
         <v>0.5966</v>
@@ -6681,12 +6778,17 @@
       <c r="M136" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N136" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="137" s="70" spans="1:14">
+      <c r="N136" s="22" t="n">
+        <v>63.593</v>
+      </c>
+      <c r="O136" s="10" t="n"/>
+    </row>
+    <row r="137" ht="12.6" customHeight="1" s="70">
       <c r="A137" s="5" t="n"/>
-      <c r="B137" s="59" t="s">
-        <v>121</v>
+      <c r="B137" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Princip.Installm.&amp; Int.Paym.of Long-Term Loans</t>
+        </is>
       </c>
       <c r="C137" s="22" t="n">
         <v>75.82545</v>
@@ -6721,12 +6823,17 @@
       <c r="M137" s="22" t="n">
         <v>500.71068</v>
       </c>
-      <c r="N137" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="138" s="70" spans="1:14">
+      <c r="N137" s="22" t="n">
+        <v>500</v>
+      </c>
+      <c r="O137" s="10" t="n"/>
+    </row>
+    <row r="138" ht="12.6" customHeight="1" s="70">
       <c r="A138" s="5" t="n"/>
-      <c r="B138" s="59" t="s">
-        <v>122</v>
+      <c r="B138" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Principal Installm.&amp; Int.Paym.of  Bonds</t>
+        </is>
       </c>
       <c r="C138" s="22" t="n">
         <v>0</v>
@@ -6761,12 +6868,17 @@
       <c r="M138" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N138" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="139" s="70" spans="1:14">
+      <c r="N138" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O138" s="10" t="n"/>
+    </row>
+    <row r="139" ht="12.6" customHeight="1" s="70">
       <c r="A139" s="5" t="n"/>
-      <c r="B139" s="59" t="s">
-        <v>123</v>
+      <c r="B139" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Commercial Papers Issued</t>
+        </is>
       </c>
       <c r="C139" s="22" t="n">
         <v>0</v>
@@ -6801,12 +6913,17 @@
       <c r="M139" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N139" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="140" s="70" spans="1:14">
+      <c r="N139" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O139" s="10" t="n"/>
+    </row>
+    <row r="140" ht="12.6" customHeight="1" s="70">
       <c r="A140" s="8" t="n"/>
-      <c r="B140" s="59" t="s">
-        <v>124</v>
+      <c r="B140" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Other Securities Issued</t>
+        </is>
       </c>
       <c r="C140" s="22" t="n">
         <v>0</v>
@@ -6841,12 +6958,17 @@
       <c r="M140" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N140" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="141" s="70" spans="1:14">
+      <c r="N140" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O140" s="10" t="n"/>
+    </row>
+    <row r="141" ht="12.6" customHeight="1" s="70">
       <c r="A141" s="5" t="n"/>
-      <c r="B141" s="59" t="s">
-        <v>125</v>
+      <c r="B141" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Adjust.for Secur.Issued under Par Value (-)</t>
+        </is>
       </c>
       <c r="C141" s="22" t="n">
         <v>0</v>
@@ -6881,12 +7003,17 @@
       <c r="M141" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N141" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="142" s="70" spans="1:14">
+      <c r="N141" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O141" s="11" t="n"/>
+    </row>
+    <row r="142" ht="12.6" customHeight="1" s="70">
       <c r="A142" s="8" t="n"/>
-      <c r="B142" s="59" t="s">
-        <v>126</v>
+      <c r="B142" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       9- Other Financial Liabilities</t>
+        </is>
       </c>
       <c r="C142" s="22" t="n">
         <v>41.72456</v>
@@ -6921,18 +7048,23 @@
       <c r="M142" s="22" t="n">
         <v>251.64412</v>
       </c>
-      <c r="N142" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="143" s="70" spans="1:14">
+      <c r="N142" s="22" t="n">
+        <v>365.136</v>
+      </c>
+      <c r="O142" s="10" t="n"/>
+    </row>
+    <row r="143" ht="12.6" customHeight="1" s="70">
       <c r="A143" s="8" t="n"/>
-      <c r="B143" s="60" t="s">
-        <v>127</v>
+      <c r="B143" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   B- Trade Debts</t>
+        </is>
       </c>
       <c r="C143" s="46" t="n">
         <v>43847.31823</v>
       </c>
       <c r="D143" s="46" t="n">
-        <v>106627.73377</v>
+        <v>106628.32241</v>
       </c>
       <c r="E143" s="46" t="n">
         <v>93749.66515</v>
@@ -6944,69 +7076,79 @@
         <v>197323.87096</v>
       </c>
       <c r="H143" s="45" t="n">
-        <v>108598.00436</v>
+        <v>108620.85195</v>
       </c>
       <c r="I143" s="46" t="n">
-        <v>104341.9672</v>
+        <v>105406.39985</v>
       </c>
       <c r="J143" s="45" t="n">
-        <v>112083.396</v>
+        <v>121478.05029</v>
       </c>
       <c r="K143" s="46" t="n">
         <v>155509.01311</v>
       </c>
       <c r="L143" s="46" t="n">
-        <v>185848.97925</v>
+        <v>187268.44086</v>
       </c>
       <c r="M143" s="46" t="n">
-        <v>261420.32004</v>
-      </c>
-      <c r="N143" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="144" s="70" spans="1:14">
+        <v>268779.7305</v>
+      </c>
+      <c r="N143" s="46" t="n">
+        <v>355306.914</v>
+      </c>
+      <c r="O143" s="10" t="n"/>
+    </row>
+    <row r="144" ht="12.6" customHeight="1" s="70">
       <c r="A144" s="8" t="n"/>
-      <c r="B144" s="64" t="s">
-        <v>128</v>
+      <c r="B144" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Creditors</t>
+        </is>
       </c>
       <c r="C144" s="25" t="n">
         <v>32989.88064</v>
       </c>
       <c r="D144" s="25" t="n">
-        <v>83738.03009</v>
+        <v>83738.61873</v>
       </c>
       <c r="E144" s="25" t="n">
         <v>64963.04601999999</v>
       </c>
       <c r="F144" s="24" t="n">
-        <v>96497.71486000001</v>
+        <v>96497.71485999999</v>
       </c>
       <c r="G144" s="25" t="n">
         <v>148284.58362</v>
       </c>
       <c r="H144" s="24" t="n">
-        <v>80420.89481</v>
+        <v>80442.14132000001</v>
       </c>
       <c r="I144" s="25" t="n">
-        <v>76378.94814000001</v>
+        <v>77443.38079</v>
       </c>
       <c r="J144" s="24" t="n">
-        <v>87916.19665000001</v>
+        <v>88017.17091000002</v>
       </c>
       <c r="K144" s="25" t="n">
         <v>118065.17326</v>
       </c>
       <c r="L144" s="25" t="n">
-        <v>157690.11568</v>
+        <v>159109.57729</v>
       </c>
       <c r="M144" s="25" t="n">
-        <v>222024.8289</v>
-      </c>
-      <c r="N144" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="145" s="70" spans="1:14">
+        <v>225614.09384</v>
+      </c>
+      <c r="N144" s="25" t="n">
+        <v>308778.917</v>
+      </c>
+      <c r="O144" s="10" t="n"/>
+    </row>
+    <row r="145" ht="12.6" customHeight="1" s="70">
       <c r="A145" s="5" t="n"/>
-      <c r="B145" s="64" t="s">
-        <v>129</v>
+      <c r="B145" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Notes Payable</t>
+        </is>
       </c>
       <c r="C145" s="25" t="n">
         <v>9497.993699999999</v>
@@ -7030,7 +7172,7 @@
         <v>25013.48862</v>
       </c>
       <c r="J145" s="24" t="n">
-        <v>23068.4129</v>
+        <v>30670.46227</v>
       </c>
       <c r="K145" s="25" t="n">
         <v>35379.27472</v>
@@ -7041,12 +7183,17 @@
       <c r="M145" s="25" t="n">
         <v>33029.89624</v>
       </c>
-      <c r="N145" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="146" s="70" spans="1:14">
+      <c r="N145" s="25" t="n">
+        <v>34423.54</v>
+      </c>
+      <c r="O145" s="10" t="n"/>
+    </row>
+    <row r="146" ht="12.6" customHeight="1" s="70">
       <c r="A146" s="5" t="n"/>
-      <c r="B146" s="64" t="s">
-        <v>130</v>
+      <c r="B146" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Discount on Notes Payable (-)</t>
+        </is>
       </c>
       <c r="C146" s="25" t="n">
         <v>0</v>
@@ -7081,12 +7228,17 @@
       <c r="M146" s="25" t="n">
         <v>68.64567</v>
       </c>
-      <c r="N146" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="147" s="70" spans="1:14">
+      <c r="N146" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O146" s="10" t="n"/>
+    </row>
+    <row r="147" ht="12.6" customHeight="1" s="70">
       <c r="A147" s="5" t="n"/>
-      <c r="B147" s="64" t="s">
-        <v>131</v>
+      <c r="B147" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Deposits and Guaranties Received</t>
+        </is>
       </c>
       <c r="C147" s="25" t="n">
         <v>9.176</v>
@@ -7104,7 +7256,7 @@
         <v>15.46971</v>
       </c>
       <c r="H147" s="24" t="n">
-        <v>13.44371</v>
+        <v>15.04479</v>
       </c>
       <c r="I147" s="25" t="n">
         <v>15.04479</v>
@@ -7121,12 +7273,17 @@
       <c r="M147" s="25" t="n">
         <v>61.42371</v>
       </c>
-      <c r="N147" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="148" s="70" spans="1:14">
+      <c r="N147" s="25" t="n">
+        <v>121.424</v>
+      </c>
+      <c r="O147" s="11" t="n"/>
+    </row>
+    <row r="148" ht="12.6" customHeight="1" s="70">
       <c r="A148" s="8" t="n"/>
-      <c r="B148" s="59" t="s">
-        <v>132</v>
+      <c r="B148" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other Trade Debts</t>
+        </is>
       </c>
       <c r="C148" s="25" t="n">
         <v>1350.26789</v>
@@ -7135,7 +7292,7 @@
         <v>1213.47833</v>
       </c>
       <c r="E148" s="25" t="n">
-        <v>660.9224600000001</v>
+        <v>660.92246</v>
       </c>
       <c r="F148" s="24" t="n">
         <v>1232.50553</v>
@@ -7150,7 +7307,7 @@
         <v>2934.48565</v>
       </c>
       <c r="J148" s="24" t="n">
-        <v>1083.74166</v>
+        <v>2775.37232</v>
       </c>
       <c r="K148" s="25" t="n">
         <v>2019.12142</v>
@@ -7159,20 +7316,25 @@
         <v>7276.92704</v>
       </c>
       <c r="M148" s="25" t="n">
-        <v>6372.81686</v>
-      </c>
-      <c r="N148" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="149" s="70" spans="1:14">
+        <v>10142.96238</v>
+      </c>
+      <c r="N148" s="25" t="n">
+        <v>11983.033</v>
+      </c>
+      <c r="O148" s="10" t="n"/>
+    </row>
+    <row r="149" ht="12.6" customHeight="1" s="70">
       <c r="A149" s="8" t="n"/>
-      <c r="B149" s="57" t="s">
-        <v>133</v>
+      <c r="B149" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   C- Other Short-Term Debts</t>
+        </is>
       </c>
       <c r="C149" s="23" t="n">
         <v>11572.16977</v>
       </c>
       <c r="D149" s="23" t="n">
-        <v>17918.3272</v>
+        <v>17920.4422</v>
       </c>
       <c r="E149" s="23" t="n">
         <v>88504.10001000001</v>
@@ -7181,32 +7343,37 @@
         <v>112509.99056</v>
       </c>
       <c r="G149" s="23" t="n">
-        <v>183692.43452</v>
+        <v>183725.59178</v>
       </c>
       <c r="H149" s="33" t="n">
-        <v>28157.1803</v>
+        <v>28273.6883</v>
       </c>
       <c r="I149" s="23" t="n">
-        <v>37320.92398</v>
+        <v>37946.00271</v>
       </c>
       <c r="J149" s="33" t="n">
-        <v>69651.86400999999</v>
+        <v>71368.603</v>
       </c>
       <c r="K149" s="23" t="n">
         <v>81863.98414</v>
       </c>
       <c r="L149" s="23" t="n">
-        <v>136342.61479</v>
+        <v>136686.61727</v>
       </c>
       <c r="M149" s="23" t="n">
-        <v>154745.30752</v>
-      </c>
-      <c r="N149" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="150" s="70" spans="1:14">
+        <v>155368.11471</v>
+      </c>
+      <c r="N149" s="23" t="n">
+        <v>233635.862</v>
+      </c>
+      <c r="O149" s="10" t="n"/>
+    </row>
+    <row r="150" ht="12.6" customHeight="1" s="70">
       <c r="A150" s="5" t="n"/>
-      <c r="B150" s="59" t="s">
-        <v>134</v>
+      <c r="B150" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Amounts Owed to Shareholders</t>
+        </is>
       </c>
       <c r="C150" s="22" t="n">
         <v>8571.09844</v>
@@ -7221,32 +7388,37 @@
         <v>24854.80777</v>
       </c>
       <c r="G150" s="22" t="n">
-        <v>23980.21861</v>
+        <v>24013.37587</v>
       </c>
       <c r="H150" s="21" t="n">
-        <v>21810.54675</v>
+        <v>21850.72673</v>
       </c>
       <c r="I150" s="22" t="n">
-        <v>27944.57684</v>
+        <v>28448.92101</v>
       </c>
       <c r="J150" s="21" t="n">
-        <v>44889.05776</v>
+        <v>46379.98223</v>
       </c>
       <c r="K150" s="22" t="n">
         <v>63020.98138</v>
       </c>
       <c r="L150" s="22" t="n">
-        <v>111152.50438</v>
+        <v>111496.50686</v>
       </c>
       <c r="M150" s="22" t="n">
-        <v>119668.63502</v>
-      </c>
-      <c r="N150" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="151" s="70" spans="1:14">
+        <v>120136.2683</v>
+      </c>
+      <c r="N150" s="22" t="n">
+        <v>173506.055</v>
+      </c>
+      <c r="O150" s="10" t="n"/>
+    </row>
+    <row r="151" ht="12.6" customHeight="1" s="70">
       <c r="A151" s="5" t="n"/>
-      <c r="B151" s="59" t="s">
-        <v>135</v>
+      <c r="B151" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Amounts Owed to Participations</t>
+        </is>
       </c>
       <c r="C151" s="22" t="n">
         <v>528.92395</v>
@@ -7281,12 +7453,17 @@
       <c r="M151" s="22" t="n">
         <v>1.89727</v>
       </c>
-      <c r="N151" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="152" s="70" spans="1:14">
+      <c r="N151" s="22" t="n">
+        <v>29.426</v>
+      </c>
+      <c r="O151" s="10" t="n"/>
+    </row>
+    <row r="152" ht="12.6" customHeight="1" s="70">
       <c r="A152" s="5" t="n"/>
-      <c r="B152" s="59" t="s">
-        <v>136</v>
+      <c r="B152" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Amounts Owed to Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C152" s="22" t="n">
         <v>0</v>
@@ -7321,12 +7498,17 @@
       <c r="M152" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N152" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="153" s="70" spans="1:14">
+      <c r="N152" s="22" t="n">
+        <v>4.662</v>
+      </c>
+      <c r="O152" s="10" t="n"/>
+    </row>
+    <row r="153" ht="12.6" customHeight="1" s="70">
       <c r="A153" s="5" t="n"/>
-      <c r="B153" s="59" t="s">
-        <v>137</v>
+      <c r="B153" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Amounts Owed to Employees</t>
+        </is>
       </c>
       <c r="C153" s="22" t="n">
         <v>972.1852700000001</v>
@@ -7347,10 +7529,10 @@
         <v>1644.23596</v>
       </c>
       <c r="I153" s="22" t="n">
-        <v>1613.2151</v>
+        <v>1636.3499</v>
       </c>
       <c r="J153" s="21" t="n">
-        <v>2082.87434</v>
+        <v>2307.50886</v>
       </c>
       <c r="K153" s="22" t="n">
         <v>3590.52686</v>
@@ -7359,20 +7541,25 @@
         <v>3499.01768</v>
       </c>
       <c r="M153" s="22" t="n">
-        <v>4569.7878</v>
-      </c>
-      <c r="N153" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="154" s="70" spans="1:14">
+        <v>4704.667560000001</v>
+      </c>
+      <c r="N153" s="22" t="n">
+        <v>7821.813</v>
+      </c>
+      <c r="O153" s="10" t="n"/>
+    </row>
+    <row r="154" ht="12.6" customHeight="1" s="70">
       <c r="A154" s="5" t="n"/>
-      <c r="B154" s="59" t="s">
-        <v>30</v>
+      <c r="B154" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other </t>
+        </is>
       </c>
       <c r="C154" s="22" t="n">
         <v>1499.96211</v>
       </c>
       <c r="D154" s="22" t="n">
-        <v>928.4122199999999</v>
+        <v>930.5272199999999</v>
       </c>
       <c r="E154" s="22" t="n">
         <v>64103.64707</v>
@@ -7384,13 +7571,13 @@
         <v>157483.21704</v>
       </c>
       <c r="H154" s="21" t="n">
-        <v>4683.89759</v>
+        <v>4760.22561</v>
       </c>
       <c r="I154" s="22" t="n">
-        <v>7664.11335</v>
+        <v>7761.713110000001</v>
       </c>
       <c r="J154" s="21" t="n">
-        <v>22660.74191</v>
+        <v>22661.92191</v>
       </c>
       <c r="K154" s="22" t="n">
         <v>15177.59075</v>
@@ -7399,14 +7586,19 @@
         <v>21688.8782</v>
       </c>
       <c r="M154" s="22" t="n">
-        <v>30504.98743</v>
-      </c>
-      <c r="N154" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="155" s="70" spans="1:14">
+        <v>30525.28158</v>
+      </c>
+      <c r="N154" s="22" t="n">
+        <v>52273.906</v>
+      </c>
+      <c r="O154" s="11" t="n"/>
+    </row>
+    <row r="155" ht="12.6" customHeight="1" s="70">
       <c r="A155" s="8" t="n"/>
-      <c r="B155" s="64" t="s">
-        <v>138</v>
+      <c r="B155" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Disc.on Oth.Short-Term Notes Payable (-)</t>
+        </is>
       </c>
       <c r="C155" s="22" t="n">
         <v>0</v>
@@ -7441,15 +7633,20 @@
       <c r="M155" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N155" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="156" s="70" spans="1:14">
+      <c r="N155" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O155" s="10" t="n"/>
+    </row>
+    <row r="156" ht="12.6" customHeight="1" s="70">
       <c r="A156" s="5" t="n"/>
-      <c r="B156" s="60" t="s">
-        <v>139</v>
+      <c r="B156" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   D- Advances Received</t>
+        </is>
       </c>
       <c r="C156" s="23" t="n">
-        <v>7650.81047</v>
+        <v>7650.810469999999</v>
       </c>
       <c r="D156" s="23" t="n">
         <v>9761.346599999999</v>
@@ -7464,13 +7661,13 @@
         <v>19144.35757</v>
       </c>
       <c r="H156" s="33" t="n">
-        <v>38723.95291</v>
+        <v>38736.90291</v>
       </c>
       <c r="I156" s="23" t="n">
-        <v>40394.95483</v>
+        <v>40414.06565999999</v>
       </c>
       <c r="J156" s="33" t="n">
-        <v>46093.70088</v>
+        <v>62293.38399</v>
       </c>
       <c r="K156" s="23" t="n">
         <v>63302.36508</v>
@@ -7479,14 +7676,19 @@
         <v>172030.45683</v>
       </c>
       <c r="M156" s="23" t="n">
-        <v>151222.59971</v>
-      </c>
-      <c r="N156" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="157" s="70" spans="1:14">
+        <v>151715.73805</v>
+      </c>
+      <c r="N156" s="23" t="n">
+        <v>155963.397</v>
+      </c>
+      <c r="O156" s="10" t="n"/>
+    </row>
+    <row r="157" ht="12.6" customHeight="1" s="70">
       <c r="A157" s="5" t="n"/>
-      <c r="B157" s="59" t="s">
-        <v>140</v>
+      <c r="B157" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Advances Received on Purchase Orders</t>
+        </is>
       </c>
       <c r="C157" s="22" t="n">
         <v>7479.206450000001</v>
@@ -7507,10 +7709,10 @@
         <v>37637.8635</v>
       </c>
       <c r="I157" s="22" t="n">
-        <v>39886.84992</v>
+        <v>39905.96075</v>
       </c>
       <c r="J157" s="21" t="n">
-        <v>45330.69414</v>
+        <v>61530.37725</v>
       </c>
       <c r="K157" s="22" t="n">
         <v>61218.366</v>
@@ -7519,14 +7721,19 @@
         <v>168753.37889</v>
       </c>
       <c r="M157" s="22" t="n">
-        <v>145883.40032</v>
-      </c>
-      <c r="N157" s="6" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="158" s="70" spans="1:14">
+        <v>146287.97174</v>
+      </c>
+      <c r="N157" s="22" t="n">
+        <v>148137.885</v>
+      </c>
+      <c r="O157" s="6" t="n"/>
+    </row>
+    <row r="158" ht="12.6" customHeight="1" s="70">
       <c r="A158" s="15" t="n"/>
-      <c r="B158" s="64" t="s">
-        <v>141</v>
+      <c r="B158" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Other Advances Received</t>
+        </is>
       </c>
       <c r="C158" s="22" t="n">
         <v>171.60402</v>
@@ -7538,13 +7745,13 @@
         <v>210.86754</v>
       </c>
       <c r="F158" s="21" t="n">
-        <v>798.04619</v>
+        <v>798.0461899999999</v>
       </c>
       <c r="G158" s="22" t="n">
         <v>1407.80923</v>
       </c>
       <c r="H158" s="21" t="n">
-        <v>1086.08941</v>
+        <v>1099.03941</v>
       </c>
       <c r="I158" s="22" t="n">
         <v>508.10491</v>
@@ -7559,14 +7766,19 @@
         <v>3277.077940000001</v>
       </c>
       <c r="M158" s="22" t="n">
-        <v>5339.199390000001</v>
-      </c>
-      <c r="N158" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="159" s="70" spans="1:14">
+        <v>5427.766310000001</v>
+      </c>
+      <c r="N158" s="22" t="n">
+        <v>7825.512</v>
+      </c>
+      <c r="O158" s="11" t="n"/>
+    </row>
+    <row r="159" ht="12.6" customHeight="1" s="70">
       <c r="A159" s="8" t="n"/>
-      <c r="B159" s="60" t="s">
-        <v>142</v>
+      <c r="B159" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   E- Remunerations Spread Over Years</t>
+        </is>
       </c>
       <c r="C159" s="23" t="n">
         <v>0</v>
@@ -7601,12 +7813,17 @@
       <c r="M159" s="23" t="n">
         <v>659.9223099999999</v>
       </c>
-      <c r="N159" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="160" s="70" spans="1:14">
+      <c r="N159" s="23" t="n">
+        <v>659.923</v>
+      </c>
+      <c r="O159" s="10" t="n"/>
+    </row>
+    <row r="160" ht="12.6" customHeight="1" s="70">
       <c r="A160" s="8" t="n"/>
-      <c r="B160" s="64" t="s">
-        <v>143</v>
+      <c r="B160" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Advances to Constr.&amp;Restor.Costs Spr. Over Yrs.</t>
+        </is>
       </c>
       <c r="C160" s="22" t="n">
         <v>0</v>
@@ -7641,12 +7858,17 @@
       <c r="M160" s="22" t="n">
         <v>659.9223099999999</v>
       </c>
-      <c r="N160" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="161" s="70" spans="1:14">
+      <c r="N160" s="22" t="n">
+        <v>659.923</v>
+      </c>
+      <c r="O160" s="10" t="n"/>
+    </row>
+    <row r="161" ht="12.6" customHeight="1" s="70">
       <c r="A161" s="8" t="n"/>
-      <c r="B161" s="64" t="s">
-        <v>144</v>
+      <c r="B161" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Constr.Costs Reval.Adjust.to Inflation Spr.Over Yrs.</t>
+        </is>
       </c>
       <c r="C161" s="22" t="n">
         <v>0</v>
@@ -7681,18 +7903,23 @@
       <c r="M161" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N161" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="162" s="70" spans="1:14">
+      <c r="N161" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O161" s="10" t="n"/>
+    </row>
+    <row r="162" ht="12.6" customHeight="1" s="70">
       <c r="A162" s="5" t="n"/>
-      <c r="B162" s="60" t="s">
-        <v>145</v>
+      <c r="B162" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   F- Taxes and Other Liabilities Payable</t>
+        </is>
       </c>
       <c r="C162" s="23" t="n">
         <v>3589.58214</v>
       </c>
       <c r="D162" s="23" t="n">
-        <v>4429.95529</v>
+        <v>4530.33918</v>
       </c>
       <c r="E162" s="23" t="n">
         <v>7590.03058</v>
@@ -7701,38 +7928,43 @@
         <v>7054.23962</v>
       </c>
       <c r="G162" s="23" t="n">
-        <v>6881.9998</v>
+        <v>6882.10184</v>
       </c>
       <c r="H162" s="33" t="n">
-        <v>7139.064219999999</v>
+        <v>7211.23551</v>
       </c>
       <c r="I162" s="23" t="n">
-        <v>7383.129079999999</v>
+        <v>7812.103119999999</v>
       </c>
       <c r="J162" s="33" t="n">
-        <v>10385.47414</v>
+        <v>10596.93616</v>
       </c>
       <c r="K162" s="23" t="n">
         <v>17591.5905</v>
       </c>
       <c r="L162" s="23" t="n">
-        <v>18234.17859</v>
+        <v>18239.82181</v>
       </c>
       <c r="M162" s="23" t="n">
-        <v>19780.60473</v>
-      </c>
-      <c r="N162" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="163" s="70" spans="1:14">
+        <v>20255.48763</v>
+      </c>
+      <c r="N162" s="23" t="n">
+        <v>23019.315</v>
+      </c>
+      <c r="O162" s="10" t="n"/>
+    </row>
+    <row r="163" ht="12.6" customHeight="1" s="70">
       <c r="A163" s="5" t="n"/>
-      <c r="B163" s="59" t="s">
-        <v>146</v>
+      <c r="B163" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Taxes and Funds Payable </t>
+        </is>
       </c>
       <c r="C163" s="22" t="n">
         <v>1792.1123</v>
       </c>
       <c r="D163" s="22" t="n">
-        <v>2320.6508</v>
+        <v>2334.49852</v>
       </c>
       <c r="E163" s="22" t="n">
         <v>3601.73292</v>
@@ -7741,38 +7973,43 @@
         <v>2933.82505</v>
       </c>
       <c r="G163" s="22" t="n">
-        <v>2997.7592</v>
+        <v>2997.86124</v>
       </c>
       <c r="H163" s="21" t="n">
-        <v>2886.17696</v>
+        <v>2916.23165</v>
       </c>
       <c r="I163" s="22" t="n">
-        <v>3088.89731</v>
+        <v>3176.90217</v>
       </c>
       <c r="J163" s="21" t="n">
-        <v>4216.506020000001</v>
+        <v>4265.7909</v>
       </c>
       <c r="K163" s="22" t="n">
         <v>4151.30891</v>
       </c>
       <c r="L163" s="22" t="n">
-        <v>6388.85657</v>
+        <v>6392.849789999999</v>
       </c>
       <c r="M163" s="22" t="n">
-        <v>9159.912700000001</v>
-      </c>
-      <c r="N163" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="164" s="70" spans="1:14">
+        <v>9294.172559999999</v>
+      </c>
+      <c r="N163" s="22" t="n">
+        <v>9516.678</v>
+      </c>
+      <c r="O163" s="10" t="n"/>
+    </row>
+    <row r="164" ht="12.6" customHeight="1" s="70">
       <c r="A164" s="8" t="n"/>
-      <c r="B164" s="64" t="s">
-        <v>147</v>
+      <c r="B164" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Social Security Costs Payable</t>
+        </is>
       </c>
       <c r="C164" s="22" t="n">
         <v>1068.62007</v>
       </c>
       <c r="D164" s="22" t="n">
-        <v>1083.44661</v>
+        <v>1084.58695</v>
       </c>
       <c r="E164" s="22" t="n">
         <v>1389.28116</v>
@@ -7784,35 +8021,40 @@
         <v>1507.02665</v>
       </c>
       <c r="H164" s="21" t="n">
-        <v>1907.14344</v>
+        <v>1949.26004</v>
       </c>
       <c r="I164" s="22" t="n">
-        <v>2613.48549</v>
+        <v>2615.45943</v>
       </c>
       <c r="J164" s="21" t="n">
-        <v>3245.42463</v>
+        <v>3407.60177</v>
       </c>
       <c r="K164" s="22" t="n">
-        <v>3855.4246</v>
+        <v>3855.424600000001</v>
       </c>
       <c r="L164" s="22" t="n">
-        <v>4706.23151</v>
+        <v>4707.88151</v>
       </c>
       <c r="M164" s="22" t="n">
-        <v>5994.57926</v>
-      </c>
-      <c r="N164" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="165" s="70" spans="1:14">
+        <v>6308.10747</v>
+      </c>
+      <c r="N164" s="22" t="n">
+        <v>7456.62</v>
+      </c>
+      <c r="O164" s="10" t="n"/>
+    </row>
+    <row r="165" ht="12.6" customHeight="1" s="70">
       <c r="A165" s="8" t="n"/>
-      <c r="B165" s="59" t="s">
-        <v>148</v>
+      <c r="B165" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Taxes &amp; Oth.Liab.that are Overd.or Deferred</t>
+        </is>
       </c>
       <c r="C165" s="22" t="n">
-        <v>710.48085</v>
+        <v>710.4808500000001</v>
       </c>
       <c r="D165" s="22" t="n">
-        <v>1006.81736</v>
+        <v>1092.21319</v>
       </c>
       <c r="E165" s="22" t="n">
         <v>2582.80427</v>
@@ -7827,7 +8069,7 @@
         <v>2342.79625</v>
       </c>
       <c r="I165" s="22" t="n">
-        <v>1653.58694</v>
+        <v>1992.58218</v>
       </c>
       <c r="J165" s="21" t="n">
         <v>2912.517</v>
@@ -7839,14 +8081,19 @@
         <v>4785.34476</v>
       </c>
       <c r="M165" s="22" t="n">
-        <v>4536.91531</v>
-      </c>
-      <c r="N165" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="166" s="70" spans="1:14">
+        <v>4564.010139999999</v>
+      </c>
+      <c r="N165" s="22" t="n">
+        <v>5939.934</v>
+      </c>
+      <c r="O165" s="10" t="n"/>
+    </row>
+    <row r="166" ht="12.6" customHeight="1" s="70">
       <c r="A166" s="8" t="n"/>
-      <c r="B166" s="59" t="s">
-        <v>149</v>
+      <c r="B166" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Other Liabilities Payable</t>
+        </is>
       </c>
       <c r="C166" s="22" t="n">
         <v>18.36892</v>
@@ -7873,26 +8120,31 @@
         <v>11.02649</v>
       </c>
       <c r="K166" s="22" t="n">
-        <v>5596.894319999999</v>
+        <v>5596.89432</v>
       </c>
       <c r="L166" s="22" t="n">
         <v>2353.74575</v>
       </c>
       <c r="M166" s="22" t="n">
-        <v>89.19745999999999</v>
-      </c>
-      <c r="N166" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="167" s="70" spans="1:14">
+        <v>89.19746000000001</v>
+      </c>
+      <c r="N166" s="22" t="n">
+        <v>106.083</v>
+      </c>
+      <c r="O166" s="10" t="n"/>
+    </row>
+    <row r="167" ht="12.6" customHeight="1" s="70">
       <c r="A167" s="8" t="n"/>
-      <c r="B167" s="60" t="s">
-        <v>150</v>
+      <c r="B167" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   G- Provisions for Liabilities and Charges</t>
+        </is>
       </c>
       <c r="C167" s="23" t="n">
-        <v>730.4059899999999</v>
+        <v>730.40599</v>
       </c>
       <c r="D167" s="23" t="n">
-        <v>1369.64956</v>
+        <v>1409.55534</v>
       </c>
       <c r="E167" s="23" t="n">
         <v>2341.79293</v>
@@ -7901,16 +8153,16 @@
         <v>1042.9019</v>
       </c>
       <c r="G167" s="23" t="n">
-        <v>943.8829199999999</v>
+        <v>943.88292</v>
       </c>
       <c r="H167" s="33" t="n">
-        <v>673.52631</v>
+        <v>673.5263100000001</v>
       </c>
       <c r="I167" s="23" t="n">
-        <v>849.1211999999999</v>
+        <v>953.2059</v>
       </c>
       <c r="J167" s="33" t="n">
-        <v>899.4868900000001</v>
+        <v>899.4868899999999</v>
       </c>
       <c r="K167" s="23" t="n">
         <v>1072.54316</v>
@@ -7919,20 +8171,25 @@
         <v>1393.78207</v>
       </c>
       <c r="M167" s="23" t="n">
-        <v>2416.3631</v>
-      </c>
-      <c r="N167" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="168" s="70" spans="1:14">
+        <v>2497.39437</v>
+      </c>
+      <c r="N167" s="23" t="n">
+        <v>4819.383</v>
+      </c>
+      <c r="O167" s="11" t="n"/>
+    </row>
+    <row r="168" ht="12.6" customHeight="1" s="70">
       <c r="A168" s="8" t="n"/>
-      <c r="B168" s="59" t="s">
-        <v>151</v>
+      <c r="B168" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Provisions for Inc.Tax &amp; Oth.Liab.to Gov.</t>
+        </is>
       </c>
       <c r="C168" s="22" t="n">
         <v>873.50499</v>
       </c>
       <c r="D168" s="22" t="n">
-        <v>1701.06234</v>
+        <v>1740.96812</v>
       </c>
       <c r="E168" s="22" t="n">
         <v>2601.74752</v>
@@ -7944,10 +8201,10 @@
         <v>1861.95688</v>
       </c>
       <c r="H168" s="21" t="n">
-        <v>898.66148</v>
+        <v>898.6614800000001</v>
       </c>
       <c r="I168" s="22" t="n">
-        <v>1562.40418</v>
+        <v>1666.48888</v>
       </c>
       <c r="J168" s="21" t="n">
         <v>1305.10349</v>
@@ -7959,14 +8216,19 @@
         <v>2498.00229</v>
       </c>
       <c r="M168" s="22" t="n">
-        <v>3479.43343</v>
-      </c>
-      <c r="N168" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="169" s="70" spans="1:14">
+        <v>3564.45986</v>
+      </c>
+      <c r="N168" s="22" t="n">
+        <v>6358.29</v>
+      </c>
+      <c r="O168" s="10" t="n"/>
+    </row>
+    <row r="169" ht="12.6" customHeight="1" s="70">
       <c r="A169" s="5" t="n"/>
-      <c r="B169" s="59" t="s">
-        <v>152</v>
+      <c r="B169" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Prepaid Inc.Tax &amp; Other Liab.to Gov.(-) </t>
+        </is>
       </c>
       <c r="C169" s="22" t="n">
         <v>152.49489</v>
@@ -7975,16 +8237,16 @@
         <v>386.2789</v>
       </c>
       <c r="E169" s="22" t="n">
-        <v>310.5874800000001</v>
+        <v>310.58748</v>
       </c>
       <c r="F169" s="21" t="n">
         <v>1665.6586</v>
       </c>
       <c r="G169" s="22" t="n">
-        <v>985.6661600000001</v>
+        <v>985.6661599999999</v>
       </c>
       <c r="H169" s="21" t="n">
-        <v>286.56259</v>
+        <v>286.5625899999999</v>
       </c>
       <c r="I169" s="22" t="n">
         <v>740.48262</v>
@@ -7999,14 +8261,19 @@
         <v>1104.22022</v>
       </c>
       <c r="M169" s="22" t="n">
-        <v>1080.15733</v>
-      </c>
-      <c r="N169" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="170" s="70" spans="1:14">
+        <v>1084.15249</v>
+      </c>
+      <c r="N169" s="22" t="n">
+        <v>1563.194</v>
+      </c>
+      <c r="O169" s="10" t="n"/>
+    </row>
+    <row r="170" ht="12.6" customHeight="1" s="70">
       <c r="A170" s="5" t="n"/>
-      <c r="B170" s="59" t="s">
-        <v>153</v>
+      <c r="B170" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Provisions for Severance Payments </t>
+        </is>
       </c>
       <c r="C170" s="22" t="n">
         <v>0.8927200000000001</v>
@@ -8041,12 +8308,17 @@
       <c r="M170" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N170" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="171" s="70" spans="1:14">
+      <c r="N170" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O170" s="10" t="n"/>
+    </row>
+    <row r="171" ht="12.6" customHeight="1" s="70">
       <c r="A171" s="5" t="n"/>
-      <c r="B171" s="59" t="s">
-        <v>154</v>
+      <c r="B171" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Provisions for Costs</t>
+        </is>
       </c>
       <c r="C171" s="22" t="n">
         <v>0</v>
@@ -8081,12 +8353,17 @@
       <c r="M171" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N171" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="172" s="70" spans="1:14">
+      <c r="N171" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O171" s="10" t="n"/>
+    </row>
+    <row r="172" ht="12.6" customHeight="1" s="70">
       <c r="A172" s="5" t="n"/>
-      <c r="B172" s="59" t="s">
-        <v>155</v>
+      <c r="B172" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other Provisions for Liabilities and Charges</t>
+        </is>
       </c>
       <c r="C172" s="22" t="n">
         <v>8.503170000000001</v>
@@ -8121,12 +8398,17 @@
       <c r="M172" s="22" t="n">
         <v>17.087</v>
       </c>
-      <c r="N172" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="173" s="70" spans="1:14">
+      <c r="N172" s="22" t="n">
+        <v>24.287</v>
+      </c>
+      <c r="O172" s="10" t="n"/>
+    </row>
+    <row r="173" ht="12.6" customHeight="1" s="70">
       <c r="A173" s="8" t="n"/>
-      <c r="B173" s="57" t="s">
-        <v>156</v>
+      <c r="B173" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   H- Defer.Inc.&amp; Accr.Exp.for the Next Months</t>
+        </is>
       </c>
       <c r="C173" s="23" t="n">
         <v>122.39676</v>
@@ -8135,7 +8417,7 @@
         <v>453.1762</v>
       </c>
       <c r="E173" s="23" t="n">
-        <v>691.7050300000001</v>
+        <v>691.70503</v>
       </c>
       <c r="F173" s="33" t="n">
         <v>244.65929</v>
@@ -8147,7 +8429,7 @@
         <v>113.49071</v>
       </c>
       <c r="I173" s="23" t="n">
-        <v>37.55777</v>
+        <v>40.44577</v>
       </c>
       <c r="J173" s="33" t="n">
         <v>208.5689</v>
@@ -8159,14 +8441,19 @@
         <v>292.23602</v>
       </c>
       <c r="M173" s="23" t="n">
-        <v>998.5704000000002</v>
-      </c>
-      <c r="N173" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="174" s="70" spans="1:14">
+        <v>998.5704000000001</v>
+      </c>
+      <c r="N173" s="23" t="n">
+        <v>318.18</v>
+      </c>
+      <c r="O173" s="11" t="n"/>
+    </row>
+    <row r="174" ht="12.6" customHeight="1" s="70">
       <c r="A174" s="8" t="n"/>
-      <c r="B174" s="59" t="s">
-        <v>157</v>
+      <c r="B174" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Deferred Income for the Next Months</t>
+        </is>
       </c>
       <c r="C174" s="22" t="n">
         <v>5.93</v>
@@ -8201,12 +8488,17 @@
       <c r="M174" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N174" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="175" s="70" spans="1:14">
+      <c r="N174" s="22" t="n">
+        <v>49.78</v>
+      </c>
+      <c r="O174" s="10" t="n"/>
+    </row>
+    <row r="175" ht="12.6" customHeight="1" s="70">
       <c r="A175" s="5" t="n"/>
-      <c r="B175" s="64" t="s">
-        <v>158</v>
+      <c r="B175" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Accrued Expenses</t>
+        </is>
       </c>
       <c r="C175" s="22" t="n">
         <v>116.46676</v>
@@ -8215,7 +8507,7 @@
         <v>409.59315</v>
       </c>
       <c r="E175" s="22" t="n">
-        <v>685.77503</v>
+        <v>685.7750299999999</v>
       </c>
       <c r="F175" s="21" t="n">
         <v>244.65929</v>
@@ -8227,7 +8519,7 @@
         <v>113.49071</v>
       </c>
       <c r="I175" s="22" t="n">
-        <v>37.55777</v>
+        <v>40.44577</v>
       </c>
       <c r="J175" s="21" t="n">
         <v>208.5689</v>
@@ -8239,14 +8531,19 @@
         <v>292.23602</v>
       </c>
       <c r="M175" s="22" t="n">
-        <v>998.5704000000002</v>
-      </c>
-      <c r="N175" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="176" s="70" spans="1:14">
+        <v>998.5704000000001</v>
+      </c>
+      <c r="N175" s="22" t="n">
+        <v>268.4</v>
+      </c>
+      <c r="O175" s="10" t="n"/>
+    </row>
+    <row r="176" ht="12.6" customHeight="1" s="70">
       <c r="A176" s="5" t="n"/>
-      <c r="B176" s="57" t="s">
-        <v>159</v>
+      <c r="B176" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   I- Other Short-Term Liabilities</t>
+        </is>
       </c>
       <c r="C176" s="23" t="n">
         <v>102.37691</v>
@@ -8270,7 +8567,7 @@
         <v>248.20365</v>
       </c>
       <c r="J176" s="33" t="n">
-        <v>66.77759</v>
+        <v>169.84143</v>
       </c>
       <c r="K176" s="23" t="n">
         <v>730.51935</v>
@@ -8279,14 +8576,19 @@
         <v>101.48135</v>
       </c>
       <c r="M176" s="23" t="n">
-        <v>80.8913</v>
-      </c>
-      <c r="N176" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="177" s="70" spans="1:14">
+        <v>98.00327</v>
+      </c>
+      <c r="N176" s="23" t="n">
+        <v>105.707</v>
+      </c>
+      <c r="O176" s="11" t="n"/>
+    </row>
+    <row r="177" ht="12.6" customHeight="1" s="70">
       <c r="A177" s="8" t="n"/>
-      <c r="B177" s="59" t="s">
-        <v>160</v>
+      <c r="B177" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- V.A.T. Calculated</t>
+        </is>
       </c>
       <c r="C177" s="22" t="n">
         <v>57.37691</v>
@@ -8310,10 +8612,10 @@
         <v>131.06791</v>
       </c>
       <c r="J177" s="21" t="n">
-        <v>31.9987</v>
+        <v>135.06254</v>
       </c>
       <c r="K177" s="22" t="n">
-        <v>719.1645600000001</v>
+        <v>719.1645599999999</v>
       </c>
       <c r="L177" s="22" t="n">
         <v>29.63589</v>
@@ -8321,12 +8623,17 @@
       <c r="M177" s="22" t="n">
         <v>25.41476</v>
       </c>
-      <c r="N177" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="178" s="70" spans="1:14">
+      <c r="N177" s="22" t="n">
+        <v>28.159</v>
+      </c>
+      <c r="O177" s="10" t="n"/>
+    </row>
+    <row r="178" ht="12.6" customHeight="1" s="70">
       <c r="A178" s="5" t="n"/>
-      <c r="B178" s="64" t="s">
-        <v>106</v>
+      <c r="B178" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Other V.A.T.</t>
+        </is>
       </c>
       <c r="C178" s="22" t="n">
         <v>0</v>
@@ -8361,12 +8668,17 @@
       <c r="M178" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N178" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="179" s="70" spans="1:14">
+      <c r="N178" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O178" s="10" t="n"/>
+    </row>
+    <row r="179" ht="12.6" customHeight="1" s="70">
       <c r="A179" s="8" t="n"/>
-      <c r="B179" s="64" t="s">
-        <v>161</v>
+      <c r="B179" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Main and Branch Offices' Current Account</t>
+        </is>
       </c>
       <c r="C179" s="22" t="n">
         <v>0</v>
@@ -8401,12 +8713,17 @@
       <c r="M179" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N179" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="180" s="70" spans="1:14">
+      <c r="N179" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O179" s="10" t="n"/>
+    </row>
+    <row r="180" ht="12.6" customHeight="1" s="70">
       <c r="A180" s="5" t="n"/>
-      <c r="B180" s="64" t="s">
-        <v>162</v>
+      <c r="B180" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Stock Taking and Receiving Surpluses</t>
+        </is>
       </c>
       <c r="C180" s="22" t="n">
         <v>44.87472</v>
@@ -8441,12 +8758,17 @@
       <c r="M180" s="22" t="n">
         <v>55.47654</v>
       </c>
-      <c r="N180" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="181" s="70" spans="1:14">
+      <c r="N180" s="22" t="n">
+        <v>77.548</v>
+      </c>
+      <c r="O180" s="10" t="n"/>
+    </row>
+    <row r="181" ht="12.6" customHeight="1" s="70">
       <c r="A181" s="5" t="n"/>
-      <c r="B181" s="65" t="s">
-        <v>30</v>
+      <c r="B181" s="65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other </t>
+        </is>
       </c>
       <c r="C181" s="35" t="n">
         <v>0.12528</v>
@@ -8479,20 +8801,25 @@
         <v>0</v>
       </c>
       <c r="M181" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N181" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="182" s="70" spans="1:14">
+        <v>17.11197</v>
+      </c>
+      <c r="N181" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O181" s="10" t="n"/>
+    </row>
+    <row r="182" ht="12.6" customHeight="1" s="70">
       <c r="A182" s="5" t="n"/>
-      <c r="B182" s="60" t="s">
-        <v>163</v>
+      <c r="B182" s="60" t="inlineStr">
+        <is>
+          <t>II- LONG-TERM LIABILITIES</t>
+        </is>
       </c>
       <c r="C182" s="23" t="n">
         <v>18212.03632</v>
       </c>
       <c r="D182" s="23" t="n">
-        <v>22613.06768</v>
+        <v>23167.29114</v>
       </c>
       <c r="E182" s="23" t="n">
         <v>37134.5278</v>
@@ -8504,13 +8831,13 @@
         <v>59636.21983</v>
       </c>
       <c r="H182" s="33" t="n">
-        <v>52868.34656000001</v>
+        <v>53068.58656</v>
       </c>
       <c r="I182" s="23" t="n">
-        <v>44785.49784</v>
+        <v>46100.48682</v>
       </c>
       <c r="J182" s="33" t="n">
-        <v>56824.31666</v>
+        <v>60300.17783</v>
       </c>
       <c r="K182" s="23" t="n">
         <v>81596.75317</v>
@@ -8519,14 +8846,19 @@
         <v>99866.96664</v>
       </c>
       <c r="M182" s="23" t="n">
-        <v>115872.06748</v>
-      </c>
-      <c r="N182" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="183" s="70" spans="1:14">
+        <v>115875.27248</v>
+      </c>
+      <c r="N182" s="23" t="n">
+        <v>139853.538</v>
+      </c>
+      <c r="O182" s="11" t="n"/>
+    </row>
+    <row r="183" ht="12.6" customHeight="1" s="70">
       <c r="A183" s="8" t="n"/>
-      <c r="B183" s="60" t="s">
-        <v>117</v>
+      <c r="B183" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   A- Financial Liabilities</t>
+        </is>
       </c>
       <c r="C183" s="23" t="n">
         <v>8811.551109999999</v>
@@ -8538,7 +8870,7 @@
         <v>20689.49588</v>
       </c>
       <c r="F183" s="33" t="n">
-        <v>41099.91028999999</v>
+        <v>41099.91029</v>
       </c>
       <c r="G183" s="23" t="n">
         <v>43783.74643</v>
@@ -8550,23 +8882,28 @@
         <v>28683.08291</v>
       </c>
       <c r="J183" s="33" t="n">
-        <v>39125.38701000001</v>
+        <v>42497.47418</v>
       </c>
       <c r="K183" s="23" t="n">
         <v>62098.08639</v>
       </c>
       <c r="L183" s="23" t="n">
-        <v>64387.81749</v>
+        <v>64387.81748999999</v>
       </c>
       <c r="M183" s="23" t="n">
         <v>70584.66892</v>
       </c>
-      <c r="N183" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="184" s="70" spans="1:14">
+      <c r="N183" s="23" t="n">
+        <v>89313.22</v>
+      </c>
+      <c r="O183" s="11" t="n"/>
+    </row>
+    <row r="184" ht="12.6" customHeight="1" s="70">
       <c r="A184" s="8" t="n"/>
-      <c r="B184" s="66" t="s">
-        <v>118</v>
+      <c r="B184" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Bank Loans</t>
+        </is>
       </c>
       <c r="C184" s="22" t="n">
         <v>8092.11775</v>
@@ -8590,32 +8927,37 @@
         <v>28465.67761</v>
       </c>
       <c r="J184" s="21" t="n">
-        <v>39125.17096</v>
+        <v>42497.25813</v>
       </c>
       <c r="K184" s="22" t="n">
         <v>62098.08639</v>
       </c>
       <c r="L184" s="22" t="n">
-        <v>64387.81749</v>
+        <v>64387.81748999999</v>
       </c>
       <c r="M184" s="22" t="n">
         <v>70584.66892</v>
       </c>
-      <c r="N184" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="185" s="70" spans="1:14">
+      <c r="N184" s="22" t="n">
+        <v>89015.61599999999</v>
+      </c>
+      <c r="O184" s="10" t="n"/>
+    </row>
+    <row r="185" ht="12.6" customHeight="1" s="70">
       <c r="A185" s="8" t="n"/>
-      <c r="B185" s="66" t="s">
-        <v>119</v>
+      <c r="B185" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Financial Leasing Payables</t>
+        </is>
       </c>
       <c r="C185" s="22" t="n">
-        <v>742.9776900000001</v>
+        <v>742.9776899999999</v>
       </c>
       <c r="D185" s="22" t="n">
         <v>577.64235</v>
       </c>
       <c r="E185" s="22" t="n">
-        <v>2728.918729999999</v>
+        <v>2728.91873</v>
       </c>
       <c r="F185" s="21" t="n">
         <v>9261.93793</v>
@@ -8641,12 +8983,17 @@
       <c r="M185" s="22" t="n">
         <v>1.37919</v>
       </c>
-      <c r="N185" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12" r="186" s="70" spans="1:14">
+      <c r="N185" s="22" t="n">
+        <v>316.725</v>
+      </c>
+      <c r="O185" s="10" t="n"/>
+    </row>
+    <row r="186" ht="12" customHeight="1" s="70">
       <c r="A186" s="5" t="n"/>
-      <c r="B186" s="66" t="s">
-        <v>120</v>
+      <c r="B186" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Deferred Financial Leasing Payable Costs (-)</t>
+        </is>
       </c>
       <c r="C186" s="22" t="n">
         <v>23.54433</v>
@@ -8681,12 +9028,17 @@
       <c r="M186" s="22" t="n">
         <v>1.37919</v>
       </c>
-      <c r="N186" s="10" t="n"/>
-    </row>
-    <row r="187" spans="1:14">
+      <c r="N186" s="22" t="n">
+        <v>19.121</v>
+      </c>
+      <c r="O186" s="10" t="n"/>
+    </row>
+    <row r="187">
       <c r="A187" s="5" t="n"/>
-      <c r="B187" s="67" t="s">
-        <v>164</v>
+      <c r="B187" s="67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Bonds Issued</t>
+        </is>
       </c>
       <c r="C187" s="22" t="n">
         <v>0</v>
@@ -8721,12 +9073,17 @@
       <c r="M187" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N187" s="10" t="n"/>
-    </row>
-    <row r="188" spans="1:14">
+      <c r="N187" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O187" s="10" t="n"/>
+    </row>
+    <row r="188">
       <c r="A188" s="8" t="n"/>
-      <c r="B188" s="67" t="s">
-        <v>165</v>
+      <c r="B188" s="67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other Securities Issued</t>
+        </is>
       </c>
       <c r="C188" s="22" t="n">
         <v>0</v>
@@ -8761,12 +9118,17 @@
       <c r="M188" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N188" s="10" t="n"/>
-    </row>
-    <row r="189" spans="1:14">
+      <c r="N188" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O188" s="10" t="n"/>
+    </row>
+    <row r="189">
       <c r="A189" s="5" t="n"/>
-      <c r="B189" s="66" t="s">
-        <v>166</v>
+      <c r="B189" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Adjust.for the Secur.Issued Under Par Value (-)</t>
+        </is>
       </c>
       <c r="C189" s="22" t="n">
         <v>0</v>
@@ -8801,12 +9163,17 @@
       <c r="M189" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N189" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="190" s="70" spans="1:14">
+      <c r="N189" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O189" s="10" t="n"/>
+    </row>
+    <row r="190" ht="12.6" customHeight="1" s="70">
       <c r="A190" s="5" t="n"/>
-      <c r="B190" s="67" t="s">
-        <v>167</v>
+      <c r="B190" s="67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Other Financial Liabilities </t>
+        </is>
       </c>
       <c r="C190" s="22" t="n">
         <v>0</v>
@@ -8841,12 +9208,17 @@
       <c r="M190" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N190" s="1" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="191" s="70" spans="1:14">
+      <c r="N190" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O190" s="1" t="n"/>
+    </row>
+    <row r="191" ht="12.6" customHeight="1" s="70">
       <c r="A191" s="5" t="n"/>
-      <c r="B191" s="68" t="s">
-        <v>127</v>
+      <c r="B191" s="68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   B- Trade Debts</t>
+        </is>
       </c>
       <c r="C191" s="23" t="n">
         <v>1512.88613</v>
@@ -8864,13 +9236,13 @@
         <v>9659.24993</v>
       </c>
       <c r="H191" s="33" t="n">
-        <v>5494.469260000001</v>
+        <v>5494.46926</v>
       </c>
       <c r="I191" s="23" t="n">
         <v>5702.49928</v>
       </c>
       <c r="J191" s="33" t="n">
-        <v>5216.155610000001</v>
+        <v>5216.15561</v>
       </c>
       <c r="K191" s="23" t="n">
         <v>4721.06984</v>
@@ -8881,12 +9253,17 @@
       <c r="M191" s="23" t="n">
         <v>2798.83472</v>
       </c>
-      <c r="N191" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="192" s="70" spans="1:14">
+      <c r="N191" s="23" t="n">
+        <v>7258.728</v>
+      </c>
+      <c r="O191" s="11" t="n"/>
+    </row>
+    <row r="192" ht="12.6" customHeight="1" s="70">
       <c r="A192" s="8" t="n"/>
-      <c r="B192" s="66" t="s">
-        <v>128</v>
+      <c r="B192" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Creditors</t>
+        </is>
       </c>
       <c r="C192" s="22" t="n">
         <v>1249.58713</v>
@@ -8921,12 +9298,17 @@
       <c r="M192" s="22" t="n">
         <v>2764.83472</v>
       </c>
-      <c r="N192" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="193" s="70" spans="1:14">
+      <c r="N192" s="22" t="n">
+        <v>4846.728</v>
+      </c>
+      <c r="O192" s="10" t="n"/>
+    </row>
+    <row r="193" ht="12.6" customHeight="1" s="70">
       <c r="A193" s="5" t="n"/>
-      <c r="B193" s="66" t="s">
-        <v>129</v>
+      <c r="B193" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Notes Payable</t>
+        </is>
       </c>
       <c r="C193" s="22" t="n">
         <v>263.289</v>
@@ -8961,12 +9343,17 @@
       <c r="M193" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N193" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="194" s="70" spans="1:14">
+      <c r="N193" s="22" t="n">
+        <v>2378</v>
+      </c>
+      <c r="O193" s="10" t="n"/>
+    </row>
+    <row r="194" ht="12.6" customHeight="1" s="70">
       <c r="A194" s="5" t="n"/>
-      <c r="B194" s="66" t="s">
-        <v>130</v>
+      <c r="B194" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Discount on Notes Payable (-)</t>
+        </is>
       </c>
       <c r="C194" s="22" t="n">
         <v>0</v>
@@ -9001,12 +9388,17 @@
       <c r="M194" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N194" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="195" s="70" spans="1:14">
+      <c r="N194" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O194" s="10" t="n"/>
+    </row>
+    <row r="195" ht="12.6" customHeight="1" s="70">
       <c r="A195" s="5" t="n"/>
-      <c r="B195" s="66" t="s">
-        <v>131</v>
+      <c r="B195" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Deposits and Guaranties Received</t>
+        </is>
       </c>
       <c r="C195" s="22" t="n">
         <v>0.01</v>
@@ -9041,12 +9433,17 @@
       <c r="M195" s="22" t="n">
         <v>34</v>
       </c>
-      <c r="N195" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="196" s="70" spans="1:14">
+      <c r="N195" s="22" t="n">
+        <v>34</v>
+      </c>
+      <c r="O195" s="10" t="n"/>
+    </row>
+    <row r="196" ht="12.6" customHeight="1" s="70">
       <c r="A196" s="5" t="n"/>
-      <c r="B196" s="59" t="s">
-        <v>132</v>
+      <c r="B196" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other Trade Debts</t>
+        </is>
       </c>
       <c r="C196" s="22" t="n">
         <v>0</v>
@@ -9081,18 +9478,23 @@
       <c r="M196" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N196" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="197" s="70" spans="1:14">
+      <c r="N196" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O196" s="10" t="n"/>
+    </row>
+    <row r="197" ht="12.6" customHeight="1" s="70">
       <c r="A197" s="5" t="n"/>
-      <c r="B197" s="57" t="s">
-        <v>168</v>
+      <c r="B197" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   C- Other Long-Term Debts</t>
+        </is>
       </c>
       <c r="C197" s="23" t="n">
-        <v>7151.95494</v>
+        <v>7151.954940000001</v>
       </c>
       <c r="D197" s="23" t="n">
-        <v>8695.25114</v>
+        <v>8917.181789999999</v>
       </c>
       <c r="E197" s="23" t="n">
         <v>5343.539779999999</v>
@@ -9107,10 +9509,10 @@
         <v>7148.96271</v>
       </c>
       <c r="I197" s="23" t="n">
-        <v>6562.102900000001</v>
+        <v>7877.091880000001</v>
       </c>
       <c r="J197" s="33" t="n">
-        <v>10043.21282</v>
+        <v>10146.98682</v>
       </c>
       <c r="K197" s="23" t="n">
         <v>12338.45204</v>
@@ -9119,20 +9521,25 @@
         <v>28375.62612</v>
       </c>
       <c r="M197" s="23" t="n">
-        <v>27408.92167</v>
-      </c>
-      <c r="N197" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="198" s="70" spans="1:14">
+        <v>27412.12667</v>
+      </c>
+      <c r="N197" s="23" t="n">
+        <v>25941.07</v>
+      </c>
+      <c r="O197" s="11" t="n"/>
+    </row>
+    <row r="198" ht="12.6" customHeight="1" s="70">
       <c r="A198" s="8" t="n"/>
-      <c r="B198" s="59" t="s">
-        <v>134</v>
+      <c r="B198" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Amounts Owed to Shareholders</t>
+        </is>
       </c>
       <c r="C198" s="22" t="n">
         <v>6596.218910000001</v>
       </c>
       <c r="D198" s="22" t="n">
-        <v>8277.547060000001</v>
+        <v>8499.477710000001</v>
       </c>
       <c r="E198" s="22" t="n">
         <v>4674.54293</v>
@@ -9147,26 +9554,31 @@
         <v>5601.73175</v>
       </c>
       <c r="I198" s="22" t="n">
-        <v>6332.276470000001</v>
+        <v>6332.27647</v>
       </c>
       <c r="J198" s="21" t="n">
-        <v>7530.56936</v>
+        <v>7634.34336</v>
       </c>
       <c r="K198" s="22" t="n">
-        <v>9727.185309999999</v>
+        <v>9727.185310000001</v>
       </c>
       <c r="L198" s="22" t="n">
         <v>25808.95104</v>
       </c>
       <c r="M198" s="22" t="n">
-        <v>22012.02935</v>
-      </c>
-      <c r="N198" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="199" s="70" spans="1:14">
+        <v>22015.23435</v>
+      </c>
+      <c r="N198" s="22" t="n">
+        <v>21004.143</v>
+      </c>
+      <c r="O198" s="10" t="n"/>
+    </row>
+    <row r="199" ht="12.6" customHeight="1" s="70">
       <c r="A199" s="5" t="n"/>
-      <c r="B199" s="59" t="s">
-        <v>135</v>
+      <c r="B199" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Amounts Owed to Participations</t>
+        </is>
       </c>
       <c r="C199" s="22" t="n">
         <v>0</v>
@@ -9201,12 +9613,17 @@
       <c r="M199" s="22" t="n">
         <v>586.9082099999999</v>
       </c>
-      <c r="N199" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="200" s="70" spans="1:14">
+      <c r="N199" s="22" t="n">
+        <v>561.5700000000001</v>
+      </c>
+      <c r="O199" s="10" t="n"/>
+    </row>
+    <row r="200" ht="12.6" customHeight="1" s="70">
       <c r="A200" s="8" t="n"/>
-      <c r="B200" s="59" t="s">
-        <v>136</v>
+      <c r="B200" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Amounts Owed to Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C200" s="22" t="n">
         <v>0</v>
@@ -9241,12 +9658,17 @@
       <c r="M200" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N200" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="201" s="70" spans="1:14">
+      <c r="N200" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O200" s="10" t="n"/>
+    </row>
+    <row r="201" ht="12.6" customHeight="1" s="70">
       <c r="A201" s="8" t="n"/>
-      <c r="B201" s="59" t="s">
-        <v>169</v>
+      <c r="B201" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Other </t>
+        </is>
       </c>
       <c r="C201" s="22" t="n">
         <v>324.24142</v>
@@ -9267,7 +9689,7 @@
         <v>1110.70579</v>
       </c>
       <c r="I201" s="22" t="n">
-        <v>74.82853</v>
+        <v>1080.70579</v>
       </c>
       <c r="J201" s="21" t="n">
         <v>1382.51978</v>
@@ -9281,12 +9703,17 @@
       <c r="M201" s="22" t="n">
         <v>4040.4779</v>
       </c>
-      <c r="N201" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="202" s="70" spans="1:14">
+      <c r="N201" s="22" t="n">
+        <v>1040.992</v>
+      </c>
+      <c r="O201" s="10" t="n"/>
+    </row>
+    <row r="202" ht="12.6" customHeight="1" s="70">
       <c r="A202" s="5" t="n"/>
-      <c r="B202" s="64" t="s">
-        <v>170</v>
+      <c r="B202" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Disc. on Oth.Short-term Notes Payable (-)</t>
+        </is>
       </c>
       <c r="C202" s="22" t="n">
         <v>0</v>
@@ -9321,12 +9748,17 @@
       <c r="M202" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N202" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="203" s="70" spans="1:14">
+      <c r="N202" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O202" s="10" t="n"/>
+    </row>
+    <row r="203" ht="12.6" customHeight="1" s="70">
       <c r="A203" s="5" t="n"/>
-      <c r="B203" s="59" t="s">
-        <v>171</v>
+      <c r="B203" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Deferred &amp; Scheduled Paym.to Gov.</t>
+        </is>
       </c>
       <c r="C203" s="22" t="n">
         <v>231.49461</v>
@@ -9347,10 +9779,10 @@
         <v>320.22517</v>
       </c>
       <c r="I203" s="22" t="n">
-        <v>9.722899999999999</v>
+        <v>318.83462</v>
       </c>
       <c r="J203" s="21" t="n">
-        <v>959.94868</v>
+        <v>959.9486800000001</v>
       </c>
       <c r="K203" s="22" t="n">
         <v>1352.28689</v>
@@ -9361,18 +9793,23 @@
       <c r="M203" s="22" t="n">
         <v>769.50621</v>
       </c>
-      <c r="N203" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="204" s="70" spans="1:14">
+      <c r="N203" s="22" t="n">
+        <v>3334.365</v>
+      </c>
+      <c r="O203" s="10" t="n"/>
+    </row>
+    <row r="204" ht="12.6" customHeight="1" s="70">
       <c r="A204" s="8" t="n"/>
-      <c r="B204" s="60" t="s">
-        <v>172</v>
+      <c r="B204" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   D-Advances Received</t>
+        </is>
       </c>
       <c r="C204" s="23" t="n">
         <v>509.71209</v>
       </c>
       <c r="D204" s="23" t="n">
-        <v>36.56798999999999</v>
+        <v>368.8608</v>
       </c>
       <c r="E204" s="23" t="n">
         <v>33.56798999999999</v>
@@ -9384,7 +9821,7 @@
         <v>323.16956</v>
       </c>
       <c r="H204" s="33" t="n">
-        <v>5373.43719</v>
+        <v>5373.437190000001</v>
       </c>
       <c r="I204" s="23" t="n">
         <v>2272.27705</v>
@@ -9401,18 +9838,23 @@
       <c r="M204" s="23" t="n">
         <v>13886.17563</v>
       </c>
-      <c r="N204" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="205" s="70" spans="1:14">
+      <c r="N204" s="23" t="n">
+        <v>15951.256</v>
+      </c>
+      <c r="O204" s="11" t="n"/>
+    </row>
+    <row r="205" ht="12.6" customHeight="1" s="70">
       <c r="A205" s="8" t="n"/>
-      <c r="B205" s="59" t="s">
-        <v>140</v>
+      <c r="B205" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Advances Received on Purchase Orders</t>
+        </is>
       </c>
       <c r="C205" s="22" t="n">
         <v>94.48529000000001</v>
       </c>
       <c r="D205" s="22" t="n">
-        <v>33.56798999999999</v>
+        <v>365.8608</v>
       </c>
       <c r="E205" s="22" t="n">
         <v>33.56798999999999</v>
@@ -9424,7 +9866,7 @@
         <v>323.16956</v>
       </c>
       <c r="H205" s="21" t="n">
-        <v>5373.43719</v>
+        <v>5373.437190000001</v>
       </c>
       <c r="I205" s="22" t="n">
         <v>2272.27705</v>
@@ -9441,12 +9883,17 @@
       <c r="M205" s="22" t="n">
         <v>13886.17563</v>
       </c>
-      <c r="N205" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="206" s="70" spans="1:14">
+      <c r="N205" s="22" t="n">
+        <v>15951.256</v>
+      </c>
+      <c r="O205" s="10" t="n"/>
+    </row>
+    <row r="206" ht="12.6" customHeight="1" s="70">
       <c r="A206" s="5" t="n"/>
-      <c r="B206" s="64" t="s">
-        <v>141</v>
+      <c r="B206" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Other Advances Received</t>
+        </is>
       </c>
       <c r="C206" s="22" t="n">
         <v>415.2268</v>
@@ -9481,12 +9928,17 @@
       <c r="M206" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N206" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="207" s="70" spans="1:14">
+      <c r="N206" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O206" s="10" t="n"/>
+    </row>
+    <row r="207" ht="12.6" customHeight="1" s="70">
       <c r="A207" s="5" t="n"/>
-      <c r="B207" s="60" t="s">
-        <v>173</v>
+      <c r="B207" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   E- Provisions for Liabilities and Charges</t>
+        </is>
       </c>
       <c r="C207" s="23" t="n">
         <v>0</v>
@@ -9521,12 +9973,17 @@
       <c r="M207" s="23" t="n">
         <v>0</v>
       </c>
-      <c r="N207" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="208" s="70" spans="1:14">
+      <c r="N207" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O207" s="11" t="n"/>
+    </row>
+    <row r="208" ht="12.6" customHeight="1" s="70">
       <c r="A208" s="8" t="n"/>
-      <c r="B208" s="59" t="s">
-        <v>174</v>
+      <c r="B208" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Provisions for Severance Payments</t>
+        </is>
       </c>
       <c r="C208" s="22" t="n">
         <v>0</v>
@@ -9561,12 +10018,17 @@
       <c r="M208" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N208" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="209" s="70" spans="1:14">
+      <c r="N208" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O208" s="10" t="n"/>
+    </row>
+    <row r="209" ht="12.6" customHeight="1" s="70">
       <c r="A209" s="5" t="n"/>
-      <c r="B209" s="59" t="s">
-        <v>175</v>
+      <c r="B209" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Other Provisions </t>
+        </is>
       </c>
       <c r="C209" s="22" t="n">
         <v>0</v>
@@ -9601,12 +10063,17 @@
       <c r="M209" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N209" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="210" s="70" spans="1:14">
+      <c r="N209" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O209" s="10" t="n"/>
+    </row>
+    <row r="210" ht="12.6" customHeight="1" s="70">
       <c r="A210" s="8" t="n"/>
-      <c r="B210" s="57" t="s">
-        <v>176</v>
+      <c r="B210" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   F- Defer.Inc.&amp; Accr.Exp.for the Next Yrs.</t>
+        </is>
       </c>
       <c r="C210" s="23" t="n">
         <v>25.69205</v>
@@ -9621,7 +10088,7 @@
         <v>1232.67876</v>
       </c>
       <c r="G210" s="23" t="n">
-        <v>979.4218199999999</v>
+        <v>979.42182</v>
       </c>
       <c r="H210" s="33" t="n">
         <v>1481.38263</v>
@@ -9641,12 +10108,17 @@
       <c r="M210" s="23" t="n">
         <v>1193.46654</v>
       </c>
-      <c r="N210" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="211" s="70" spans="1:14">
+      <c r="N210" s="23" t="n">
+        <v>1389.134</v>
+      </c>
+      <c r="O210" s="11" t="n"/>
+    </row>
+    <row r="211" ht="12.6" customHeight="1" s="70">
       <c r="A211" s="8" t="n"/>
-      <c r="B211" s="64" t="s">
-        <v>177</v>
+      <c r="B211" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Deferred Income</t>
+        </is>
       </c>
       <c r="C211" s="22" t="n">
         <v>25.476</v>
@@ -9681,12 +10153,17 @@
       <c r="M211" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N211" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="212" s="70" spans="1:14">
+      <c r="N211" s="22" t="n">
+        <v>149.34</v>
+      </c>
+      <c r="O211" s="10" t="n"/>
+    </row>
+    <row r="212" ht="12.6" customHeight="1" s="70">
       <c r="A212" s="8" t="n"/>
-      <c r="B212" s="64" t="s">
-        <v>158</v>
+      <c r="B212" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Accrued Expenses</t>
+        </is>
       </c>
       <c r="C212" s="22" t="n">
         <v>0.21605</v>
@@ -9701,7 +10178,7 @@
         <v>1178.07293</v>
       </c>
       <c r="G212" s="22" t="n">
-        <v>969.01582</v>
+        <v>969.0158200000001</v>
       </c>
       <c r="H212" s="21" t="n">
         <v>1369.17663</v>
@@ -9721,12 +10198,17 @@
       <c r="M212" s="22" t="n">
         <v>1193.46654</v>
       </c>
-      <c r="N212" s="1" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="213" s="70" spans="1:14">
+      <c r="N212" s="22" t="n">
+        <v>1239.794</v>
+      </c>
+      <c r="O212" s="1" t="n"/>
+    </row>
+    <row r="213" ht="12.6" customHeight="1" s="70">
       <c r="A213" s="15" t="n"/>
-      <c r="B213" s="57" t="s">
-        <v>178</v>
+      <c r="B213" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   G- Other Long-Term Liabilities</t>
+        </is>
       </c>
       <c r="C213" s="23" t="n">
         <v>200.24</v>
@@ -9744,7 +10226,7 @@
         <v>200.24</v>
       </c>
       <c r="H213" s="33" t="n">
-        <v>0</v>
+        <v>200.24</v>
       </c>
       <c r="I213" s="23" t="n">
         <v>200.24</v>
@@ -9761,12 +10243,17 @@
       <c r="M213" s="23" t="n">
         <v>0</v>
       </c>
-      <c r="N213" s="6" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="214" s="70" spans="1:14">
+      <c r="N213" s="23" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="O213" s="6" t="n"/>
+    </row>
+    <row r="214" ht="12.6" customHeight="1" s="70">
       <c r="A214" s="15" t="n"/>
-      <c r="B214" s="64" t="s">
-        <v>179</v>
+      <c r="B214" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- V.A.T. Deferred to the Next Years</t>
+        </is>
       </c>
       <c r="C214" s="22" t="n">
         <v>0</v>
@@ -9801,12 +10288,17 @@
       <c r="M214" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N214" s="1" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="215" s="70" spans="1:14">
+      <c r="N214" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O214" s="1" t="n"/>
+    </row>
+    <row r="215" ht="12.6" customHeight="1" s="70">
       <c r="A215" s="16" t="n"/>
-      <c r="B215" s="64" t="s">
-        <v>180</v>
+      <c r="B215" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Shares in the Plant and Equipment</t>
+        </is>
       </c>
       <c r="C215" s="22" t="n">
         <v>200.24</v>
@@ -9824,7 +10316,7 @@
         <v>200.24</v>
       </c>
       <c r="H215" s="21" t="n">
-        <v>0</v>
+        <v>200.24</v>
       </c>
       <c r="I215" s="22" t="n">
         <v>200.24</v>
@@ -9841,12 +10333,17 @@
       <c r="M215" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N215" s="1" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="216" s="70" spans="1:14">
+      <c r="N215" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O215" s="1" t="n"/>
+    </row>
+    <row r="216" ht="12.6" customHeight="1" s="70">
       <c r="A216" s="16" t="n"/>
-      <c r="B216" s="65" t="s">
-        <v>181</v>
+      <c r="B216" s="65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Other </t>
+        </is>
       </c>
       <c r="C216" s="35" t="n">
         <v>0</v>
@@ -9881,18 +10378,23 @@
       <c r="M216" s="35" t="n">
         <v>0</v>
       </c>
-      <c r="N216" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="217" s="70" spans="1:14">
+      <c r="N216" s="35" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="O216" s="10" t="n"/>
+    </row>
+    <row r="217" ht="12.6" customHeight="1" s="70">
       <c r="A217" s="5" t="n"/>
-      <c r="B217" s="60" t="s">
-        <v>182</v>
+      <c r="B217" s="60" t="inlineStr">
+        <is>
+          <t>III- SHAREHOLDERS EQUITY</t>
+        </is>
       </c>
       <c r="C217" s="23" t="n">
         <v>212038.7276</v>
       </c>
       <c r="D217" s="23" t="n">
-        <v>227879.41127</v>
+        <v>228040.36973</v>
       </c>
       <c r="E217" s="23" t="n">
         <v>266984.48111</v>
@@ -9901,38 +10403,43 @@
         <v>279988.51888</v>
       </c>
       <c r="G217" s="23" t="n">
-        <v>127212.02287</v>
+        <v>127183.78316</v>
       </c>
       <c r="H217" s="33" t="n">
-        <v>160704.28276</v>
+        <v>160674.1705</v>
       </c>
       <c r="I217" s="23" t="n">
-        <v>299056.81511</v>
+        <v>298775.52514</v>
       </c>
       <c r="J217" s="33" t="n">
-        <v>297969.10922</v>
+        <v>301760.06096</v>
       </c>
       <c r="K217" s="23" t="n">
         <v>325892.2685</v>
       </c>
       <c r="L217" s="23" t="n">
-        <v>417694.78326</v>
+        <v>417609.9139500001</v>
       </c>
       <c r="M217" s="23" t="n">
-        <v>479006.18597</v>
-      </c>
-      <c r="N217" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="218" s="70" spans="1:14">
+        <v>479627.59843</v>
+      </c>
+      <c r="N217" s="23" t="n">
+        <v>474150.044</v>
+      </c>
+      <c r="O217" s="11" t="n"/>
+    </row>
+    <row r="218" ht="12.6" customHeight="1" s="70">
       <c r="A218" s="8" t="n"/>
-      <c r="B218" s="60" t="s">
-        <v>183</v>
+      <c r="B218" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   A- Paid-in Capital</t>
+        </is>
       </c>
       <c r="C218" s="23" t="n">
         <v>198943.95367</v>
       </c>
       <c r="D218" s="23" t="n">
-        <v>216147.46954</v>
+        <v>216443.24293</v>
       </c>
       <c r="E218" s="23" t="n">
         <v>245468.94427</v>
@@ -9941,16 +10448,16 @@
         <v>248872.98973</v>
       </c>
       <c r="G218" s="23" t="n">
-        <v>109034.70248</v>
+        <v>111034.70248</v>
       </c>
       <c r="H218" s="33" t="n">
-        <v>99548.88600999999</v>
+        <v>101524.28589</v>
       </c>
       <c r="I218" s="23" t="n">
-        <v>236097.73942</v>
+        <v>236493.51381</v>
       </c>
       <c r="J218" s="33" t="n">
-        <v>233685.22577</v>
+        <v>236360.66111</v>
       </c>
       <c r="K218" s="23" t="n">
         <v>256957.95667</v>
@@ -9959,20 +10466,25 @@
         <v>283707.80082</v>
       </c>
       <c r="M218" s="23" t="n">
-        <v>305627.10828</v>
-      </c>
-      <c r="N218" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="219" s="70" spans="1:14">
+        <v>306012.64189</v>
+      </c>
+      <c r="N218" s="23" t="n">
+        <v>334277.019</v>
+      </c>
+      <c r="O218" s="11" t="n"/>
+    </row>
+    <row r="219" ht="12.6" customHeight="1" s="70">
       <c r="A219" s="8" t="n"/>
-      <c r="B219" s="64" t="s">
-        <v>184</v>
+      <c r="B219" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Subscribed Capital </t>
+        </is>
       </c>
       <c r="C219" s="22" t="n">
         <v>64671.86167</v>
       </c>
       <c r="D219" s="22" t="n">
-        <v>89548.01013</v>
+        <v>89773.01013</v>
       </c>
       <c r="E219" s="22" t="n">
         <v>121266.61098</v>
@@ -9981,32 +10493,37 @@
         <v>119795.20896</v>
       </c>
       <c r="G219" s="22" t="n">
-        <v>108296.57425</v>
+        <v>110296.57425</v>
       </c>
       <c r="H219" s="21" t="n">
-        <v>103082.19268</v>
+        <v>105085.93543</v>
       </c>
       <c r="I219" s="22" t="n">
-        <v>107580.66756</v>
+        <v>107905.66856</v>
       </c>
       <c r="J219" s="21" t="n">
-        <v>105509.87025</v>
+        <v>107509.87025</v>
       </c>
       <c r="K219" s="22" t="n">
         <v>127023.75473</v>
       </c>
       <c r="L219" s="22" t="n">
-        <v>152445.25353</v>
+        <v>152575.25353</v>
       </c>
       <c r="M219" s="22" t="n">
-        <v>168762.36408</v>
-      </c>
-      <c r="N219" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="220" s="70" spans="1:14">
+        <v>169547.51408</v>
+      </c>
+      <c r="N219" s="22" t="n">
+        <v>208849.608</v>
+      </c>
+      <c r="O219" s="10" t="n"/>
+    </row>
+    <row r="220" ht="12.6" customHeight="1" s="70">
       <c r="A220" s="5" t="n"/>
-      <c r="B220" s="59" t="s">
-        <v>185</v>
+      <c r="B220" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Subscribed Capital Uncalled (-)</t>
+        </is>
       </c>
       <c r="C220" s="22" t="n">
         <v>5254.75891</v>
@@ -10024,7 +10541,7 @@
         <v>10264.08329</v>
       </c>
       <c r="H220" s="21" t="n">
-        <v>8968.693060000001</v>
+        <v>8968.693059999998</v>
       </c>
       <c r="I220" s="22" t="n">
         <v>6497.222650000001</v>
@@ -10036,23 +10553,28 @@
         <v>9926.462300000001</v>
       </c>
       <c r="L220" s="22" t="n">
-        <v>8679.413039999999</v>
+        <v>8809.413039999999</v>
       </c>
       <c r="M220" s="22" t="n">
-        <v>7051.67735</v>
-      </c>
-      <c r="N220" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="221" s="70" spans="1:14">
+        <v>7456.67735</v>
+      </c>
+      <c r="N220" s="22" t="n">
+        <v>18722.101</v>
+      </c>
+      <c r="O220" s="10" t="n"/>
+    </row>
+    <row r="221" ht="12.6" customHeight="1" s="70">
       <c r="A221" s="5" t="n"/>
-      <c r="B221" s="59" t="s">
-        <v>186</v>
+      <c r="B221" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Revaluation Adjustment to Capital (+)</t>
+        </is>
       </c>
       <c r="C221" s="22" t="n">
         <v>139561.02072</v>
       </c>
       <c r="D221" s="22" t="n">
-        <v>141285.8084</v>
+        <v>141356.58179</v>
       </c>
       <c r="E221" s="22" t="n">
         <v>141426.23768</v>
@@ -10067,10 +10589,10 @@
         <v>5441.213650000001</v>
       </c>
       <c r="I221" s="22" t="n">
-        <v>135048.46464</v>
+        <v>135119.23803</v>
       </c>
       <c r="J221" s="21" t="n">
-        <v>133743.6958</v>
+        <v>134419.13114</v>
       </c>
       <c r="K221" s="22" t="n">
         <v>139864.81644</v>
@@ -10079,14 +10601,19 @@
         <v>139946.11233</v>
       </c>
       <c r="M221" s="22" t="n">
-        <v>144160.08229</v>
-      </c>
-      <c r="N221" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="222" s="70" spans="1:14">
+        <v>144165.4659</v>
+      </c>
+      <c r="N221" s="22" t="n">
+        <v>144149.512</v>
+      </c>
+      <c r="O221" s="11" t="n"/>
+    </row>
+    <row r="222" ht="12.6" customHeight="1" s="70">
       <c r="A222" s="8" t="n"/>
-      <c r="B222" s="59" t="s">
-        <v>187</v>
+      <c r="B222" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Revaluation Adjustment to Capital (-)</t>
+        </is>
       </c>
       <c r="C222" s="22" t="n">
         <v>34.16981</v>
@@ -10104,7 +10631,7 @@
         <v>34.17013</v>
       </c>
       <c r="H222" s="21" t="n">
-        <v>5.82726</v>
+        <v>34.17013</v>
       </c>
       <c r="I222" s="22" t="n">
         <v>34.17013</v>
@@ -10121,12 +10648,17 @@
       <c r="M222" s="22" t="n">
         <v>243.66074</v>
       </c>
-      <c r="N222" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="223" s="70" spans="1:14">
+      <c r="N222" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O222" s="10" t="n"/>
+    </row>
+    <row r="223" ht="12.6" customHeight="1" s="70">
       <c r="A223" s="5" t="n"/>
-      <c r="B223" s="60" t="s">
-        <v>188</v>
+      <c r="B223" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   B- Capital Reserves</t>
+        </is>
       </c>
       <c r="C223" s="23" t="n">
         <v>5208.51253</v>
@@ -10141,13 +10673,13 @@
         <v>2239.42001</v>
       </c>
       <c r="G223" s="23" t="n">
-        <v>2476.45279</v>
+        <v>2476.452789999999</v>
       </c>
       <c r="H223" s="33" t="n">
-        <v>2346.84094</v>
+        <v>2483.90708</v>
       </c>
       <c r="I223" s="23" t="n">
-        <v>928.41823</v>
+        <v>928.4182300000001</v>
       </c>
       <c r="J223" s="33" t="n">
         <v>2290.29123</v>
@@ -10159,14 +10691,19 @@
         <v>48026.25917</v>
       </c>
       <c r="M223" s="23" t="n">
-        <v>43414.36042</v>
-      </c>
-      <c r="N223" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="224" s="70" spans="1:14">
+        <v>44042.42589</v>
+      </c>
+      <c r="N223" s="23" t="n">
+        <v>3205.195</v>
+      </c>
+      <c r="O223" s="10" t="n"/>
+    </row>
+    <row r="224" ht="12.6" customHeight="1" s="70">
       <c r="A224" s="5" t="n"/>
-      <c r="B224" s="59" t="s">
-        <v>189</v>
+      <c r="B224" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Share Premium Account</t>
+        </is>
       </c>
       <c r="C224" s="22" t="n">
         <v>0</v>
@@ -10201,12 +10738,17 @@
       <c r="M224" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N224" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="225" s="70" spans="1:14">
+      <c r="N224" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O224" s="10" t="n"/>
+    </row>
+    <row r="225" ht="12.6" customHeight="1" s="70">
       <c r="A225" s="5" t="n"/>
-      <c r="B225" s="64" t="s">
-        <v>190</v>
+      <c r="B225" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Gains From Reedemption of Shares</t>
+        </is>
       </c>
       <c r="C225" s="22" t="n">
         <v>0</v>
@@ -10241,12 +10783,17 @@
       <c r="M225" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N225" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="226" s="70" spans="1:14">
+      <c r="N225" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O225" s="10" t="n"/>
+    </row>
+    <row r="226" ht="12.6" customHeight="1" s="70">
       <c r="A226" s="5" t="n"/>
-      <c r="B226" s="64" t="s">
-        <v>191</v>
+      <c r="B226" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Revaluation of Tangible Fixed Assets</t>
+        </is>
       </c>
       <c r="C226" s="22" t="n">
         <v>279.64482</v>
@@ -10281,12 +10828,17 @@
       <c r="M226" s="22" t="n">
         <v>2198.45111</v>
       </c>
-      <c r="N226" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="227" s="70" spans="1:14">
+      <c r="N226" s="22" t="n">
+        <v>2198.093</v>
+      </c>
+      <c r="O226" s="10" t="n"/>
+    </row>
+    <row r="227" ht="12.6" customHeight="1" s="70">
       <c r="A227" s="5" t="n"/>
-      <c r="B227" s="59" t="s">
-        <v>192</v>
+      <c r="B227" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Revaluation of Participations</t>
+        </is>
       </c>
       <c r="C227" s="22" t="n">
         <v>58.79711</v>
@@ -10321,12 +10873,17 @@
       <c r="M227" s="22" t="n">
         <v>0.65937</v>
       </c>
-      <c r="N227" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="228" s="70" spans="1:14">
+      <c r="N227" s="22" t="n">
+        <v>0.659</v>
+      </c>
+      <c r="O227" s="10" t="n"/>
+    </row>
+    <row r="228" ht="12.6" customHeight="1" s="70">
       <c r="A228" s="5" t="n"/>
-      <c r="B228" s="59" t="s">
-        <v>193</v>
+      <c r="B228" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Provisions for Commodities Recorded   </t>
+        </is>
       </c>
       <c r="C228" s="22" t="n">
         <v>0</v>
@@ -10361,12 +10918,17 @@
       <c r="M228" s="22" t="n">
         <v>41137.074</v>
       </c>
-      <c r="N228" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="229" s="70" spans="1:14">
+      <c r="N228" s="22" t="n">
+        <v>300.202</v>
+      </c>
+      <c r="O228" s="10" t="n"/>
+    </row>
+    <row r="229" ht="12.6" customHeight="1" s="70">
       <c r="A229" s="5" t="n"/>
-      <c r="B229" s="59" t="s">
-        <v>194</v>
+      <c r="B229" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Provisions for Machinery and Equipment  </t>
+        </is>
       </c>
       <c r="C229" s="22" t="n">
         <v>0</v>
@@ -10401,15 +10963,20 @@
       <c r="M229" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N229" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="230" s="70" spans="1:14">
+      <c r="N229" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O229" s="10" t="n"/>
+    </row>
+    <row r="230" ht="12.6" customHeight="1" s="70">
       <c r="A230" s="5" t="n"/>
-      <c r="B230" s="59" t="s">
-        <v>195</v>
+      <c r="B230" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Other Capital Reserves</t>
+        </is>
       </c>
       <c r="C230" s="22" t="n">
-        <v>4870.0706</v>
+        <v>4870.070600000001</v>
       </c>
       <c r="D230" s="22" t="n">
         <v>590.63382</v>
@@ -10418,13 +10985,13 @@
         <v>1134.73753</v>
       </c>
       <c r="F230" s="21" t="n">
-        <v>930.4581399999998</v>
+        <v>930.45814</v>
       </c>
       <c r="G230" s="22" t="n">
         <v>695.65392</v>
       </c>
       <c r="H230" s="21" t="n">
-        <v>564.50778</v>
+        <v>701.5739199999999</v>
       </c>
       <c r="I230" s="22" t="n">
         <v>646.23333</v>
@@ -10439,14 +11006,19 @@
         <v>68.91422</v>
       </c>
       <c r="M230" s="22" t="n">
-        <v>78.17594</v>
-      </c>
-      <c r="N230" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="231" s="70" spans="1:14">
+        <v>706.2414100000001</v>
+      </c>
+      <c r="N230" s="22" t="n">
+        <v>706.241</v>
+      </c>
+      <c r="O230" s="11" t="n"/>
+    </row>
+    <row r="231" ht="12.6" customHeight="1" s="70">
       <c r="A231" s="8" t="n"/>
-      <c r="B231" s="60" t="s">
-        <v>196</v>
+      <c r="B231" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   C- Reserves from Retained Earnings</t>
+        </is>
       </c>
       <c r="C231" s="23" t="n">
         <v>1933.66931</v>
@@ -10461,32 +11033,37 @@
         <v>22201.14523</v>
       </c>
       <c r="G231" s="23" t="n">
-        <v>30861.66658</v>
+        <v>30905.65922</v>
       </c>
       <c r="H231" s="33" t="n">
-        <v>32043.0484</v>
+        <v>32087.04104</v>
       </c>
       <c r="I231" s="23" t="n">
         <v>35485.22199000001</v>
       </c>
       <c r="J231" s="33" t="n">
-        <v>42213.3502</v>
+        <v>42568.81511</v>
       </c>
       <c r="K231" s="23" t="n">
-        <v>52699.29018</v>
+        <v>52699.29017999999</v>
       </c>
       <c r="L231" s="23" t="n">
         <v>74812.06266</v>
       </c>
       <c r="M231" s="23" t="n">
-        <v>86605.93356999999</v>
-      </c>
-      <c r="N231" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="232" s="70" spans="1:14">
+        <v>86609.44688</v>
+      </c>
+      <c r="N231" s="23" t="n">
+        <v>98532.518</v>
+      </c>
+      <c r="O231" s="10" t="n"/>
+    </row>
+    <row r="232" ht="12.6" customHeight="1" s="70">
       <c r="A232" s="5" t="n"/>
-      <c r="B232" s="64" t="s">
-        <v>197</v>
+      <c r="B232" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Legal Reserves</t>
+        </is>
       </c>
       <c r="C232" s="22" t="n">
         <v>491.23795</v>
@@ -10501,16 +11078,16 @@
         <v>2549.50231</v>
       </c>
       <c r="G232" s="22" t="n">
-        <v>2625.88345</v>
+        <v>2628.6463</v>
       </c>
       <c r="H232" s="21" t="n">
-        <v>2572.49025</v>
+        <v>2575.2531</v>
       </c>
       <c r="I232" s="22" t="n">
         <v>2659.8975</v>
       </c>
       <c r="J232" s="21" t="n">
-        <v>2513.58078</v>
+        <v>2599.78707</v>
       </c>
       <c r="K232" s="22" t="n">
         <v>2808.199</v>
@@ -10519,14 +11096,19 @@
         <v>3066.79329</v>
       </c>
       <c r="M232" s="22" t="n">
-        <v>3457.79077</v>
-      </c>
-      <c r="N232" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="233" s="70" spans="1:14">
+        <v>3458.82883</v>
+      </c>
+      <c r="N232" s="22" t="n">
+        <v>4037.377</v>
+      </c>
+      <c r="O232" s="10" t="n"/>
+    </row>
+    <row r="233" ht="12.6" customHeight="1" s="70">
       <c r="A233" s="5" t="n"/>
-      <c r="B233" s="64" t="s">
-        <v>198</v>
+      <c r="B233" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Reser.Provided for by the Artic.of the Assoc.</t>
+        </is>
       </c>
       <c r="C233" s="22" t="n">
         <v>165.31301</v>
@@ -10550,7 +11132,7 @@
         <v>288.49668</v>
       </c>
       <c r="J233" s="21" t="n">
-        <v>81.41061000000001</v>
+        <v>350.66923</v>
       </c>
       <c r="K233" s="22" t="n">
         <v>520.6057099999999</v>
@@ -10561,15 +11143,20 @@
       <c r="M233" s="22" t="n">
         <v>522.54948</v>
       </c>
-      <c r="N233" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="234" s="70" spans="1:14">
+      <c r="N233" s="22" t="n">
+        <v>591.216</v>
+      </c>
+      <c r="O233" s="10" t="n"/>
+    </row>
+    <row r="234" ht="12.6" customHeight="1" s="70">
       <c r="A234" s="5" t="n"/>
-      <c r="B234" s="64" t="s">
-        <v>199</v>
+      <c r="B234" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Extraordinary Reserves</t>
+        </is>
       </c>
       <c r="C234" s="22" t="n">
-        <v>808.9371</v>
+        <v>808.9371000000001</v>
       </c>
       <c r="D234" s="22" t="n">
         <v>1692.75716</v>
@@ -10581,10 +11168,10 @@
         <v>18652.46307</v>
       </c>
       <c r="G234" s="22" t="n">
-        <v>24987.88185</v>
+        <v>25029.11164</v>
       </c>
       <c r="H234" s="21" t="n">
-        <v>24599.43842</v>
+        <v>24640.66821</v>
       </c>
       <c r="I234" s="22" t="n">
         <v>27919.96772</v>
@@ -10601,12 +11188,17 @@
       <c r="M234" s="22" t="n">
         <v>31198.13444</v>
       </c>
-      <c r="N234" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="235" s="70" spans="1:14">
+      <c r="N234" s="22" t="n">
+        <v>31355.407</v>
+      </c>
+      <c r="O234" s="10" t="n"/>
+    </row>
+    <row r="235" ht="12.6" customHeight="1" s="70">
       <c r="A235" s="5" t="n"/>
-      <c r="B235" s="64" t="s">
-        <v>200</v>
+      <c r="B235" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Other Reserves</t>
+        </is>
       </c>
       <c r="C235" s="22" t="n">
         <v>138.13821</v>
@@ -10641,12 +11233,17 @@
       <c r="M235" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N235" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="236" s="70" spans="1:14">
+      <c r="N235" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O235" s="10" t="n"/>
+    </row>
+    <row r="236" ht="12.6" customHeight="1" s="70">
       <c r="A236" s="5" t="n"/>
-      <c r="B236" s="64" t="s">
-        <v>201</v>
+      <c r="B236" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Special Funds</t>
+        </is>
       </c>
       <c r="C236" s="22" t="n">
         <v>330.04304</v>
@@ -10679,20 +11276,25 @@
         <v>40085.54803</v>
       </c>
       <c r="M236" s="22" t="n">
-        <v>51427.45888000001</v>
-      </c>
-      <c r="N236" s="10" t="n"/>
-    </row>
-    <row r="237" spans="1:14">
+        <v>51429.93412999999</v>
+      </c>
+      <c r="N236" s="22" t="n">
+        <v>62548.518</v>
+      </c>
+      <c r="O236" s="10" t="n"/>
+    </row>
+    <row r="237">
       <c r="A237" s="5" t="n"/>
-      <c r="B237" s="60" t="s">
-        <v>202</v>
+      <c r="B237" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   D- Profit Brought Forward</t>
+        </is>
       </c>
       <c r="C237" s="23" t="n">
         <v>20600.72447</v>
       </c>
       <c r="D237" s="23" t="n">
-        <v>26849.00676</v>
+        <v>27004.77415</v>
       </c>
       <c r="E237" s="23" t="n">
         <v>33288.37206</v>
@@ -10701,38 +11303,43 @@
         <v>45339.18332</v>
       </c>
       <c r="G237" s="23" t="n">
-        <v>49185.96088000001</v>
+        <v>49262.15027</v>
       </c>
       <c r="H237" s="33" t="n">
-        <v>53322.53821</v>
+        <v>53398.72759999999</v>
       </c>
       <c r="I237" s="23" t="n">
-        <v>51136.447</v>
+        <v>51834.69272</v>
       </c>
       <c r="J237" s="33" t="n">
-        <v>52868.55219</v>
+        <v>54653.69248000001</v>
       </c>
       <c r="K237" s="23" t="n">
         <v>61359.80540999999</v>
       </c>
       <c r="L237" s="23" t="n">
-        <v>71955.28536999998</v>
+        <v>71955.28537</v>
       </c>
       <c r="M237" s="23" t="n">
-        <v>85103.61728999999</v>
-      </c>
-      <c r="N237" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12" r="238" s="70" spans="1:14">
+        <v>85569.88920000001</v>
+      </c>
+      <c r="N237" s="23" t="n">
+        <v>105653.354</v>
+      </c>
+      <c r="O237" s="11" t="n"/>
+    </row>
+    <row r="238">
       <c r="A238" s="8" t="n"/>
-      <c r="B238" s="57" t="s">
-        <v>203</v>
+      <c r="B238" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   E- Loss Brought Forward (-) </t>
+        </is>
       </c>
       <c r="C238" s="23" t="n">
         <v>-20003.1539</v>
       </c>
       <c r="D238" s="23" t="n">
-        <v>-28160.42521</v>
+        <v>-28654.83967</v>
       </c>
       <c r="E238" s="23" t="n">
         <v>-32635.55452</v>
@@ -10741,16 +11348,16 @@
         <v>-51846.59431</v>
       </c>
       <c r="G238" s="23" t="n">
-        <v>-48127.15448</v>
+        <v>-50266.50392999999</v>
       </c>
       <c r="H238" s="33" t="n">
-        <v>-27738.28275</v>
+        <v>-29994.8177</v>
       </c>
       <c r="I238" s="23" t="n">
-        <v>-31463.43659</v>
+        <v>-33249.32958000001</v>
       </c>
       <c r="J238" s="33" t="n">
-        <v>-33778.59845</v>
+        <v>-35651.45747</v>
       </c>
       <c r="K238" s="23" t="n">
         <v>-55169.41595</v>
@@ -10759,20 +11366,25 @@
         <v>-57925.45041</v>
       </c>
       <c r="M238" s="23" t="n">
-        <v>-64246.02593</v>
-      </c>
-      <c r="N238" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12" r="239" s="70" spans="1:14">
+        <v>-67137.79359999999</v>
+      </c>
+      <c r="N238" s="23" t="n">
+        <v>-92929.883</v>
+      </c>
+      <c r="O238" s="11" t="n"/>
+    </row>
+    <row r="239">
       <c r="A239" s="8" t="n"/>
-      <c r="B239" s="60" t="s">
-        <v>204</v>
+      <c r="B239" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   F- Net Profit or Loss for the Financial Year</t>
+        </is>
       </c>
       <c r="C239" s="23" t="n">
         <v>5355.021519999999</v>
       </c>
       <c r="D239" s="23" t="n">
-        <v>7919.18584</v>
+        <v>8123.017980000001</v>
       </c>
       <c r="E239" s="23" t="n">
         <v>-3924.56</v>
@@ -10781,38 +11393,43 @@
         <v>13182.3749</v>
       </c>
       <c r="G239" s="23" t="n">
-        <v>-16219.60538</v>
+        <v>-16228.67767</v>
       </c>
       <c r="H239" s="33" t="n">
-        <v>1181.25195</v>
+        <v>1175.02659</v>
       </c>
       <c r="I239" s="23" t="n">
-        <v>6872.42506</v>
+        <v>7283.007970000001</v>
       </c>
       <c r="J239" s="33" t="n">
-        <v>690.2882799999998</v>
+        <v>1538.0585</v>
       </c>
       <c r="K239" s="23" t="n">
         <v>7153.52022</v>
       </c>
       <c r="L239" s="23" t="n">
-        <v>-2881.17435</v>
+        <v>-2966.04366</v>
       </c>
       <c r="M239" s="23" t="n">
-        <v>22501.19234000001</v>
-      </c>
-      <c r="N239" s="11" t="n"/>
-    </row>
-    <row r="240" spans="1:14">
+        <v>24530.98817</v>
+      </c>
+      <c r="N239" s="23" t="n">
+        <v>25411.841</v>
+      </c>
+      <c r="O239" s="11" t="n"/>
+    </row>
+    <row r="240">
       <c r="A240" s="8" t="n"/>
-      <c r="B240" s="64" t="s">
-        <v>205</v>
+      <c r="B240" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Profit for the Financial Year</t>
+        </is>
       </c>
       <c r="C240" s="22" t="n">
         <v>12085.97133</v>
       </c>
       <c r="D240" s="22" t="n">
-        <v>11197.97027</v>
+        <v>11401.80241</v>
       </c>
       <c r="E240" s="22" t="n">
         <v>13740.69039</v>
@@ -10824,13 +11441,13 @@
         <v>12794.17888</v>
       </c>
       <c r="H240" s="21" t="n">
-        <v>7490.093380000001</v>
+        <v>7490.09338</v>
       </c>
       <c r="I240" s="22" t="n">
-        <v>13228.5239</v>
+        <v>13659.12372</v>
       </c>
       <c r="J240" s="21" t="n">
-        <v>10844.565</v>
+        <v>11692.33522</v>
       </c>
       <c r="K240" s="22" t="n">
         <v>17854.64656</v>
@@ -10839,14 +11456,19 @@
         <v>23539.63554</v>
       </c>
       <c r="M240" s="22" t="n">
-        <v>35708.54902</v>
-      </c>
-      <c r="N240" s="10" t="n"/>
-    </row>
-    <row r="241" spans="1:14">
+        <v>37982.79683</v>
+      </c>
+      <c r="N240" s="22" t="n">
+        <v>48231.439</v>
+      </c>
+      <c r="O240" s="10" t="n"/>
+    </row>
+    <row r="241">
       <c r="A241" s="5" t="n"/>
-      <c r="B241" s="64" t="s">
-        <v>206</v>
+      <c r="B241" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Loss for the Financial Year (-)</t>
+        </is>
       </c>
       <c r="C241" s="22" t="n">
         <v>6730.949809999999</v>
@@ -10858,16 +11480,16 @@
         <v>17665.25039</v>
       </c>
       <c r="F241" s="21" t="n">
-        <v>5036.47086</v>
+        <v>5036.470859999999</v>
       </c>
       <c r="G241" s="22" t="n">
-        <v>29013.78426</v>
+        <v>29022.85655</v>
       </c>
       <c r="H241" s="21" t="n">
-        <v>6308.841429999999</v>
+        <v>6315.06679</v>
       </c>
       <c r="I241" s="22" t="n">
-        <v>6356.09884</v>
+        <v>6376.11575</v>
       </c>
       <c r="J241" s="21" t="n">
         <v>10154.27672</v>
@@ -10876,23 +11498,28 @@
         <v>10701.12634</v>
       </c>
       <c r="L241" s="22" t="n">
-        <v>26420.80989</v>
+        <v>26505.6792</v>
       </c>
       <c r="M241" s="22" t="n">
-        <v>13207.35668</v>
-      </c>
-      <c r="N241" s="10" t="n"/>
-    </row>
-    <row r="242" spans="1:14">
+        <v>13451.80866</v>
+      </c>
+      <c r="N241" s="22" t="n">
+        <v>22819.598</v>
+      </c>
+      <c r="O241" s="10" t="n"/>
+    </row>
+    <row r="242">
       <c r="A242" s="5" t="n"/>
-      <c r="B242" s="57" t="s">
-        <v>207</v>
+      <c r="B242" s="57" t="inlineStr">
+        <is>
+          <t>TOTAL LIABILITIES</t>
+        </is>
       </c>
       <c r="C242" s="47" t="n">
         <v>325486.43321</v>
       </c>
       <c r="D242" s="47" t="n">
-        <v>425425.43821</v>
+        <v>426283.61344</v>
       </c>
       <c r="E242" s="47" t="n">
         <v>571045.1761</v>
@@ -10901,29 +11528,32 @@
         <v>667783.98061</v>
       </c>
       <c r="G242" s="47" t="n">
-        <v>660945.1370299999</v>
+        <v>660950.1566200001</v>
       </c>
       <c r="H242" s="48" t="n">
-        <v>447983.83608</v>
+        <v>448378.4407</v>
       </c>
       <c r="I242" s="47" t="n">
-        <v>571321.45949</v>
+        <v>574614.7209099999</v>
       </c>
       <c r="J242" s="48" t="n">
-        <v>632920.34935</v>
+        <v>668386.42657</v>
       </c>
       <c r="K242" s="47" t="n">
-        <v>780303.80991</v>
+        <v>780303.8099100001</v>
       </c>
       <c r="L242" s="47" t="n">
-        <v>1089696.32973</v>
+        <v>1091380.56773</v>
       </c>
       <c r="M242" s="47" t="n">
-        <v>1249294.75383</v>
-      </c>
-      <c r="N242" s="11" t="n"/>
-    </row>
-    <row r="243" spans="1:14">
+        <v>1258967.75442</v>
+      </c>
+      <c r="N242" s="47" t="n">
+        <v>1477077.783</v>
+      </c>
+      <c r="O242" s="11" t="n"/>
+    </row>
+    <row r="243">
       <c r="A243" s="8" t="n"/>
       <c r="B243" s="51" t="n"/>
       <c r="C243" s="50" t="n"/>
@@ -10937,18 +11567,21 @@
       <c r="K243" s="50" t="n"/>
       <c r="L243" s="50" t="n"/>
       <c r="M243" s="50" t="n"/>
-      <c r="N243" s="10" t="n"/>
-    </row>
-    <row r="244" spans="1:14">
+      <c r="N243" s="50" t="n"/>
+      <c r="O243" s="10" t="n"/>
+    </row>
+    <row r="244">
       <c r="A244" s="5" t="n"/>
-      <c r="B244" s="69" t="s">
-        <v>208</v>
+      <c r="B244" s="69" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C244" s="52" t="n">
         <v>247</v>
       </c>
       <c r="D244" s="52" t="n">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="E244" s="52" t="n">
         <v>291</v>
@@ -10957,29 +11590,32 @@
         <v>293</v>
       </c>
       <c r="G244" s="52" t="n">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="H244" s="53" t="n">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="I244" s="52" t="n">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="J244" s="53" t="n">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="K244" s="52" t="n">
         <v>280</v>
       </c>
       <c r="L244" s="52" t="n">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="M244" s="52" t="n">
-        <v>278</v>
-      </c>
-      <c r="N244" s="12" t="n"/>
-    </row>
-    <row r="245" spans="1:14">
+        <v>292</v>
+      </c>
+      <c r="N244" s="52" t="n">
+        <v>320</v>
+      </c>
+      <c r="O244" s="12" t="n"/>
+    </row>
+    <row r="245">
       <c r="A245" s="12" t="n"/>
       <c r="B245" s="54" t="n"/>
       <c r="C245" s="54" t="n"/>
@@ -10993,288 +11629,289 @@
       <c r="K245" s="54" t="n"/>
       <c r="L245" s="54" t="n"/>
       <c r="M245" s="54" t="n"/>
-      <c r="N245" s="10" t="n"/>
-    </row>
-    <row hidden="1" r="246" s="70" spans="1:14"/>
-    <row hidden="1" r="247" s="70" spans="1:14"/>
-    <row hidden="1" r="248" s="70" spans="1:14"/>
-    <row hidden="1" r="249" s="70" spans="1:14"/>
-    <row hidden="1" r="250" s="70" spans="1:14"/>
-    <row hidden="1" r="251" s="70" spans="1:14"/>
-    <row hidden="1" r="252" s="70" spans="1:14"/>
-    <row hidden="1" r="253" s="70" spans="1:14"/>
-    <row hidden="1" r="254" s="70" spans="1:14"/>
-    <row hidden="1" r="255" s="70" spans="1:14"/>
-    <row hidden="1" r="256" s="70" spans="1:14"/>
-    <row hidden="1" r="257" s="70" spans="1:14"/>
-    <row hidden="1" r="258" s="70" spans="1:14"/>
-    <row hidden="1" r="259" s="70" spans="1:14"/>
-    <row hidden="1" r="260" s="70" spans="1:14"/>
-    <row hidden="1" r="261" s="70" spans="1:14"/>
-    <row hidden="1" r="262" s="70" spans="1:14"/>
-    <row hidden="1" r="263" s="70" spans="1:14"/>
-    <row hidden="1" r="264" s="70" spans="1:14"/>
-    <row hidden="1" r="265" s="70" spans="1:14"/>
-    <row hidden="1" r="266" s="70" spans="1:14"/>
-    <row hidden="1" r="267" s="70" spans="1:14"/>
-    <row hidden="1" r="268" s="70" spans="1:14"/>
-    <row hidden="1" r="269" s="70" spans="1:14"/>
-    <row hidden="1" r="270" s="70" spans="1:14"/>
-    <row hidden="1" r="271" s="70" spans="1:14"/>
-    <row hidden="1" r="272" s="70" spans="1:14"/>
-    <row hidden="1" r="273" s="70" spans="1:14"/>
-    <row hidden="1" r="274" s="70" spans="1:14"/>
-    <row hidden="1" r="275" s="70" spans="1:14"/>
-    <row hidden="1" r="276" s="70" spans="1:14"/>
-    <row hidden="1" r="277" s="70" spans="1:14"/>
-    <row hidden="1" r="278" s="70" spans="1:14"/>
-    <row hidden="1" r="279" s="70" spans="1:14"/>
-    <row hidden="1" r="280" s="70" spans="1:14"/>
-    <row hidden="1" r="281" s="70" spans="1:14"/>
-    <row hidden="1" r="282" s="70" spans="1:14"/>
-    <row hidden="1" r="283" s="70" spans="1:14"/>
-    <row hidden="1" r="284" s="70" spans="1:14"/>
-    <row hidden="1" r="285" s="70" spans="1:14"/>
-    <row hidden="1" r="286" s="70" spans="1:14"/>
-    <row hidden="1" r="287" s="70" spans="1:14"/>
-    <row hidden="1" r="288" s="70" spans="1:14"/>
-    <row hidden="1" r="289" s="70" spans="1:14"/>
-    <row hidden="1" r="290" s="70" spans="1:14"/>
-    <row hidden="1" r="291" s="70" spans="1:14"/>
-    <row hidden="1" r="292" s="70" spans="1:14"/>
-    <row hidden="1" r="293" s="70" spans="1:14"/>
-    <row hidden="1" r="294" s="70" spans="1:14"/>
-    <row hidden="1" r="295" s="70" spans="1:14"/>
-    <row hidden="1" r="296" s="70" spans="1:14"/>
-    <row hidden="1" r="297" s="70" spans="1:14"/>
-    <row hidden="1" r="298" s="70" spans="1:14"/>
-    <row hidden="1" r="299" s="70" spans="1:14"/>
-    <row hidden="1" r="300" s="70" spans="1:14"/>
-    <row hidden="1" r="301" s="70" spans="1:14"/>
-    <row hidden="1" r="302" s="70" spans="1:14"/>
-    <row hidden="1" r="303" s="70" spans="1:14"/>
-    <row hidden="1" r="304" s="70" spans="1:14"/>
-    <row hidden="1" r="305" s="70" spans="1:14"/>
-    <row hidden="1" r="306" s="70" spans="1:14"/>
-    <row hidden="1" r="307" s="70" spans="1:14"/>
-    <row hidden="1" r="308" s="70" spans="1:14"/>
-    <row hidden="1" r="309" s="70" spans="1:14"/>
-    <row hidden="1" r="310" s="70" spans="1:14"/>
-    <row hidden="1" r="311" s="70" spans="1:14"/>
-    <row hidden="1" r="312" s="70" spans="1:14"/>
-    <row hidden="1" r="313" s="70" spans="1:14"/>
-    <row hidden="1" r="314" s="70" spans="1:14"/>
-    <row hidden="1" r="315" s="70" spans="1:14"/>
-    <row hidden="1" r="316" s="70" spans="1:14"/>
-    <row hidden="1" r="317" s="70" spans="1:14"/>
-    <row hidden="1" r="318" s="70" spans="1:14"/>
-    <row hidden="1" r="319" s="70" spans="1:14"/>
-    <row hidden="1" r="320" s="70" spans="1:14"/>
-    <row hidden="1" r="321" s="70" spans="1:14"/>
-    <row hidden="1" r="322" s="70" spans="1:14"/>
-    <row hidden="1" r="323" s="70" spans="1:14"/>
-    <row hidden="1" r="324" s="70" spans="1:14"/>
-    <row hidden="1" r="325" s="70" spans="1:14"/>
-    <row hidden="1" r="326" s="70" spans="1:14"/>
-    <row hidden="1" r="327" s="70" spans="1:14"/>
-    <row hidden="1" r="328" s="70" spans="1:14"/>
-    <row hidden="1" r="329" s="70" spans="1:14"/>
-    <row hidden="1" r="330" s="70" spans="1:14"/>
-    <row hidden="1" r="331" s="70" spans="1:14"/>
-    <row hidden="1" r="332" s="70" spans="1:14"/>
-    <row hidden="1" r="333" s="70" spans="1:14"/>
-    <row hidden="1" r="334" s="70" spans="1:14"/>
-    <row hidden="1" r="335" s="70" spans="1:14"/>
-    <row hidden="1" r="336" s="70" spans="1:14"/>
-    <row hidden="1" r="337" s="70" spans="1:14"/>
-    <row hidden="1" r="338" s="70" spans="1:14"/>
-    <row hidden="1" r="339" s="70" spans="1:14"/>
-    <row hidden="1" r="340" s="70" spans="1:14"/>
-    <row hidden="1" r="341" s="70" spans="1:14"/>
-    <row hidden="1" r="342" s="70" spans="1:14"/>
-    <row hidden="1" r="343" s="70" spans="1:14"/>
-    <row hidden="1" r="344" s="70" spans="1:14"/>
-    <row hidden="1" r="345" s="70" spans="1:14"/>
-    <row hidden="1" r="346" s="70" spans="1:14"/>
-    <row hidden="1" r="347" s="70" spans="1:14"/>
-    <row hidden="1" r="348" s="70" spans="1:14"/>
-    <row hidden="1" r="349" s="70" spans="1:14"/>
-    <row hidden="1" r="350" s="70" spans="1:14"/>
-    <row hidden="1" r="351" s="70" spans="1:14"/>
-    <row hidden="1" r="352" s="70" spans="1:14"/>
-    <row hidden="1" r="353" s="70" spans="1:14"/>
-    <row hidden="1" r="354" s="70" spans="1:14"/>
-    <row hidden="1" r="355" s="70" spans="1:14"/>
-    <row hidden="1" r="356" s="70" spans="1:14"/>
-    <row hidden="1" r="357" s="70" spans="1:14"/>
-    <row hidden="1" r="358" s="70" spans="1:14"/>
-    <row hidden="1" r="359" s="70" spans="1:14"/>
-    <row hidden="1" r="360" s="70" spans="1:14"/>
-    <row hidden="1" r="361" s="70" spans="1:14"/>
-    <row hidden="1" r="362" s="70" spans="1:14"/>
-    <row hidden="1" r="363" s="70" spans="1:14"/>
-    <row hidden="1" r="364" s="70" spans="1:14"/>
-    <row hidden="1" r="365" s="70" spans="1:14"/>
-    <row hidden="1" r="366" s="70" spans="1:14"/>
-    <row hidden="1" r="367" s="70" spans="1:14"/>
-    <row hidden="1" r="368" s="70" spans="1:14"/>
-    <row hidden="1" r="369" s="70" spans="1:14"/>
-    <row hidden="1" r="370" s="70" spans="1:14"/>
-    <row hidden="1" r="371" s="70" spans="1:14"/>
-    <row hidden="1" r="372" s="70" spans="1:14"/>
-    <row hidden="1" r="373" s="70" spans="1:14"/>
-    <row hidden="1" r="374" s="70" spans="1:14"/>
-    <row hidden="1" r="375" s="70" spans="1:14"/>
-    <row hidden="1" r="376" s="70" spans="1:14"/>
-    <row hidden="1" r="377" s="70" spans="1:14"/>
-    <row hidden="1" r="378" s="70" spans="1:14"/>
-    <row hidden="1" r="379" s="70" spans="1:14"/>
-    <row hidden="1" r="380" s="70" spans="1:14"/>
-    <row hidden="1" r="381" s="70" spans="1:14"/>
-    <row hidden="1" r="382" s="70" spans="1:14"/>
-    <row hidden="1" r="383" s="70" spans="1:14"/>
-    <row hidden="1" r="384" s="70" spans="1:14"/>
-    <row hidden="1" r="385" s="70" spans="1:14"/>
-    <row hidden="1" r="386" s="70" spans="1:14"/>
-    <row hidden="1" r="387" s="70" spans="1:14"/>
-    <row hidden="1" r="388" s="70" spans="1:14"/>
-    <row hidden="1" r="389" s="70" spans="1:14"/>
-    <row hidden="1" r="390" s="70" spans="1:14"/>
-    <row hidden="1" r="391" s="70" spans="1:14"/>
-    <row hidden="1" r="392" s="70" spans="1:14"/>
-    <row hidden="1" r="393" s="70" spans="1:14"/>
-    <row hidden="1" r="394" s="70" spans="1:14"/>
-    <row hidden="1" r="395" s="70" spans="1:14"/>
-    <row hidden="1" r="396" s="70" spans="1:14"/>
-    <row hidden="1" r="397" s="70" spans="1:14"/>
-    <row hidden="1" r="398" s="70" spans="1:14"/>
-    <row hidden="1" r="399" s="70" spans="1:14"/>
-    <row hidden="1" r="400" s="70" spans="1:14"/>
-    <row hidden="1" r="401" s="70" spans="1:14"/>
-    <row hidden="1" r="402" s="70" spans="1:14"/>
-    <row hidden="1" r="403" s="70" spans="1:14"/>
-    <row hidden="1" r="404" s="70" spans="1:14"/>
-    <row hidden="1" r="405" s="70" spans="1:14"/>
-    <row hidden="1" r="406" s="70" spans="1:14"/>
-    <row hidden="1" r="407" s="70" spans="1:14"/>
-    <row hidden="1" r="408" s="70" spans="1:14"/>
-    <row hidden="1" r="409" s="70" spans="1:14"/>
-    <row hidden="1" r="410" s="70" spans="1:14"/>
-    <row hidden="1" r="411" s="70" spans="1:14"/>
-    <row hidden="1" r="412" s="70" spans="1:14"/>
-    <row hidden="1" r="413" s="70" spans="1:14"/>
-    <row hidden="1" r="414" s="70" spans="1:14"/>
-    <row hidden="1" r="415" s="70" spans="1:14"/>
-    <row hidden="1" r="416" s="70" spans="1:14"/>
-    <row hidden="1" r="417" s="70" spans="1:14"/>
-    <row hidden="1" r="418" s="70" spans="1:14"/>
-    <row hidden="1" r="419" s="70" spans="1:14"/>
-    <row hidden="1" r="420" s="70" spans="1:14"/>
-    <row hidden="1" r="421" s="70" spans="1:14"/>
-    <row hidden="1" r="422" s="70" spans="1:14"/>
-    <row hidden="1" r="423" s="70" spans="1:14"/>
-    <row hidden="1" r="424" s="70" spans="1:14"/>
-    <row hidden="1" r="425" s="70" spans="1:14"/>
-    <row hidden="1" r="426" s="70" spans="1:14"/>
-    <row hidden="1" r="427" s="70" spans="1:14"/>
-    <row hidden="1" r="428" s="70" spans="1:14"/>
-    <row hidden="1" r="429" s="70" spans="1:14"/>
-    <row hidden="1" r="430" s="70" spans="1:14"/>
-    <row hidden="1" r="431" s="70" spans="1:14"/>
-    <row hidden="1" r="432" s="70" spans="1:14"/>
-    <row hidden="1" r="433" s="70" spans="1:14"/>
-    <row hidden="1" r="434" s="70" spans="1:14"/>
-    <row hidden="1" r="435" s="70" spans="1:14"/>
-    <row hidden="1" r="436" s="70" spans="1:14"/>
-    <row hidden="1" r="437" s="70" spans="1:14"/>
-    <row hidden="1" r="438" s="70" spans="1:14"/>
-    <row hidden="1" r="439" s="70" spans="1:14"/>
-    <row hidden="1" r="440" s="70" spans="1:14"/>
-    <row hidden="1" r="441" s="70" spans="1:14"/>
-    <row hidden="1" r="442" s="70" spans="1:14"/>
-    <row hidden="1" r="443" s="70" spans="1:14"/>
-    <row hidden="1" r="444" s="70" spans="1:14"/>
-    <row hidden="1" r="445" s="70" spans="1:14"/>
-    <row hidden="1" r="446" s="70" spans="1:14"/>
-    <row hidden="1" r="447" s="70" spans="1:14"/>
-    <row hidden="1" r="448" s="70" spans="1:14"/>
-    <row hidden="1" r="449" s="70" spans="1:14"/>
-    <row hidden="1" r="450" s="70" spans="1:14"/>
-    <row hidden="1" r="451" s="70" spans="1:14"/>
-    <row hidden="1" r="452" s="70" spans="1:14"/>
-    <row hidden="1" r="453" s="70" spans="1:14"/>
-    <row hidden="1" r="454" s="70" spans="1:14"/>
-    <row hidden="1" r="455" s="70" spans="1:14"/>
-    <row hidden="1" r="456" s="70" spans="1:14"/>
-    <row hidden="1" r="457" s="70" spans="1:14"/>
-    <row hidden="1" r="458" s="70" spans="1:14"/>
-    <row hidden="1" r="459" s="70" spans="1:14"/>
-    <row hidden="1" r="460" s="70" spans="1:14"/>
-    <row hidden="1" r="461" s="70" spans="1:14"/>
-    <row hidden="1" r="462" s="70" spans="1:14"/>
-    <row hidden="1" r="463" s="70" spans="1:14"/>
-    <row hidden="1" r="464" s="70" spans="1:14"/>
-    <row hidden="1" r="465" s="70" spans="1:14"/>
-    <row hidden="1" r="466" s="70" spans="1:14"/>
-    <row hidden="1" r="467" s="70" spans="1:14"/>
-    <row hidden="1" r="468" s="70" spans="1:14"/>
-    <row hidden="1" r="469" s="70" spans="1:14"/>
-    <row hidden="1" r="470" s="70" spans="1:14"/>
-    <row hidden="1" r="471" s="70" spans="1:14"/>
-    <row hidden="1" r="472" s="70" spans="1:14"/>
-    <row hidden="1" r="473" s="70" spans="1:14"/>
-    <row hidden="1" r="474" s="70" spans="1:14"/>
-    <row hidden="1" r="475" s="70" spans="1:14"/>
-    <row hidden="1" r="476" s="70" spans="1:14"/>
-    <row hidden="1" r="477" s="70" spans="1:14"/>
-    <row hidden="1" r="478" s="70" spans="1:14"/>
-    <row hidden="1" r="479" s="70" spans="1:14"/>
-    <row hidden="1" r="480" s="70" spans="1:14"/>
-    <row hidden="1" r="481" s="70" spans="1:14"/>
-    <row hidden="1" r="482" s="70" spans="1:14"/>
-    <row hidden="1" r="483" s="70" spans="1:14"/>
-    <row hidden="1" r="484" s="70" spans="1:14"/>
-    <row hidden="1" r="485" s="70" spans="1:14"/>
-    <row hidden="1" r="486" s="70" spans="1:14"/>
-    <row hidden="1" r="487" s="70" spans="1:14"/>
-    <row hidden="1" r="488" s="70" spans="1:14"/>
-    <row hidden="1" r="489" s="70" spans="1:14"/>
-    <row hidden="1" r="490" s="70" spans="1:14"/>
-    <row hidden="1" r="491" s="70" spans="1:14"/>
-    <row hidden="1" r="492" s="70" spans="1:14"/>
-    <row hidden="1" r="493" s="70" spans="1:14"/>
-    <row hidden="1" r="494" s="70" spans="1:14"/>
-    <row hidden="1" r="495" s="70" spans="1:14"/>
-    <row hidden="1" r="496" s="70" spans="1:14"/>
-    <row hidden="1" r="497" s="70" spans="1:14"/>
-    <row hidden="1" r="498" s="70" spans="1:14"/>
-    <row hidden="1" r="499" s="70" spans="1:14"/>
-    <row hidden="1" r="500" s="70" spans="1:14"/>
-    <row hidden="1" r="501" s="70" spans="1:14"/>
-    <row hidden="1" r="502" s="70" spans="1:14"/>
-    <row hidden="1" r="503" s="70" spans="1:14"/>
-    <row hidden="1" r="504" s="70" spans="1:14"/>
-    <row hidden="1" r="505" s="70" spans="1:14"/>
-    <row hidden="1" r="506" s="70" spans="1:14"/>
-    <row hidden="1" r="507" s="70" spans="1:14"/>
-    <row hidden="1" r="508" s="70" spans="1:14"/>
-    <row hidden="1" r="509" s="70" spans="1:14"/>
-    <row hidden="1" r="510" s="70" spans="1:14"/>
-    <row hidden="1" r="511" s="70" spans="1:14"/>
-    <row hidden="1" r="512" s="70" spans="1:14"/>
-    <row hidden="1" r="513" s="70" spans="1:14"/>
-    <row hidden="1" r="514" s="70" spans="1:14"/>
-    <row hidden="1" r="515" s="70" spans="1:14"/>
-    <row hidden="1" r="516" s="70" spans="1:14"/>
-    <row hidden="1" r="517" s="70" spans="1:14"/>
-    <row hidden="1" r="518" s="70" spans="1:14"/>
-    <row hidden="1" r="519" s="70" spans="1:14"/>
-    <row hidden="1" r="520" s="70" spans="1:14"/>
-    <row hidden="1" r="521" s="70" spans="1:14"/>
-    <row hidden="1" r="522" s="70" spans="1:14"/>
+      <c r="N245" s="54" t="n"/>
+      <c r="O245" s="10" t="n"/>
+    </row>
+    <row r="246" hidden="1" s="70"/>
+    <row r="247" hidden="1" s="70"/>
+    <row r="248" hidden="1" s="70"/>
+    <row r="249" hidden="1" s="70"/>
+    <row r="250" hidden="1" s="70"/>
+    <row r="251" hidden="1" s="70"/>
+    <row r="252" hidden="1" s="70"/>
+    <row r="253" hidden="1" s="70"/>
+    <row r="254" hidden="1" s="70"/>
+    <row r="255" hidden="1" s="70"/>
+    <row r="256" hidden="1" s="70"/>
+    <row r="257" hidden="1" s="70"/>
+    <row r="258" hidden="1" s="70"/>
+    <row r="259" hidden="1" s="70"/>
+    <row r="260" hidden="1" s="70"/>
+    <row r="261" hidden="1" s="70"/>
+    <row r="262" hidden="1" s="70"/>
+    <row r="263" hidden="1" s="70"/>
+    <row r="264" hidden="1" s="70"/>
+    <row r="265" hidden="1" s="70"/>
+    <row r="266" hidden="1" s="70"/>
+    <row r="267" hidden="1" s="70"/>
+    <row r="268" hidden="1" s="70"/>
+    <row r="269" hidden="1" s="70"/>
+    <row r="270" hidden="1" s="70"/>
+    <row r="271" hidden="1" s="70"/>
+    <row r="272" hidden="1" s="70"/>
+    <row r="273" hidden="1" s="70"/>
+    <row r="274" hidden="1" s="70"/>
+    <row r="275" hidden="1" s="70"/>
+    <row r="276" hidden="1" s="70"/>
+    <row r="277" hidden="1" s="70"/>
+    <row r="278" hidden="1" s="70"/>
+    <row r="279" hidden="1" s="70"/>
+    <row r="280" hidden="1" s="70"/>
+    <row r="281" hidden="1" s="70"/>
+    <row r="282" hidden="1" s="70"/>
+    <row r="283" hidden="1" s="70"/>
+    <row r="284" hidden="1" s="70"/>
+    <row r="285" hidden="1" s="70"/>
+    <row r="286" hidden="1" s="70"/>
+    <row r="287" hidden="1" s="70"/>
+    <row r="288" hidden="1" s="70"/>
+    <row r="289" hidden="1" s="70"/>
+    <row r="290" hidden="1" s="70"/>
+    <row r="291" hidden="1" s="70"/>
+    <row r="292" hidden="1" s="70"/>
+    <row r="293" hidden="1" s="70"/>
+    <row r="294" hidden="1" s="70"/>
+    <row r="295" hidden="1" s="70"/>
+    <row r="296" hidden="1" s="70"/>
+    <row r="297" hidden="1" s="70"/>
+    <row r="298" hidden="1" s="70"/>
+    <row r="299" hidden="1" s="70"/>
+    <row r="300" hidden="1" s="70"/>
+    <row r="301" hidden="1" s="70"/>
+    <row r="302" hidden="1" s="70"/>
+    <row r="303" hidden="1" s="70"/>
+    <row r="304" hidden="1" s="70"/>
+    <row r="305" hidden="1" s="70"/>
+    <row r="306" hidden="1" s="70"/>
+    <row r="307" hidden="1" s="70"/>
+    <row r="308" hidden="1" s="70"/>
+    <row r="309" hidden="1" s="70"/>
+    <row r="310" hidden="1" s="70"/>
+    <row r="311" hidden="1" s="70"/>
+    <row r="312" hidden="1" s="70"/>
+    <row r="313" hidden="1" s="70"/>
+    <row r="314" hidden="1" s="70"/>
+    <row r="315" hidden="1" s="70"/>
+    <row r="316" hidden="1" s="70"/>
+    <row r="317" hidden="1" s="70"/>
+    <row r="318" hidden="1" s="70"/>
+    <row r="319" hidden="1" s="70"/>
+    <row r="320" hidden="1" s="70"/>
+    <row r="321" hidden="1" s="70"/>
+    <row r="322" hidden="1" s="70"/>
+    <row r="323" hidden="1" s="70"/>
+    <row r="324" hidden="1" s="70"/>
+    <row r="325" hidden="1" s="70"/>
+    <row r="326" hidden="1" s="70"/>
+    <row r="327" hidden="1" s="70"/>
+    <row r="328" hidden="1" s="70"/>
+    <row r="329" hidden="1" s="70"/>
+    <row r="330" hidden="1" s="70"/>
+    <row r="331" hidden="1" s="70"/>
+    <row r="332" hidden="1" s="70"/>
+    <row r="333" hidden="1" s="70"/>
+    <row r="334" hidden="1" s="70"/>
+    <row r="335" hidden="1" s="70"/>
+    <row r="336" hidden="1" s="70"/>
+    <row r="337" hidden="1" s="70"/>
+    <row r="338" hidden="1" s="70"/>
+    <row r="339" hidden="1" s="70"/>
+    <row r="340" hidden="1" s="70"/>
+    <row r="341" hidden="1" s="70"/>
+    <row r="342" hidden="1" s="70"/>
+    <row r="343" hidden="1" s="70"/>
+    <row r="344" hidden="1" s="70"/>
+    <row r="345" hidden="1" s="70"/>
+    <row r="346" hidden="1" s="70"/>
+    <row r="347" hidden="1" s="70"/>
+    <row r="348" hidden="1" s="70"/>
+    <row r="349" hidden="1" s="70"/>
+    <row r="350" hidden="1" s="70"/>
+    <row r="351" hidden="1" s="70"/>
+    <row r="352" hidden="1" s="70"/>
+    <row r="353" hidden="1" s="70"/>
+    <row r="354" hidden="1" s="70"/>
+    <row r="355" hidden="1" s="70"/>
+    <row r="356" hidden="1" s="70"/>
+    <row r="357" hidden="1" s="70"/>
+    <row r="358" hidden="1" s="70"/>
+    <row r="359" hidden="1" s="70"/>
+    <row r="360" hidden="1" s="70"/>
+    <row r="361" hidden="1" s="70"/>
+    <row r="362" hidden="1" s="70"/>
+    <row r="363" hidden="1" s="70"/>
+    <row r="364" hidden="1" s="70"/>
+    <row r="365" hidden="1" s="70"/>
+    <row r="366" hidden="1" s="70"/>
+    <row r="367" hidden="1" s="70"/>
+    <row r="368" hidden="1" s="70"/>
+    <row r="369" hidden="1" s="70"/>
+    <row r="370" hidden="1" s="70"/>
+    <row r="371" hidden="1" s="70"/>
+    <row r="372" hidden="1" s="70"/>
+    <row r="373" hidden="1" s="70"/>
+    <row r="374" hidden="1" s="70"/>
+    <row r="375" hidden="1" s="70"/>
+    <row r="376" hidden="1" s="70"/>
+    <row r="377" hidden="1" s="70"/>
+    <row r="378" hidden="1" s="70"/>
+    <row r="379" hidden="1" s="70"/>
+    <row r="380" hidden="1" s="70"/>
+    <row r="381" hidden="1" s="70"/>
+    <row r="382" hidden="1" s="70"/>
+    <row r="383" hidden="1" s="70"/>
+    <row r="384" hidden="1" s="70"/>
+    <row r="385" hidden="1" s="70"/>
+    <row r="386" hidden="1" s="70"/>
+    <row r="387" hidden="1" s="70"/>
+    <row r="388" hidden="1" s="70"/>
+    <row r="389" hidden="1" s="70"/>
+    <row r="390" hidden="1" s="70"/>
+    <row r="391" hidden="1" s="70"/>
+    <row r="392" hidden="1" s="70"/>
+    <row r="393" hidden="1" s="70"/>
+    <row r="394" hidden="1" s="70"/>
+    <row r="395" hidden="1" s="70"/>
+    <row r="396" hidden="1" s="70"/>
+    <row r="397" hidden="1" s="70"/>
+    <row r="398" hidden="1" s="70"/>
+    <row r="399" hidden="1" s="70"/>
+    <row r="400" hidden="1" s="70"/>
+    <row r="401" hidden="1" s="70"/>
+    <row r="402" hidden="1" s="70"/>
+    <row r="403" hidden="1" s="70"/>
+    <row r="404" hidden="1" s="70"/>
+    <row r="405" hidden="1" s="70"/>
+    <row r="406" hidden="1" s="70"/>
+    <row r="407" hidden="1" s="70"/>
+    <row r="408" hidden="1" s="70"/>
+    <row r="409" hidden="1" s="70"/>
+    <row r="410" hidden="1" s="70"/>
+    <row r="411" hidden="1" s="70"/>
+    <row r="412" hidden="1" s="70"/>
+    <row r="413" hidden="1" s="70"/>
+    <row r="414" hidden="1" s="70"/>
+    <row r="415" hidden="1" s="70"/>
+    <row r="416" hidden="1" s="70"/>
+    <row r="417" hidden="1" s="70"/>
+    <row r="418" hidden="1" s="70"/>
+    <row r="419" hidden="1" s="70"/>
+    <row r="420" hidden="1" s="70"/>
+    <row r="421" hidden="1" s="70"/>
+    <row r="422" hidden="1" s="70"/>
+    <row r="423" hidden="1" s="70"/>
+    <row r="424" hidden="1" s="70"/>
+    <row r="425" hidden="1" s="70"/>
+    <row r="426" hidden="1" s="70"/>
+    <row r="427" hidden="1" s="70"/>
+    <row r="428" hidden="1" s="70"/>
+    <row r="429" hidden="1" s="70"/>
+    <row r="430" hidden="1" s="70"/>
+    <row r="431" hidden="1" s="70"/>
+    <row r="432" hidden="1" s="70"/>
+    <row r="433" hidden="1" s="70"/>
+    <row r="434" hidden="1" s="70"/>
+    <row r="435" hidden="1" s="70"/>
+    <row r="436" hidden="1" s="70"/>
+    <row r="437" hidden="1" s="70"/>
+    <row r="438" hidden="1" s="70"/>
+    <row r="439" hidden="1" s="70"/>
+    <row r="440" hidden="1" s="70"/>
+    <row r="441" hidden="1" s="70"/>
+    <row r="442" hidden="1" s="70"/>
+    <row r="443" hidden="1" s="70"/>
+    <row r="444" hidden="1" s="70"/>
+    <row r="445" hidden="1" s="70"/>
+    <row r="446" hidden="1" s="70"/>
+    <row r="447" hidden="1" s="70"/>
+    <row r="448" hidden="1" s="70"/>
+    <row r="449" hidden="1" s="70"/>
+    <row r="450" hidden="1" s="70"/>
+    <row r="451" hidden="1" s="70"/>
+    <row r="452" hidden="1" s="70"/>
+    <row r="453" hidden="1" s="70"/>
+    <row r="454" hidden="1" s="70"/>
+    <row r="455" hidden="1" s="70"/>
+    <row r="456" hidden="1" s="70"/>
+    <row r="457" hidden="1" s="70"/>
+    <row r="458" hidden="1" s="70"/>
+    <row r="459" hidden="1" s="70"/>
+    <row r="460" hidden="1" s="70"/>
+    <row r="461" hidden="1" s="70"/>
+    <row r="462" hidden="1" s="70"/>
+    <row r="463" hidden="1" s="70"/>
+    <row r="464" hidden="1" s="70"/>
+    <row r="465" hidden="1" s="70"/>
+    <row r="466" hidden="1" s="70"/>
+    <row r="467" hidden="1" s="70"/>
+    <row r="468" hidden="1" s="70"/>
+    <row r="469" hidden="1" s="70"/>
+    <row r="470" hidden="1" s="70"/>
+    <row r="471" hidden="1" s="70"/>
+    <row r="472" hidden="1" s="70"/>
+    <row r="473" hidden="1" s="70"/>
+    <row r="474" hidden="1" s="70"/>
+    <row r="475" hidden="1" s="70"/>
+    <row r="476" hidden="1" s="70"/>
+    <row r="477" hidden="1" s="70"/>
+    <row r="478" hidden="1" s="70"/>
+    <row r="479" hidden="1" s="70"/>
+    <row r="480" hidden="1" s="70"/>
+    <row r="481" hidden="1" s="70"/>
+    <row r="482" hidden="1" s="70"/>
+    <row r="483" hidden="1" s="70"/>
+    <row r="484" hidden="1" s="70"/>
+    <row r="485" hidden="1" s="70"/>
+    <row r="486" hidden="1" s="70"/>
+    <row r="487" hidden="1" s="70"/>
+    <row r="488" hidden="1" s="70"/>
+    <row r="489" hidden="1" s="70"/>
+    <row r="490" hidden="1" s="70"/>
+    <row r="491" hidden="1" s="70"/>
+    <row r="492" hidden="1" s="70"/>
+    <row r="493" hidden="1" s="70"/>
+    <row r="494" hidden="1" s="70"/>
+    <row r="495" hidden="1" s="70"/>
+    <row r="496" hidden="1" s="70"/>
+    <row r="497" hidden="1" s="70"/>
+    <row r="498" hidden="1" s="70"/>
+    <row r="499" hidden="1" s="70"/>
+    <row r="500" hidden="1" s="70"/>
+    <row r="501" hidden="1" s="70"/>
+    <row r="502" hidden="1" s="70"/>
+    <row r="503" hidden="1" s="70"/>
+    <row r="504" hidden="1" s="70"/>
+    <row r="505" hidden="1" s="70"/>
+    <row r="506" hidden="1" s="70"/>
+    <row r="507" hidden="1" s="70"/>
+    <row r="508" hidden="1" s="70"/>
+    <row r="509" hidden="1" s="70"/>
+    <row r="510" hidden="1" s="70"/>
+    <row r="511" hidden="1" s="70"/>
+    <row r="512" hidden="1" s="70"/>
+    <row r="513" hidden="1" s="70"/>
+    <row r="514" hidden="1" s="70"/>
+    <row r="515" hidden="1" s="70"/>
+    <row r="516" hidden="1" s="70"/>
+    <row r="517" hidden="1" s="70"/>
+    <row r="518" hidden="1" s="70"/>
+    <row r="519" hidden="1" s="70"/>
+    <row r="520" hidden="1" s="70"/>
+    <row r="521" hidden="1" s="70"/>
+    <row r="522" hidden="1" s="70"/>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.6299212598425197" right="0.2755905511811024" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="29" verticalDpi="300"/>
+  <pageMargins left="0.6299212598425197" right="0.2755905511811024" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="29" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>